--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T395"/>
+  <dimension ref="A1:T405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21476,6 +21476,586 @@
         </is>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>338.64</v>
+      </c>
+      <c r="C396" t="n">
+        <v>319.4433333333333</v>
+      </c>
+      <c r="D396" t="n">
+        <v>306.5533333333333</v>
+      </c>
+      <c r="E396" t="n">
+        <v>284.5314285714286</v>
+      </c>
+      <c r="F396" t="n">
+        <v>311.35</v>
+      </c>
+      <c r="G396" t="n">
+        <v>312.41</v>
+      </c>
+      <c r="H396" t="n">
+        <v>317.37</v>
+      </c>
+      <c r="I396" t="n">
+        <v>310.6433333333333</v>
+      </c>
+      <c r="J396" t="n">
+        <v>312.77</v>
+      </c>
+      <c r="K396" t="n">
+        <v>311.55</v>
+      </c>
+      <c r="L396" t="n">
+        <v>331.38</v>
+      </c>
+      <c r="M396" t="n">
+        <v>331.09</v>
+      </c>
+      <c r="N396" t="n">
+        <v>307.0133333333333</v>
+      </c>
+      <c r="O396" t="n">
+        <v>318.49</v>
+      </c>
+      <c r="P396" t="n">
+        <v>305.31</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>292.6833333333333</v>
+      </c>
+      <c r="R396" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="S396" t="n">
+        <v>280.2333333333333</v>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>295.41</v>
+      </c>
+      <c r="C397" t="n">
+        <v>283.5866666666667</v>
+      </c>
+      <c r="D397" t="n">
+        <v>267.0066666666667</v>
+      </c>
+      <c r="E397" t="n">
+        <v>253.3385714285714</v>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="n">
+        <v>284.7</v>
+      </c>
+      <c r="H397" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="I397" t="n">
+        <v>288.0866666666667</v>
+      </c>
+      <c r="J397" t="n">
+        <v>286.75</v>
+      </c>
+      <c r="K397" t="n">
+        <v>291.55</v>
+      </c>
+      <c r="L397" t="n">
+        <v>290.72</v>
+      </c>
+      <c r="M397" t="n">
+        <v>294.37</v>
+      </c>
+      <c r="N397" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="O397" t="n">
+        <v>279.74</v>
+      </c>
+      <c r="P397" t="n">
+        <v>271.96</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>269.3166666666667</v>
+      </c>
+      <c r="R397" t="n">
+        <v>257.69</v>
+      </c>
+      <c r="S397" t="n">
+        <v>256.9466666666667</v>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>326.61</v>
+      </c>
+      <c r="C398" t="n">
+        <v>304.2833333333333</v>
+      </c>
+      <c r="D398" t="n">
+        <v>287.9733333333333</v>
+      </c>
+      <c r="E398" t="n">
+        <v>281.7028571428572</v>
+      </c>
+      <c r="F398" t="n">
+        <v>305.06</v>
+      </c>
+      <c r="G398" t="n">
+        <v>301.55</v>
+      </c>
+      <c r="H398" t="n">
+        <v>300.53</v>
+      </c>
+      <c r="I398" t="n">
+        <v>303.0633333333333</v>
+      </c>
+      <c r="J398" t="n">
+        <v>304.89</v>
+      </c>
+      <c r="K398" t="n">
+        <v>290.84</v>
+      </c>
+      <c r="L398" t="n">
+        <v>308.54</v>
+      </c>
+      <c r="M398" t="n">
+        <v>306.26</v>
+      </c>
+      <c r="N398" t="n">
+        <v>283.3633333333333</v>
+      </c>
+      <c r="O398" t="n">
+        <v>298.55</v>
+      </c>
+      <c r="P398" t="n">
+        <v>293.1</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>284.2233333333333</v>
+      </c>
+      <c r="R398" t="n">
+        <v>280.73</v>
+      </c>
+      <c r="S398" t="n">
+        <v>266.0733333333333</v>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>339.37</v>
+      </c>
+      <c r="C399" t="n">
+        <v>311.4266666666667</v>
+      </c>
+      <c r="D399" t="n">
+        <v>293.6466666666666</v>
+      </c>
+      <c r="E399" t="n">
+        <v>287.9571428571429</v>
+      </c>
+      <c r="F399" t="n">
+        <v>315.25</v>
+      </c>
+      <c r="G399" t="n">
+        <v>311.61</v>
+      </c>
+      <c r="H399" t="n">
+        <v>308.01</v>
+      </c>
+      <c r="I399" t="n">
+        <v>306.9566666666667</v>
+      </c>
+      <c r="J399" t="n">
+        <v>313.41</v>
+      </c>
+      <c r="K399" t="n">
+        <v>304.49</v>
+      </c>
+      <c r="L399" t="n">
+        <v>317.65</v>
+      </c>
+      <c r="M399" t="n">
+        <v>320.64</v>
+      </c>
+      <c r="N399" t="n">
+        <v>294.5266666666667</v>
+      </c>
+      <c r="O399" t="n">
+        <v>305.55</v>
+      </c>
+      <c r="P399" t="n">
+        <v>301.93</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>292.8666666666667</v>
+      </c>
+      <c r="R399" t="n">
+        <v>290.49</v>
+      </c>
+      <c r="S399" t="inlineStr"/>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="n">
+        <v>298.58</v>
+      </c>
+      <c r="G400" t="n">
+        <v>306.88</v>
+      </c>
+      <c r="H400" t="n">
+        <v>308.27</v>
+      </c>
+      <c r="I400" t="n">
+        <v>305.3233333333333</v>
+      </c>
+      <c r="J400" t="n">
+        <v>298.87</v>
+      </c>
+      <c r="K400" t="n">
+        <v>295.6</v>
+      </c>
+      <c r="L400" t="n">
+        <v>291.79</v>
+      </c>
+      <c r="M400" t="n">
+        <v>284.89</v>
+      </c>
+      <c r="N400" t="n">
+        <v>288.5333333333333</v>
+      </c>
+      <c r="O400" t="n">
+        <v>288.87</v>
+      </c>
+      <c r="P400" t="n">
+        <v>284.89</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>267.7433333333333</v>
+      </c>
+      <c r="R400" t="n">
+        <v>251.14</v>
+      </c>
+      <c r="S400" t="n">
+        <v>249.8933333333333</v>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>340.94</v>
+      </c>
+      <c r="C401" t="n">
+        <v>319.0866666666667</v>
+      </c>
+      <c r="D401" t="n">
+        <v>308.2566666666667</v>
+      </c>
+      <c r="E401" t="n">
+        <v>291.4728571428572</v>
+      </c>
+      <c r="F401" t="n">
+        <v>325.85</v>
+      </c>
+      <c r="G401" t="n">
+        <v>315.79</v>
+      </c>
+      <c r="H401" t="n">
+        <v>309.45</v>
+      </c>
+      <c r="I401" t="n">
+        <v>314.6266666666667</v>
+      </c>
+      <c r="J401" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="K401" t="n">
+        <v>283.1</v>
+      </c>
+      <c r="L401" t="n">
+        <v>324.16</v>
+      </c>
+      <c r="M401" t="n">
+        <v>325.47</v>
+      </c>
+      <c r="N401" t="n">
+        <v>284.6666666666667</v>
+      </c>
+      <c r="O401" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
+      <c r="S401" t="inlineStr"/>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="n">
+        <v>294.9933333333333</v>
+      </c>
+      <c r="E402" t="n">
+        <v>298.9414285714286</v>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
+      <c r="S402" t="inlineStr"/>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>344.67</v>
+      </c>
+      <c r="C403" t="n">
+        <v>317.2633333333333</v>
+      </c>
+      <c r="D403" t="n">
+        <v>312.5833333333333</v>
+      </c>
+      <c r="E403" t="n">
+        <v>295.3371428571429</v>
+      </c>
+      <c r="F403" t="n">
+        <v>322.93</v>
+      </c>
+      <c r="G403" t="n">
+        <v>316.67</v>
+      </c>
+      <c r="H403" t="n">
+        <v>335.07</v>
+      </c>
+      <c r="I403" t="n">
+        <v>321.6133333333333</v>
+      </c>
+      <c r="J403" t="n">
+        <v>314.41</v>
+      </c>
+      <c r="K403" t="n">
+        <v>310.94</v>
+      </c>
+      <c r="L403" t="n">
+        <v>323.65</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
+      <c r="S403" t="inlineStr"/>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>312.18</v>
+      </c>
+      <c r="C404" t="n">
+        <v>279.82</v>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="n">
+        <v>309.51</v>
+      </c>
+      <c r="J404" t="n">
+        <v>294.98</v>
+      </c>
+      <c r="K404" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="L404" t="n">
+        <v>305.97</v>
+      </c>
+      <c r="M404" t="n">
+        <v>310.54</v>
+      </c>
+      <c r="N404" t="n">
+        <v>309.86</v>
+      </c>
+      <c r="O404" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="P404" t="n">
+        <v>295.79</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="R404" t="n">
+        <v>279.83</v>
+      </c>
+      <c r="S404" t="n">
+        <v>276.65</v>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="n">
+        <v>311.76</v>
+      </c>
+      <c r="E405" t="n">
+        <v>289.8414285714286</v>
+      </c>
+      <c r="F405" t="n">
+        <v>332.49</v>
+      </c>
+      <c r="G405" t="n">
+        <v>313.72</v>
+      </c>
+      <c r="H405" t="n">
+        <v>333.38</v>
+      </c>
+      <c r="I405" t="n">
+        <v>318.08</v>
+      </c>
+      <c r="J405" t="n">
+        <v>304.91</v>
+      </c>
+      <c r="K405" t="n">
+        <v>309.12</v>
+      </c>
+      <c r="L405" t="n">
+        <v>333.15</v>
+      </c>
+      <c r="M405" t="n">
+        <v>335.09</v>
+      </c>
+      <c r="N405" t="n">
+        <v>306.15</v>
+      </c>
+      <c r="O405" t="n">
+        <v>317.77</v>
+      </c>
+      <c r="P405" t="n">
+        <v>309.84</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>302.17</v>
+      </c>
+      <c r="R405" t="n">
+        <v>303.05</v>
+      </c>
+      <c r="S405" t="n">
+        <v>284.42</v>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21487,7 +22067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B465"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26145,6 +26725,106 @@
       </c>
       <c r="B465" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26993,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9713970845840397</v>
+        <v>-0.8069550333331861</v>
       </c>
       <c r="J2" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0798987751692718</v>
+        <v>0.0561414692157608</v>
       </c>
       <c r="M2" t="n">
-        <v>20.43400733467735</v>
+        <v>20.81744447343037</v>
       </c>
       <c r="N2" t="n">
-        <v>619.1396225055173</v>
+        <v>640.8758931874969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.88251640219528</v>
+        <v>25.3155267215102</v>
       </c>
       <c r="P2" t="n">
-        <v>316.534560476098</v>
+        <v>315.03205288234</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26390,28 +27070,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8975861901605739</v>
+        <v>-0.7934539550454699</v>
       </c>
       <c r="J3" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09624862634700926</v>
+        <v>0.07767804919811649</v>
       </c>
       <c r="M3" t="n">
-        <v>16.62157493922729</v>
+        <v>16.7527598979824</v>
       </c>
       <c r="N3" t="n">
-        <v>419.8403186846053</v>
+        <v>426.704003398499</v>
       </c>
       <c r="O3" t="n">
-        <v>20.49000533637328</v>
+        <v>20.65681493838048</v>
       </c>
       <c r="P3" t="n">
-        <v>305.6199739560712</v>
+        <v>304.6497606288056</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26467,28 +27147,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.272392606030976</v>
+        <v>-1.159191509393134</v>
       </c>
       <c r="J4" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.145943103460782</v>
+        <v>0.1273348763769492</v>
       </c>
       <c r="M4" t="n">
-        <v>16.52362852235418</v>
+        <v>16.62662795546433</v>
       </c>
       <c r="N4" t="n">
-        <v>542.3030806817114</v>
+        <v>545.0893245747385</v>
       </c>
       <c r="O4" t="n">
-        <v>23.28740175892775</v>
+        <v>23.34714810367079</v>
       </c>
       <c r="P4" t="n">
-        <v>308.3937238400408</v>
+        <v>307.3807750729321</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26544,28 +27224,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.495336115858549</v>
+        <v>-1.41067800794754</v>
       </c>
       <c r="J5" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2503724933549657</v>
+        <v>0.2341608285189494</v>
       </c>
       <c r="M5" t="n">
-        <v>14.97646363706876</v>
+        <v>15.08814091313491</v>
       </c>
       <c r="N5" t="n">
-        <v>373.3566326908737</v>
+        <v>374.4076146143885</v>
       </c>
       <c r="O5" t="n">
-        <v>19.32243858033643</v>
+        <v>19.34961536088996</v>
       </c>
       <c r="P5" t="n">
-        <v>307.3420306609951</v>
+        <v>306.5510395959611</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26621,28 +27301,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.610286627766834</v>
+        <v>-1.397673841571075</v>
       </c>
       <c r="J6" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2709582601183896</v>
+        <v>0.2066310672337235</v>
       </c>
       <c r="M6" t="n">
-        <v>15.87152811703506</v>
+        <v>16.62354915975046</v>
       </c>
       <c r="N6" t="n">
-        <v>394.1879725858195</v>
+        <v>435.7189085942596</v>
       </c>
       <c r="O6" t="n">
-        <v>19.85416763769812</v>
+        <v>20.87388101418276</v>
       </c>
       <c r="P6" t="n">
-        <v>311.0150025500856</v>
+        <v>309.0563376371027</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26698,28 +27378,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.755075354226743</v>
+        <v>-1.518730402618116</v>
       </c>
       <c r="J7" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2834106626678864</v>
+        <v>0.2172966795396442</v>
       </c>
       <c r="M7" t="n">
-        <v>16.84677561415541</v>
+        <v>17.59995929556428</v>
       </c>
       <c r="N7" t="n">
-        <v>449.8249279218599</v>
+        <v>494.5043799077845</v>
       </c>
       <c r="O7" t="n">
-        <v>21.20907654571174</v>
+        <v>22.23745443857692</v>
       </c>
       <c r="P7" t="n">
-        <v>306.7093137090446</v>
+        <v>304.5589251805435</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26775,28 +27455,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.015492498201895</v>
+        <v>-1.708406178034745</v>
       </c>
       <c r="J8" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K8" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3379538602648474</v>
+        <v>0.2436592328356424</v>
       </c>
       <c r="M8" t="n">
-        <v>17.51921794989529</v>
+        <v>18.46228205776481</v>
       </c>
       <c r="N8" t="n">
-        <v>461.1118041284067</v>
+        <v>541.8786759499035</v>
       </c>
       <c r="O8" t="n">
-        <v>21.4735140144413</v>
+        <v>23.27828765072516</v>
       </c>
       <c r="P8" t="n">
-        <v>306.8746851612725</v>
+        <v>304.0974042335035</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26852,28 +27532,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.539975786193907</v>
+        <v>-1.249853698954622</v>
       </c>
       <c r="J9" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2225172146863491</v>
+        <v>0.1467653955126692</v>
       </c>
       <c r="M9" t="n">
-        <v>17.90103785376103</v>
+        <v>18.9027675871865</v>
       </c>
       <c r="N9" t="n">
-        <v>492.7738328265365</v>
+        <v>556.8968243410665</v>
       </c>
       <c r="O9" t="n">
-        <v>22.19850969832292</v>
+        <v>23.59866149469216</v>
       </c>
       <c r="P9" t="n">
-        <v>296.9329021128857</v>
+        <v>294.3089674027829</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26929,28 +27609,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.433443430934166</v>
+        <v>-1.178951810161684</v>
       </c>
       <c r="J10" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K10" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2303714189582359</v>
+        <v>0.1581613439442693</v>
       </c>
       <c r="M10" t="n">
-        <v>16.44405860941204</v>
+        <v>17.41515791429289</v>
       </c>
       <c r="N10" t="n">
-        <v>412.0631555848476</v>
+        <v>458.6117802409052</v>
       </c>
       <c r="O10" t="n">
-        <v>20.29933879674034</v>
+        <v>21.41522309575376</v>
       </c>
       <c r="P10" t="n">
-        <v>295.7642075741708</v>
+        <v>293.4831998277976</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27006,28 +27686,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.447674685104467</v>
+        <v>-1.170626367054155</v>
       </c>
       <c r="J11" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K11" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2158536205830257</v>
+        <v>0.1427702242656989</v>
       </c>
       <c r="M11" t="n">
-        <v>16.74487968837831</v>
+        <v>17.70919247060719</v>
       </c>
       <c r="N11" t="n">
-        <v>441.7409560352268</v>
+        <v>493.9652988691725</v>
       </c>
       <c r="O11" t="n">
-        <v>21.01763440626054</v>
+        <v>22.22533011833958</v>
       </c>
       <c r="P11" t="n">
-        <v>290.6421231708011</v>
+        <v>288.1084329976832</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -27083,28 +27763,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.045667207705707</v>
+        <v>-0.6612960707536975</v>
       </c>
       <c r="J12" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K12" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1131254983108653</v>
+        <v>0.04169369389639577</v>
       </c>
       <c r="M12" t="n">
-        <v>17.80326984393607</v>
+        <v>19.31448005131834</v>
       </c>
       <c r="N12" t="n">
-        <v>502.9478388503127</v>
+        <v>610.8684342935838</v>
       </c>
       <c r="O12" t="n">
-        <v>22.42649858650058</v>
+        <v>24.71575275595675</v>
       </c>
       <c r="P12" t="n">
-        <v>281.0584207923443</v>
+        <v>277.5572888318964</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -27160,28 +27840,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.112280333719844</v>
+        <v>-0.7436955751385178</v>
       </c>
       <c r="J13" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K13" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1147000231611139</v>
+        <v>0.0479174405857663</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5300370692089</v>
+        <v>19.70980046907567</v>
       </c>
       <c r="N13" t="n">
-        <v>548.962979328383</v>
+        <v>654.2956988713327</v>
       </c>
       <c r="O13" t="n">
-        <v>23.42995901252034</v>
+        <v>25.57920442217335</v>
       </c>
       <c r="P13" t="n">
-        <v>279.6886130594071</v>
+        <v>276.3335401370608</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -27237,28 +27917,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.759676754015088</v>
+        <v>-1.399675281299001</v>
       </c>
       <c r="J14" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K14" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2782316328203187</v>
+        <v>0.1775079386634945</v>
       </c>
       <c r="M14" t="n">
-        <v>16.47345167054965</v>
+        <v>17.702418119709</v>
       </c>
       <c r="N14" t="n">
-        <v>446.32174391831</v>
+        <v>526.6889959799634</v>
       </c>
       <c r="O14" t="n">
-        <v>21.12632821666628</v>
+        <v>22.94970579288465</v>
       </c>
       <c r="P14" t="n">
-        <v>285.8268723512891</v>
+        <v>282.5560825457063</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -27314,28 +27994,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.8275300380399337</v>
+        <v>-0.5713149818628535</v>
       </c>
       <c r="J15" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K15" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08084959804398073</v>
+        <v>0.03763897732639698</v>
       </c>
       <c r="M15" t="n">
-        <v>17.04531722337818</v>
+        <v>17.85233763443416</v>
       </c>
       <c r="N15" t="n">
-        <v>447.8514804165545</v>
+        <v>496.0236609854256</v>
       </c>
       <c r="O15" t="n">
-        <v>21.16250175231072</v>
+        <v>22.27158864978934</v>
       </c>
       <c r="P15" t="n">
-        <v>277.709384218606</v>
+        <v>275.3569459044071</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -27391,28 +28071,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.149281785793098</v>
+        <v>-0.9474096545724353</v>
       </c>
       <c r="J16" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K16" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1794631667649006</v>
+        <v>0.1217578758284478</v>
       </c>
       <c r="M16" t="n">
-        <v>14.91180852532206</v>
+        <v>15.58374621747636</v>
       </c>
       <c r="N16" t="n">
-        <v>349.8000971499777</v>
+        <v>385.4012746297623</v>
       </c>
       <c r="O16" t="n">
-        <v>18.70294354239401</v>
+        <v>19.63163963172109</v>
       </c>
       <c r="P16" t="n">
-        <v>284.3223047955176</v>
+        <v>282.4582378075668</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -27468,28 +28148,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8112930901932078</v>
+        <v>-0.6648912424976888</v>
       </c>
       <c r="J17" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K17" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1226234172020725</v>
+        <v>0.08299320642570351</v>
       </c>
       <c r="M17" t="n">
-        <v>12.91192671171009</v>
+        <v>13.27070937139193</v>
       </c>
       <c r="N17" t="n">
-        <v>272.4402243115478</v>
+        <v>290.3467780649939</v>
       </c>
       <c r="O17" t="n">
-        <v>16.50576336651982</v>
+        <v>17.03956507851635</v>
       </c>
       <c r="P17" t="n">
-        <v>278.1564242396113</v>
+        <v>276.7980621419916</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -27545,28 +28225,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.9563136423436093</v>
+        <v>-0.875966717145347</v>
       </c>
       <c r="J18" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K18" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1512498092790683</v>
+        <v>0.1309201085957008</v>
       </c>
       <c r="M18" t="n">
-        <v>14.2457185566513</v>
+        <v>14.39012988209429</v>
       </c>
       <c r="N18" t="n">
-        <v>302.243816729811</v>
+        <v>308.7749010082052</v>
       </c>
       <c r="O18" t="n">
-        <v>17.38516081978568</v>
+        <v>17.57199194764797</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6704309385381</v>
+        <v>286.9467297471817</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -27622,28 +28302,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.184268510105735</v>
+        <v>-1.162957917437252</v>
       </c>
       <c r="J19" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K19" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2194546766580017</v>
+        <v>0.2192567480874739</v>
       </c>
       <c r="M19" t="n">
-        <v>13.3377111535882</v>
+        <v>13.29315252620026</v>
       </c>
       <c r="N19" t="n">
-        <v>292.0940749132448</v>
+        <v>289.2214444755801</v>
       </c>
       <c r="O19" t="n">
-        <v>17.09075992790387</v>
+        <v>17.00651182563844</v>
       </c>
       <c r="P19" t="n">
-        <v>294.4126418948484</v>
+        <v>294.21849173147</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -27680,7 +28360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T395"/>
+  <dimension ref="A1:T405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57846,6 +58526,866 @@
         </is>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-35.397176034818415,173.23927978367752</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-35.396514043569404,173.2388399204662</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-35.39588991201414,173.2383482394516</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-35.395210953317076,173.23793158600958</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-35.39482520768451,173.23711365501828</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-35.39428481508042,173.23650735880116</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-35.393767832267656,173.2358690201117</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-35.39318068517143,173.23532669939348</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-35.39264668503637,173.23471163953417</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-35.39209258970664,173.23412407583047</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-35.3916648616451,173.23336356664788</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>-35.39111634159946,173.2327683625907</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>-35.39042501893521,173.23236858689944</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>-35.38994713089756,173.23167670906534</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>-35.38932121793063,173.23118740653734</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>-35.38869862364308,173.23069355704752</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>-35.38814592385682,173.23010404817046</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>-35.38753028678972,173.22960066723914</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-35.396916497903256,173.23963496964777</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-35.396298774034555,173.23913452409758</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-35.3956524898463,173.23867315891664</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-35.39502368453355,173.2381878682232</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-35.394118457799216,173.23673502521726</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-35.3936149235964,173.23607828212297</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-35.393045267159955,173.23551202466527</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-35.39249047572634,173.23492541883624</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>-35.39197252159714,173.23428839456696</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>-35.39142076444724,173.23369762604307</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>-35.3908958986812,173.23307005036423</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>-35.39034729584363,173.2324749548599</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>-35.38971450289444,173.23199507243555</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>-35.38912100843281,173.23146140313057</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>-35.388558347428315,173.23088553184107</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>-35.38794175368699,173.23038346482258</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>-35.387390491879444,173.22979198319814</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-35.39710381125731,173.23937862469322</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-35.39642302889064,173.23896447744048</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-35.39577836532925,173.23850089487254</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-35.395193971787386,173.23795482575542</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-35.39478744547346,173.23716533413696</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-35.39421961700557,173.23659658508655</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-35.39366673368157,173.23600737796505</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-35.39313517898803,173.2353889766413</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-35.39259937802939,173.234776381393</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-35.39196825917513,173.23429422787316</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-35.39152774469072,173.23355121855803</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-35.39096727856502,173.23297236351718</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>-35.390283040147885,173.23256289176052</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>-35.38982742513466,173.23184053292226</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>-35.38924791791389,173.23128772148925</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>-35.38864783608452,173.23076306240623</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>-35.388080068392085,173.2301941747776</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>-35.387445281274964,173.2297170014424</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-35.39718041745917,173.23927378583795</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-35.3964659146711,173.23890578671111</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-35.39581242571174,173.2384542821568</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-35.395231519830375,173.2379034400821</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-35.39484862144496,173.23708161229726</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-35.394280012277896,173.2365139316448</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-35.393711639723975,173.23594592214414</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-35.393158552440696,173.2353569890399</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-35.39265052722832,173.2347063813088</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-35.392050205689564,173.2341820804001</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-35.3915824354199,173.23347637148441</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-35.3910536066955,173.23285421889173</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-35.39035005737631,173.23247117556923</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-35.389869448246294,173.23178302209487</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>-35.38930092686146,173.2312151759689</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>-35.38869972423985,173.23069205082325</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>-35.38813865994835,173.23011398921636</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr"/>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-35.39474854256831,173.23721857425969</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-35.39425161570065,173.23655279356666</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-35.39371320062863,173.23594378597798</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-35.39314874679807,173.23537040849823</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-35.39256323737373,173.23482584149303</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-35.391996835407404,173.2342551200622</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-35.39142718806956,173.23368883503213</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-35.39083898682477,173.2331479368102</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-35.39031407739792,173.23252041587236</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-35.389769313129364,173.23192006208234</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-35.38919863095971,173.23135517312795</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-35.38854890228562,173.23089845793737</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>-35.38790243239497,173.23043727762965</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>-35.38734814912984,173.22984993104512</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-35.39718984313759,173.23926088637262</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-35.39651190228447,173.23884285089957</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-35.39590013811786,173.2383342446476</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-35.39525262665809,173.23787455469298</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-35.39491225880209,173.23699452173113</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-35.394305106917116,173.2364795885283</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-35.39372028473388,173.23593409106917</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-35.39320459891806,173.23529397231565</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-35.392493777618064,173.23492090006633</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-35.39192179275356,173.23435781908668</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-35.39162151735046,173.233422885753</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-35.39108260283574,173.23281453604375</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-35.39029086449795,173.23255218378662</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-35.38981571869154,173.23185655378498</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
+      <c r="S401" t="inlineStr"/>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-35.39582051054724,173.2384432177931</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-35.395297464707156,173.23781319226416</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
+      <c r="S402" t="inlineStr"/>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-35.39721223662279,173.23923023986012</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-35.39650095571455,173.23885783171065</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-35.395926113614685,173.23829869618632</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-35.39527582614987,173.23784280539581</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-35.394894728517535,173.23701851273094</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-35.39431038999782,173.23647235839584</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-35.39387409367448,173.2357235961048</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-35.39324654300782,173.23523656979606</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-35.39265653065276,173.23469816533068</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-35.392088927632614,173.23412908755915</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-35.39161845563326,173.23342707588128</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
+      <c r="S403" t="inlineStr"/>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-35.39701717889882,173.23949718438215</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-35.396276160385405,173.23916547149233</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-35.39317388125863,173.23533601085978</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-35.39253988401566,173.23485780156741</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-35.39200518014509,173.2342436999189</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-35.391512316013376,173.2335723334661</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-35.39099297290247,173.23293719949646</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-35.39044210839744,173.23234519906615</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-35.389854740160345,173.23180315089124</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-35.3892640667372,173.2312656209954</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-35.388696322395226,173.2306967064254</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>-35.38807466547949,173.23020156893213</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>-35.387508775282356,173.22963010682636</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-35.39592117066656,173.23830546080285</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-35.39524283226755,173.2378879586422</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-35.39495212217109,173.23693996681615</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-35.39429267966878,173.2364965957681</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-35.393863947818915,173.23573748123832</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-35.393225330828436,173.23526559970367</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-35.39259949809798,173.23477621707363</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-35.39207800144328,173.23414404058298</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-35.39167548759653,173.23334902441988</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-35.39114035494364,173.23273549889956</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-35.390419836064616,173.2323756799289</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-35.38994280852685,173.23168262447885</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>-35.38934841275589,173.23115018890456</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>-35.38875557449833,173.23061561673464</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>-35.388214060479115,173.2300107994299</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>-35.38755542022549,173.22956627082715</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -26838,7 +26838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26929,35 +26929,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27016,27 +27021,28 @@
       <c r="P2" t="n">
         <v>315.03205288234</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.24206205390053 -35.3951429376239, 173.23445653174886 -35.400700150971645)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.2420620539005</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.3951429376239</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.2344565317489</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.40070015097164</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.2382592928247</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.39792154429777</v>
       </c>
     </row>
@@ -27093,27 +27099,28 @@
       <c r="P3" t="n">
         <v>304.6497606288056</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.2414644585366 -35.39459620419427, 173.23385894270527 -35.40015340670352)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.2414644585366</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.39459620419427</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.2338589427053</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.40015340670352</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.2376617006209</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.39737480544889</v>
       </c>
     </row>
@@ -27170,27 +27177,28 @@
       <c r="P4" t="n">
         <v>307.3807750729321</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.24086686317239 -35.39404946705742, 173.23326135366224 -35.39960665872832)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.2408668631724</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.39404946705742</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.2332613536622</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.39960665872832</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.2370641084173</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.39682806289287</v>
       </c>
     </row>
@@ -27247,27 +27255,28 @@
       <c r="P5" t="n">
         <v>306.5510395959611</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.24026926780783 -35.39350272621335, 173.23266376461984 -35.39905990704611)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.2402692678078</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.39350272621335</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.2326637646198</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.39905990704611</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.2364665162139</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.39628131662973</v>
       </c>
     </row>
@@ -27324,27 +27333,28 @@
       <c r="P6" t="n">
         <v>309.0563376371027</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.239671672443 -35.39295598166212, 173.2320661755781 -35.39851315165685)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.239671672443</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.39295598166212</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.2320661755781</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.39851315165685</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.2358689240106</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.39573456665948</v>
       </c>
     </row>
@@ -27401,27 +27411,28 @@
       <c r="P7" t="n">
         <v>304.5589251805435</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.23907407707785 -35.39240923340371, 173.23146858653703 -35.39796639256058)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.2390740770778</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.39240923340371</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.231468586537</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.39796639256058</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.2352713318074</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.39518781298214</v>
       </c>
     </row>
@@ -27478,27 +27489,28 @@
       <c r="P8" t="n">
         <v>304.0974042335035</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.2384764817123 -35.39186248143812, 173.2308709974965 -35.397419629757394)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.2384764817123</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.39186248143812</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.2308709974965</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.39741962975739</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.2346737396044</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.39464105559776</v>
       </c>
     </row>
@@ -27555,27 +27567,28 @@
       <c r="P9" t="n">
         <v>294.3089674027829</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.2378788863465 -35.39131572576542, 173.23027340845664 -35.39687286324723)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.2378788863465</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.39131572576542</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.2302734084566</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.39687286324723</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.2340761474016</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.39409429450633</v>
       </c>
     </row>
@@ -27632,27 +27645,28 @@
       <c r="P10" t="n">
         <v>293.4831998277976</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.23728129098035 -35.39076896638565, 173.2296758194174 -35.39632609303011)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.2372812909803</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.39076896638565</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.2296758194174</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.39632609303011</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.2334785551989</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.39354752970788</v>
       </c>
     </row>
@@ -27709,27 +27723,28 @@
       <c r="P11" t="n">
         <v>288.1084329976832</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.23668369561392 -35.39022220329882, 173.22907823037878 -35.39577931910615)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.2366836956139</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.39022220329882</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.2290782303788</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.39577931910615</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.2328809629963</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.39300076120249</v>
       </c>
     </row>
@@ -27786,27 +27801,28 @@
       <c r="P12" t="n">
         <v>277.5572888318964</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.2360861002472 -35.38967543650498, 173.22848064134078 -35.395232541475224)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.2360861002472</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.38967543650498</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.2284806413408</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.39523254147522</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.232283370794</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.3924539889901</v>
       </c>
     </row>
@@ -27863,27 +27879,28 @@
       <c r="P13" t="n">
         <v>276.3335401370608</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.23548850488018 -35.38912866600408, 173.2278830523034 -35.394685760137506)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.2354885048802</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.38912866600408</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.2278830523034</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.39468576013751</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.2316857785918</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.39190721307079</v>
       </c>
     </row>
@@ -27940,27 +27957,28 @@
       <c r="P14" t="n">
         <v>282.5560825457063</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.2348909095128 -35.38858189179614, 173.2272854632667 -35.39413897509302)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.2348909095128</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.38858189179614</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.2272854632667</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.39413897509302</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.2310881863897</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.39136043344458</v>
       </c>
     </row>
@@ -28017,27 +28035,28 @@
       <c r="P15" t="n">
         <v>275.3569459044071</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.23429331414508 -35.38803511388131, 173.22668787423058 -35.39359218634167)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.2342933141451</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.38803511388131</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.2266878742306</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.39359218634167</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.2304905941878</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.39081365011149</v>
       </c>
     </row>
@@ -28094,27 +28113,28 @@
       <c r="P16" t="n">
         <v>282.4582378075668</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.2336957187771 -35.38748833225951, 173.22609028519508 -35.393045393883575)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.2336957187771</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.38748833225951</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.2260902851951</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.39304539388358</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.2298930019861</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.39026686307155</v>
       </c>
     </row>
@@ -28171,27 +28191,28 @@
       <c r="P17" t="n">
         <v>276.7980621419916</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.2330981234088 -35.38694154693078, 173.22549269616022 -35.3924985977187)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.2330981234088</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.38694154693078</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.2254926961602</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.3924985977187</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.2292954097845</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.38972007232474</v>
       </c>
     </row>
@@ -28248,27 +28269,28 @@
       <c r="P18" t="n">
         <v>286.9467297471817</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.23250052804016 -35.3863947578952, 173.22489510712595 -35.39195179784707)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.2325005280402</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.3863947578952</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.2248951071259</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.39195179784707</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.2286978175831</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.38917327787114</v>
       </c>
     </row>
@@ -28325,27 +28347,28 @@
       <c r="P19" t="n">
         <v>294.21849173147</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.2319029326713 -35.38584796515276, 173.22429751809233 -35.391404994268704)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.2319029326713</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.38584796515276</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.2242975180923</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.3914049942687</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.2281002253818</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.38862647971074</v>
       </c>
     </row>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T405"/>
+  <dimension ref="A1:T411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22001,7 +22001,9 @@
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="n">
+        <v>325.48</v>
+      </c>
       <c r="D405" t="n">
         <v>311.76</v>
       </c>
@@ -22051,6 +22053,398 @@
         <v>284.42</v>
       </c>
       <c r="T405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>316.55</v>
+      </c>
+      <c r="C406" t="n">
+        <v>304.9666666666667</v>
+      </c>
+      <c r="D406" t="n">
+        <v>294.9466666666667</v>
+      </c>
+      <c r="E406" t="n">
+        <v>295.0157142857143</v>
+      </c>
+      <c r="F406" t="n">
+        <v>318.23</v>
+      </c>
+      <c r="G406" t="n">
+        <v>326.37</v>
+      </c>
+      <c r="H406" t="n">
+        <v>325.78</v>
+      </c>
+      <c r="I406" t="n">
+        <v>312.0266666666667</v>
+      </c>
+      <c r="J406" t="n">
+        <v>302.93</v>
+      </c>
+      <c r="K406" t="n">
+        <v>305.57</v>
+      </c>
+      <c r="L406" t="n">
+        <v>306.26</v>
+      </c>
+      <c r="M406" t="n">
+        <v>310.81</v>
+      </c>
+      <c r="N406" t="n">
+        <v>311.0666666666667</v>
+      </c>
+      <c r="O406" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="P406" t="n">
+        <v>289.08</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>283.0166666666667</v>
+      </c>
+      <c r="R406" t="n">
+        <v>273</v>
+      </c>
+      <c r="S406" t="n">
+        <v>268.8066666666667</v>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>315.68</v>
+      </c>
+      <c r="C407" t="n">
+        <v>301.9833333333333</v>
+      </c>
+      <c r="D407" t="n">
+        <v>294.3033333333333</v>
+      </c>
+      <c r="E407" t="n">
+        <v>284.4571428571429</v>
+      </c>
+      <c r="F407" t="n">
+        <v>309.19</v>
+      </c>
+      <c r="G407" t="n">
+        <v>312.89</v>
+      </c>
+      <c r="H407" t="n">
+        <v>311.02</v>
+      </c>
+      <c r="I407" t="n">
+        <v>307.0533333333333</v>
+      </c>
+      <c r="J407" t="n">
+        <v>295.87</v>
+      </c>
+      <c r="K407" t="n">
+        <v>293.17</v>
+      </c>
+      <c r="L407" t="n">
+        <v>306.07</v>
+      </c>
+      <c r="M407" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="N407" t="n">
+        <v>293.6733333333333</v>
+      </c>
+      <c r="O407" t="n">
+        <v>298.04</v>
+      </c>
+      <c r="P407" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>281.3433333333333</v>
+      </c>
+      <c r="R407" t="n">
+        <v>277.55</v>
+      </c>
+      <c r="S407" t="n">
+        <v>272.1133333333333</v>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:40+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>312.56</v>
+      </c>
+      <c r="C408" t="n">
+        <v>304.2033333333333</v>
+      </c>
+      <c r="D408" t="n">
+        <v>299.9233333333333</v>
+      </c>
+      <c r="E408" t="n">
+        <v>292.9728571428572</v>
+      </c>
+      <c r="F408" t="n">
+        <v>319.72</v>
+      </c>
+      <c r="G408" t="n">
+        <v>309.04</v>
+      </c>
+      <c r="H408" t="n">
+        <v>313.73</v>
+      </c>
+      <c r="I408" t="n">
+        <v>313.7233333333333</v>
+      </c>
+      <c r="J408" t="n">
+        <v>302.84</v>
+      </c>
+      <c r="K408" t="n">
+        <v>304.71</v>
+      </c>
+      <c r="L408" t="n">
+        <v>313.67</v>
+      </c>
+      <c r="M408" t="n">
+        <v>306.9</v>
+      </c>
+      <c r="N408" t="n">
+        <v>295.0033333333333</v>
+      </c>
+      <c r="O408" t="n">
+        <v>304.62</v>
+      </c>
+      <c r="P408" t="n">
+        <v>291.37</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>291.5533333333333</v>
+      </c>
+      <c r="R408" t="n">
+        <v>277.63</v>
+      </c>
+      <c r="S408" t="n">
+        <v>272.9333333333333</v>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>340.22</v>
+      </c>
+      <c r="C409" t="n">
+        <v>325.03</v>
+      </c>
+      <c r="D409" t="n">
+        <v>293.29</v>
+      </c>
+      <c r="E409" t="n">
+        <v>303.7757142857143</v>
+      </c>
+      <c r="F409" t="n">
+        <v>331.1799999999999</v>
+      </c>
+      <c r="G409" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="H409" t="n">
+        <v>311.37</v>
+      </c>
+      <c r="I409" t="n">
+        <v>320.41</v>
+      </c>
+      <c r="J409" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="K409" t="n">
+        <v>298.98</v>
+      </c>
+      <c r="L409" t="n">
+        <v>321.1899999999999</v>
+      </c>
+      <c r="M409" t="n">
+        <v>300.88</v>
+      </c>
+      <c r="N409" t="n">
+        <v>270.08</v>
+      </c>
+      <c r="O409" t="n">
+        <v>294.8</v>
+      </c>
+      <c r="P409" t="n">
+        <v>286.9</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>280.56</v>
+      </c>
+      <c r="R409" t="n">
+        <v>288.01</v>
+      </c>
+      <c r="S409" t="n">
+        <v>271.98</v>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>299.72</v>
+      </c>
+      <c r="C410" t="n">
+        <v>304.92</v>
+      </c>
+      <c r="D410" t="n">
+        <v>299.39</v>
+      </c>
+      <c r="E410" t="n">
+        <v>277.82</v>
+      </c>
+      <c r="F410" t="n">
+        <v>320.42</v>
+      </c>
+      <c r="G410" t="n">
+        <v>312.57</v>
+      </c>
+      <c r="H410" t="n">
+        <v>311.72</v>
+      </c>
+      <c r="I410" t="n">
+        <v>302.75</v>
+      </c>
+      <c r="J410" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="K410" t="n">
+        <v>266.79</v>
+      </c>
+      <c r="L410" t="n">
+        <v>307.88</v>
+      </c>
+      <c r="M410" t="n">
+        <v>293.26</v>
+      </c>
+      <c r="N410" t="n">
+        <v>237.53</v>
+      </c>
+      <c r="O410" t="n">
+        <v>280.23</v>
+      </c>
+      <c r="P410" t="n">
+        <v>279.43</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>275.42</v>
+      </c>
+      <c r="R410" t="inlineStr"/>
+      <c r="S410" t="inlineStr"/>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:41+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>305.52</v>
+      </c>
+      <c r="C411" t="n">
+        <v>314.1066666666667</v>
+      </c>
+      <c r="D411" t="n">
+        <v>284.0366666666667</v>
+      </c>
+      <c r="E411" t="n">
+        <v>315.6942857142857</v>
+      </c>
+      <c r="F411" t="n">
+        <v>296.89</v>
+      </c>
+      <c r="G411" t="n">
+        <v>294.04</v>
+      </c>
+      <c r="H411" t="n">
+        <v>289.8</v>
+      </c>
+      <c r="I411" t="n">
+        <v>284.0466666666667</v>
+      </c>
+      <c r="J411" t="n">
+        <v>280.49</v>
+      </c>
+      <c r="K411" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="L411" t="n">
+        <v>281.65</v>
+      </c>
+      <c r="M411" t="n">
+        <v>274.17</v>
+      </c>
+      <c r="N411" t="n">
+        <v>267.8566666666667</v>
+      </c>
+      <c r="O411" t="n">
+        <v>261.74</v>
+      </c>
+      <c r="P411" t="n">
+        <v>253.68</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>259.1866666666667</v>
+      </c>
+      <c r="R411" t="n">
+        <v>259.45</v>
+      </c>
+      <c r="S411" t="n">
+        <v>272.4466666666667</v>
+      </c>
+      <c r="T411" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22067,7 +22461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B475"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26825,6 +27219,76 @@
       </c>
       <c r="B475" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -26998,28 +27462,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8069550333331861</v>
+        <v>-0.7303874499021641</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0561414692157608</v>
+        <v>0.04753354088095219</v>
       </c>
       <c r="M2" t="n">
-        <v>20.81744447343037</v>
+        <v>20.80267862742382</v>
       </c>
       <c r="N2" t="n">
-        <v>640.8758931874969</v>
+        <v>639.2759818413449</v>
       </c>
       <c r="O2" t="n">
-        <v>25.3155267215102</v>
+        <v>25.28390756669833</v>
       </c>
       <c r="P2" t="n">
-        <v>315.03205288234</v>
+        <v>314.3251570611664</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27076,28 +27540,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7934539550454699</v>
+        <v>-0.6726081438677934</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07767804919811649</v>
+        <v>0.05738092303298314</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7527598979824</v>
+        <v>16.95591204283028</v>
       </c>
       <c r="N3" t="n">
-        <v>426.704003398499</v>
+        <v>435.1391207929996</v>
       </c>
       <c r="O3" t="n">
-        <v>20.65681493838048</v>
+        <v>20.85998851373125</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6497606288056</v>
+        <v>303.5116819217138</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27154,28 +27618,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.159191509393134</v>
+        <v>-1.097471645206809</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1273348763769492</v>
+        <v>0.1190192891209737</v>
       </c>
       <c r="M4" t="n">
-        <v>16.62662795546433</v>
+        <v>16.55791447900139</v>
       </c>
       <c r="N4" t="n">
-        <v>545.0893245747385</v>
+        <v>539.8600095363249</v>
       </c>
       <c r="O4" t="n">
-        <v>23.34714810367079</v>
+        <v>23.23488776681146</v>
       </c>
       <c r="P4" t="n">
-        <v>307.3807750729321</v>
+        <v>306.8236152565864</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27232,28 +27696,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.41067800794754</v>
+        <v>-1.317994287099383</v>
       </c>
       <c r="J5" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2341608285189494</v>
+        <v>0.2110361922742826</v>
       </c>
       <c r="M5" t="n">
-        <v>15.08814091313491</v>
+        <v>15.23710425271173</v>
       </c>
       <c r="N5" t="n">
-        <v>374.4076146143885</v>
+        <v>381.5443475396356</v>
       </c>
       <c r="O5" t="n">
-        <v>19.34961536088996</v>
+        <v>19.5331602036034</v>
       </c>
       <c r="P5" t="n">
-        <v>306.5510395959611</v>
+        <v>305.6770354740256</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27310,28 +27774,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.397673841571075</v>
+        <v>-1.235799300514171</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2066310672337235</v>
+        <v>0.1632930554989145</v>
       </c>
       <c r="M6" t="n">
-        <v>16.62354915975046</v>
+        <v>17.20854082532934</v>
       </c>
       <c r="N6" t="n">
-        <v>435.7189085942596</v>
+        <v>464.5850855335375</v>
       </c>
       <c r="O6" t="n">
-        <v>20.87388101418276</v>
+        <v>21.55423590697517</v>
       </c>
       <c r="P6" t="n">
-        <v>309.0563376371027</v>
+        <v>307.5506828828087</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27388,28 +27852,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.518730402618116</v>
+        <v>-1.357450395884136</v>
       </c>
       <c r="J7" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2172966795396442</v>
+        <v>0.1761332084229098</v>
       </c>
       <c r="M7" t="n">
-        <v>17.59995929556428</v>
+        <v>18.13136805799454</v>
       </c>
       <c r="N7" t="n">
-        <v>494.5043799077845</v>
+        <v>523.6098247626454</v>
       </c>
       <c r="O7" t="n">
-        <v>22.23745443857692</v>
+        <v>22.88252225526385</v>
       </c>
       <c r="P7" t="n">
-        <v>304.5589251805435</v>
+        <v>303.0761407768748</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27466,28 +27930,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.708406178034745</v>
+        <v>-1.516065333528741</v>
       </c>
       <c r="J8" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2436592328356424</v>
+        <v>0.1939414241322588</v>
       </c>
       <c r="M8" t="n">
-        <v>18.46228205776481</v>
+        <v>19.0972590115623</v>
       </c>
       <c r="N8" t="n">
-        <v>541.8786759499035</v>
+        <v>583.7266771260666</v>
       </c>
       <c r="O8" t="n">
-        <v>23.27828765072516</v>
+        <v>24.16043619486343</v>
       </c>
       <c r="P8" t="n">
-        <v>304.0974042335035</v>
+        <v>302.33991590501</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27544,28 +28008,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.249853698954622</v>
+        <v>-1.088521867929953</v>
       </c>
       <c r="J9" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K9" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1467653955126692</v>
+        <v>0.1118264673489999</v>
       </c>
       <c r="M9" t="n">
-        <v>18.9027675871865</v>
+        <v>19.47616954572399</v>
       </c>
       <c r="N9" t="n">
-        <v>556.8968243410665</v>
+        <v>587.6499370934878</v>
       </c>
       <c r="O9" t="n">
-        <v>23.59866149469216</v>
+        <v>24.24149205584276</v>
       </c>
       <c r="P9" t="n">
-        <v>294.3089674027829</v>
+        <v>292.8341977702838</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27622,28 +28086,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.178951810161684</v>
+        <v>-1.066353521693045</v>
       </c>
       <c r="J10" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K10" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1581613439442693</v>
+        <v>0.1328307512699287</v>
       </c>
       <c r="M10" t="n">
-        <v>17.41515791429289</v>
+        <v>17.74401827674442</v>
       </c>
       <c r="N10" t="n">
-        <v>458.6117802409052</v>
+        <v>468.9300336246066</v>
       </c>
       <c r="O10" t="n">
-        <v>21.41522309575376</v>
+        <v>21.65479239393919</v>
       </c>
       <c r="P10" t="n">
-        <v>293.4831998277976</v>
+        <v>292.4629172560241</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27700,28 +28164,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.170626367054155</v>
+        <v>-1.041741405562189</v>
       </c>
       <c r="J11" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K11" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1427702242656989</v>
+        <v>0.1151686398630476</v>
       </c>
       <c r="M11" t="n">
-        <v>17.70919247060719</v>
+        <v>18.04771921010809</v>
       </c>
       <c r="N11" t="n">
-        <v>493.9652988691725</v>
+        <v>510.6596037103155</v>
       </c>
       <c r="O11" t="n">
-        <v>22.22533011833958</v>
+        <v>22.59777873398878</v>
       </c>
       <c r="P11" t="n">
-        <v>288.1084329976832</v>
+        <v>286.9178077328647</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27778,28 +28242,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6612960707536975</v>
+        <v>-0.4756090348941499</v>
       </c>
       <c r="J12" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K12" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04169369389639577</v>
+        <v>0.02124376393482519</v>
       </c>
       <c r="M12" t="n">
-        <v>19.31448005131834</v>
+        <v>19.90713590966654</v>
       </c>
       <c r="N12" t="n">
-        <v>610.8684342935838</v>
+        <v>646.3807522421814</v>
       </c>
       <c r="O12" t="n">
-        <v>24.71575275595675</v>
+        <v>25.42401919921753</v>
       </c>
       <c r="P12" t="n">
-        <v>277.5572888318964</v>
+        <v>275.8472317693499</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27856,28 +28320,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7436955751385178</v>
+        <v>-0.5664344571294893</v>
       </c>
       <c r="J13" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K13" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0479174405857663</v>
+        <v>0.02786733555251941</v>
       </c>
       <c r="M13" t="n">
-        <v>19.70980046907567</v>
+        <v>20.17342773931827</v>
       </c>
       <c r="N13" t="n">
-        <v>654.2956988713327</v>
+        <v>682.007258680313</v>
       </c>
       <c r="O13" t="n">
-        <v>25.57920442217335</v>
+        <v>26.11526868864866</v>
       </c>
       <c r="P13" t="n">
-        <v>276.3335401370608</v>
+        <v>274.7035011286546</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27934,28 +28398,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.399675281299001</v>
+        <v>-1.249842319810791</v>
       </c>
       <c r="J14" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K14" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1775079386634945</v>
+        <v>0.1444473779134976</v>
       </c>
       <c r="M14" t="n">
-        <v>17.702418119709</v>
+        <v>18.2015331809903</v>
       </c>
       <c r="N14" t="n">
-        <v>526.6889959799634</v>
+        <v>552.1917249143553</v>
       </c>
       <c r="O14" t="n">
-        <v>22.94970579288465</v>
+        <v>23.49876007184965</v>
       </c>
       <c r="P14" t="n">
-        <v>282.5560825457063</v>
+        <v>281.1834619365758</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28012,28 +28476,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5713149818628535</v>
+        <v>-0.4508052227210844</v>
       </c>
       <c r="J15" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K15" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03763897732639698</v>
+        <v>0.02370094814156931</v>
       </c>
       <c r="M15" t="n">
-        <v>17.85233763443416</v>
+        <v>18.12450196743751</v>
       </c>
       <c r="N15" t="n">
-        <v>496.0236609854256</v>
+        <v>508.4780643513658</v>
       </c>
       <c r="O15" t="n">
-        <v>22.27158864978934</v>
+        <v>22.54945818309978</v>
       </c>
       <c r="P15" t="n">
-        <v>275.3569459044071</v>
+        <v>274.2396331887663</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28090,28 +28554,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9474096545724353</v>
+        <v>-0.850185236349331</v>
       </c>
       <c r="J16" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K16" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1217578758284478</v>
+        <v>0.1006638910032095</v>
       </c>
       <c r="M16" t="n">
-        <v>15.58374621747636</v>
+        <v>15.81504325764298</v>
       </c>
       <c r="N16" t="n">
-        <v>385.4012746297623</v>
+        <v>392.5825634718045</v>
       </c>
       <c r="O16" t="n">
-        <v>19.63163963172109</v>
+        <v>19.81369636064418</v>
       </c>
       <c r="P16" t="n">
-        <v>282.4582378075668</v>
+        <v>281.5514874826232</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28168,28 +28632,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6648912424976888</v>
+        <v>-0.586311593623828</v>
       </c>
       <c r="J17" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K17" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08299320642570351</v>
+        <v>0.06633688246120284</v>
       </c>
       <c r="M17" t="n">
-        <v>13.27070937139193</v>
+        <v>13.38377642584335</v>
       </c>
       <c r="N17" t="n">
-        <v>290.3467780649939</v>
+        <v>293.6424034392489</v>
       </c>
       <c r="O17" t="n">
-        <v>17.03956507851635</v>
+        <v>17.13599729923091</v>
       </c>
       <c r="P17" t="n">
-        <v>276.7980621419916</v>
+        <v>276.0617534846778</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28246,28 +28710,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.875966717145347</v>
+        <v>-0.839266752366686</v>
       </c>
       <c r="J18" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K18" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1309201085957008</v>
+        <v>0.1243193163793679</v>
       </c>
       <c r="M18" t="n">
-        <v>14.39012988209429</v>
+        <v>14.32621491102753</v>
       </c>
       <c r="N18" t="n">
-        <v>308.7749010082052</v>
+        <v>306.4337677783175</v>
       </c>
       <c r="O18" t="n">
-        <v>17.57199194764797</v>
+        <v>17.50524972053577</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9467297471817</v>
+        <v>286.6133079817122</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28324,28 +28788,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.162957917437252</v>
+        <v>-1.137051870037532</v>
       </c>
       <c r="J19" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K19" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2192567480874739</v>
+        <v>0.2177701245230691</v>
       </c>
       <c r="M19" t="n">
-        <v>13.29315252620026</v>
+        <v>13.14760831965274</v>
       </c>
       <c r="N19" t="n">
-        <v>289.2214444755801</v>
+        <v>284.3207342323373</v>
       </c>
       <c r="O19" t="n">
-        <v>17.00651182563844</v>
+        <v>16.8618128987466</v>
       </c>
       <c r="P19" t="n">
-        <v>294.21849173147</v>
+        <v>293.9807412330416</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28383,7 +28847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T405"/>
+  <dimension ref="A1:T411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59322,7 +59786,11 @@
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-35.39655028530651,173.2387903221736</t>
+        </is>
+      </c>
       <c r="D405" t="inlineStr">
         <is>
           <t>-35.39592117066656,173.23830546080285</t>
@@ -59404,6 +59872,610 @@
         </is>
       </c>
       <c r="T405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-35.397043414767445,173.2394612796383</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-35.396427131358045,173.23895886307102</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-35.395820230379684,173.23844360121166</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-35.39527389643277,173.23784544628074</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-35.394866511953595,173.23705712835948</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-35.394368623926766,173.2363926625547</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-35.39381832146644,173.23579992321592</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-35.39318898994636,173.23531533392512</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-35.392587611306524,173.23479248468624</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-35.39205668936537,173.23417320718374</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-35.39151405699272,173.23356995085044</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-35.3909945938066,173.23293498120466</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-35.39044935240698,173.2323352852509</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-35.38984273355708,173.23181958255634</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>-35.38922378472059,173.2313207489767</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>-35.38864059215053,173.230772976087</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>-35.388033663361405,173.23025768231702</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>-35.387461690069514,173.22969454523573</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-35.397038191609084,173.23946842772418</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-35.396409220583806,173.2389833745823</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-35.39581636806977,173.2384488869104</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-35.39521050733756,173.2379321963465</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-35.39481224005968,173.2371314017481</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-35.39428769676176,173.23650341509463</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-35.393729710194755,173.23592119190818</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-35.393159132774606,173.23535619482695</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-35.39254522707264,173.23485048936695</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-35.391982247122336,173.23427508476746</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-35.39151291635108,173.23357151187452</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-35.390990331429,173.23294081449026</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>-35.390344934533005,173.23247818642707</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>-35.38982436344974,173.23184472299448</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>-35.38922570577113,173.23131811992369</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>-35.388630546693726,173.23078672378503</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>-35.3880609780989,173.23022030078585</t>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>-35.38748154070318,173.22966737869064</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:40+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-35.397019460279125,173.23949406223144</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-35.396422548601755,173.2389651347325</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-35.39585010824081,173.23840271234386</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-35.3952616320071,173.2378622305687</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-35.39487545720605,173.23704488638654</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-35.39426458327237,173.23653504689958</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-35.393745979617606,173.23589892647033</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-35.3931991758014,173.23530139410653</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-35.39258707099777,173.23479322412302</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-35.39205152643839,173.23418027289318</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-35.39155854200057,173.233509070877</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-35.39097112070959,173.23296710534729</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>-35.39035291896437,173.23246725934746</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>-35.38986386517733,173.23179066282253</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>-35.38923753223729,173.2313019348134</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>-35.38869183996441,173.23070284086523</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>-35.388061458357924,173.2302196435279</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>-35.387486463339215,173.22966064182356</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-35.39718552053365,173.23926680205136</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-35.39654758368683,173.23879401945257</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-35.39581028443088,173.23845721256956</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-35.3953264876358,173.23777347331836</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-35.3949442575626,173.23695072991356</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-35.39421391367175,173.23660439032568</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-35.393731811411975,173.2359183162986</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-35.393239318860715,173.23524645639836</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-35.39254120477136,173.23485599405728</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-35.392017126925964,173.23422735021325</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-35.39160368734822,173.23344728708386</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>-35.390934980528144,173.23301656498825</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>-35.390203295758575,173.23267202534066</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>-35.38980491274213,173.23187134226953</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>-35.38921069756222,173.23133865939695</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>-35.38862584413872,173.23079315945924</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>-35.388123771935014,173.23013436424702</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>-35.387480740274526,173.2296684741161</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-35.39694237359454,173.23959955796343</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-35.39642685118955,173.2389592464914</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-35.39584690632736,173.23840709427353</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-35.395170660771136,173.2379867275725</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-35.39487965967324,173.23703913512315</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-35.394285775640874,173.23650604423236</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-35.393733912629095,173.23591544068893</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-35.393133297905,173.23539155098513</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-35.39245445507838,173.2349747144845</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-35.39182387696725,173.2344918204876</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-35.39152378246264,173.23355664106438</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-35.39088923495378,173.23307916998542</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>-35.39000788656753,173.2329394496289</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>-35.38971744451832,173.2319910466908</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-35.38916585301314,173.23140003129777</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>-35.38859498736499,173.2308353884178</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr"/>
+      <c r="S410" t="inlineStr"/>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:41+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-35.396977194694024,173.23955190415302</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-35.39648200433591,173.23888376740138</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-35.39575473117546,173.2385332389255</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-35.395398041449184,173.2376755490936</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-35.39473839659072,173.23723245940675</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-35.3941745306371,173.2366582875258</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-35.39360231626925,173.2360955357282</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-35.393021013157664,173.2355452171858</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-35.39245289418318,173.23497685062824</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-35.391900780794785,173.23438657477945</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-35.3913663137163,173.2337721441823</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-35.39077463074082,173.23323601080287</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-35.39018994831914,173.23269029184365</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-35.38960644314891,173.23214295673367</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-35.389011268149936,173.23161158719506</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>-35.38849753429242,173.23096875722604</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>-35.38795231940412,173.23036900518917</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>-35.38748354177479,173.22966464012688</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T411"/>
+  <dimension ref="A1:T415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22450,6 +22450,198 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="C412" t="n">
+        <v>320.6966666666667</v>
+      </c>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
+      <c r="S412" t="inlineStr"/>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>325.08</v>
+      </c>
+      <c r="C413" t="n">
+        <v>307.3166666666667</v>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="n">
+        <v>305.31</v>
+      </c>
+      <c r="G413" t="n">
+        <v>289.16</v>
+      </c>
+      <c r="H413" t="n">
+        <v>282.45</v>
+      </c>
+      <c r="I413" t="n">
+        <v>290.3066666666667</v>
+      </c>
+      <c r="J413" t="n">
+        <v>268.54</v>
+      </c>
+      <c r="K413" t="n">
+        <v>249.12</v>
+      </c>
+      <c r="L413" t="n">
+        <v>306.9</v>
+      </c>
+      <c r="M413" t="n">
+        <v>286.15</v>
+      </c>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="n">
+        <v>281.49</v>
+      </c>
+      <c r="P413" t="n">
+        <v>261.73</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>263.6566666666667</v>
+      </c>
+      <c r="R413" t="n">
+        <v>270.47</v>
+      </c>
+      <c r="S413" t="n">
+        <v>253.1766666666667</v>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>359.32</v>
+      </c>
+      <c r="C414" t="n">
+        <v>331.3333333333333</v>
+      </c>
+      <c r="D414" t="n">
+        <v>287.0433333333333</v>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
+      <c r="S414" t="inlineStr"/>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="n">
+        <v>313.54</v>
+      </c>
+      <c r="E415" t="n">
+        <v>324.1728571428571</v>
+      </c>
+      <c r="F415" t="n">
+        <v>300.7</v>
+      </c>
+      <c r="G415" t="n">
+        <v>296.26</v>
+      </c>
+      <c r="H415" t="n">
+        <v>297.15</v>
+      </c>
+      <c r="I415" t="n">
+        <v>292.91</v>
+      </c>
+      <c r="J415" t="n">
+        <v>280.52</v>
+      </c>
+      <c r="K415" t="n">
+        <v>278.19</v>
+      </c>
+      <c r="L415" t="n">
+        <v>276.84</v>
+      </c>
+      <c r="M415" t="n">
+        <v>278.98</v>
+      </c>
+      <c r="N415" t="n">
+        <v>272.07</v>
+      </c>
+      <c r="O415" t="n">
+        <v>268.44</v>
+      </c>
+      <c r="P415" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>267.49</v>
+      </c>
+      <c r="R415" t="n">
+        <v>264.9</v>
+      </c>
+      <c r="S415" t="n">
+        <v>270.71</v>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22461,7 +22653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27289,6 +27481,46 @@
       </c>
       <c r="B482" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -27462,28 +27694,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7303874499021641</v>
+        <v>-0.6507667922595014</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04753354088095219</v>
+        <v>0.03765168388985207</v>
       </c>
       <c r="M2" t="n">
-        <v>20.80267862742382</v>
+        <v>21.02839665157418</v>
       </c>
       <c r="N2" t="n">
-        <v>639.2759818413449</v>
+        <v>653.8075671728802</v>
       </c>
       <c r="O2" t="n">
-        <v>25.28390756669833</v>
+        <v>25.56966106879167</v>
       </c>
       <c r="P2" t="n">
-        <v>314.3251570611664</v>
+        <v>313.5856326418482</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27540,28 +27772,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6726081438677934</v>
+        <v>-0.6099597396238736</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05738092303298314</v>
+        <v>0.04732910567241189</v>
       </c>
       <c r="M3" t="n">
-        <v>16.95591204283028</v>
+        <v>17.11498775280285</v>
       </c>
       <c r="N3" t="n">
-        <v>435.1391207929996</v>
+        <v>442.9081038826049</v>
       </c>
       <c r="O3" t="n">
-        <v>20.85998851373125</v>
+        <v>21.04538200847409</v>
       </c>
       <c r="P3" t="n">
-        <v>303.5116819217138</v>
+        <v>302.9181421761939</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27618,28 +27850,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.097471645206809</v>
+        <v>-1.070841040241455</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1190192891209737</v>
+        <v>0.1145696372215064</v>
       </c>
       <c r="M4" t="n">
-        <v>16.55791447900139</v>
+        <v>16.56183501649974</v>
       </c>
       <c r="N4" t="n">
-        <v>539.8600095363249</v>
+        <v>540.5106135025524</v>
       </c>
       <c r="O4" t="n">
-        <v>23.23488776681146</v>
+        <v>23.24888413456767</v>
       </c>
       <c r="P4" t="n">
-        <v>306.8236152565864</v>
+        <v>306.5815146017561</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27696,28 +27928,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.317994287099383</v>
+        <v>-1.284960024941165</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2110361922742826</v>
+        <v>0.1998899758403081</v>
       </c>
       <c r="M5" t="n">
-        <v>15.23710425271173</v>
+        <v>15.3533284181344</v>
       </c>
       <c r="N5" t="n">
-        <v>381.5443475396356</v>
+        <v>389.6054030540508</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5331602036034</v>
+        <v>19.73842453323088</v>
       </c>
       <c r="P5" t="n">
-        <v>305.6770354740256</v>
+        <v>305.3635373976251</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27774,28 +28006,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.235799300514171</v>
+        <v>-1.201685398609789</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1632930554989145</v>
+        <v>0.1561686208000812</v>
       </c>
       <c r="M6" t="n">
-        <v>17.20854082532934</v>
+        <v>17.28794282058633</v>
       </c>
       <c r="N6" t="n">
-        <v>464.5850855335375</v>
+        <v>466.4309709136625</v>
       </c>
       <c r="O6" t="n">
-        <v>21.55423590697517</v>
+        <v>21.5970130090636</v>
       </c>
       <c r="P6" t="n">
-        <v>307.5506828828087</v>
+        <v>307.2313413708072</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27852,28 +28084,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.357450395884136</v>
+        <v>-1.327419224788282</v>
       </c>
       <c r="J7" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1761332084229098</v>
+        <v>0.1704962273227498</v>
       </c>
       <c r="M7" t="n">
-        <v>18.13136805799454</v>
+        <v>18.1767578149839</v>
       </c>
       <c r="N7" t="n">
-        <v>523.6098247626454</v>
+        <v>524.1619529685848</v>
       </c>
       <c r="O7" t="n">
-        <v>22.88252225526385</v>
+        <v>22.89458348537018</v>
       </c>
       <c r="P7" t="n">
-        <v>303.0761407768748</v>
+        <v>302.7980318610983</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27930,28 +28162,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.516065333528741</v>
+        <v>-1.482595635477502</v>
       </c>
       <c r="J8" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1939414241322588</v>
+        <v>0.1877895973731077</v>
       </c>
       <c r="M8" t="n">
-        <v>19.0972590115623</v>
+        <v>19.15026512987789</v>
       </c>
       <c r="N8" t="n">
-        <v>583.7266771260666</v>
+        <v>584.8449153430799</v>
       </c>
       <c r="O8" t="n">
-        <v>24.16043619486343</v>
+        <v>24.18356705167954</v>
       </c>
       <c r="P8" t="n">
-        <v>302.33991590501</v>
+        <v>302.0318483721499</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28008,28 +28240,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.088521867929953</v>
+        <v>-1.056327875723538</v>
       </c>
       <c r="J9" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K9" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1118264673489999</v>
+        <v>0.1064083314319905</v>
       </c>
       <c r="M9" t="n">
-        <v>19.47616954572399</v>
+        <v>19.54736831063093</v>
       </c>
       <c r="N9" t="n">
-        <v>587.6499370934878</v>
+        <v>588.4837286234936</v>
       </c>
       <c r="O9" t="n">
-        <v>24.24149205584276</v>
+        <v>24.2586835715274</v>
       </c>
       <c r="P9" t="n">
-        <v>292.8341977702838</v>
+        <v>292.5376353651616</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28086,28 +28318,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.066353521693045</v>
+        <v>-1.054451057843528</v>
       </c>
       <c r="J10" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1328307512699287</v>
+        <v>0.1315674140440352</v>
       </c>
       <c r="M10" t="n">
-        <v>17.74401827674442</v>
+        <v>17.68571704833204</v>
       </c>
       <c r="N10" t="n">
-        <v>468.9300336246066</v>
+        <v>466.3393030991469</v>
       </c>
       <c r="O10" t="n">
-        <v>21.65479239393919</v>
+        <v>21.59489067115522</v>
       </c>
       <c r="P10" t="n">
-        <v>292.4629172560241</v>
+        <v>292.3541221919406</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28164,28 +28396,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.041741405562189</v>
+        <v>-1.03720298726243</v>
       </c>
       <c r="J11" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1151686398630476</v>
+        <v>0.115344323792738</v>
       </c>
       <c r="M11" t="n">
-        <v>18.04771921010809</v>
+        <v>18.02124576792865</v>
       </c>
       <c r="N11" t="n">
-        <v>510.6596037103155</v>
+        <v>508.5273232348781</v>
       </c>
       <c r="O11" t="n">
-        <v>22.59777873398878</v>
+        <v>22.550550397604</v>
       </c>
       <c r="P11" t="n">
-        <v>286.9178077328647</v>
+        <v>286.8754203205025</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28242,28 +28474,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4756090348941499</v>
+        <v>-0.4375976933898929</v>
       </c>
       <c r="J12" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K12" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02124376393482519</v>
+        <v>0.01807581649406587</v>
       </c>
       <c r="M12" t="n">
-        <v>19.90713590966654</v>
+        <v>19.97905024425259</v>
       </c>
       <c r="N12" t="n">
-        <v>646.3807522421814</v>
+        <v>649.2619251158856</v>
       </c>
       <c r="O12" t="n">
-        <v>25.42401919921753</v>
+        <v>25.48061861721347</v>
       </c>
       <c r="P12" t="n">
-        <v>275.8472317693499</v>
+        <v>275.4946855954969</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28320,28 +28552,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5664344571294893</v>
+        <v>-0.5352663913251521</v>
       </c>
       <c r="J13" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02786733555251941</v>
+        <v>0.02518589920797898</v>
       </c>
       <c r="M13" t="n">
-        <v>20.17342773931827</v>
+        <v>20.17621007637455</v>
       </c>
       <c r="N13" t="n">
-        <v>682.007258680313</v>
+        <v>680.5984560111767</v>
       </c>
       <c r="O13" t="n">
-        <v>26.11526868864866</v>
+        <v>26.08828196741167</v>
       </c>
       <c r="P13" t="n">
-        <v>274.7035011286546</v>
+        <v>274.4147371587895</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28398,28 +28630,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.249842319810791</v>
+        <v>-1.232080902234259</v>
       </c>
       <c r="J14" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1444473779134976</v>
+        <v>0.141509125675097</v>
       </c>
       <c r="M14" t="n">
-        <v>18.2015331809903</v>
+        <v>18.23196170466003</v>
       </c>
       <c r="N14" t="n">
-        <v>552.1917249143553</v>
+        <v>552.076976976374</v>
       </c>
       <c r="O14" t="n">
-        <v>23.49876007184965</v>
+        <v>23.49631837068042</v>
       </c>
       <c r="P14" t="n">
-        <v>281.1834619365758</v>
+        <v>281.0192985910197</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28476,28 +28708,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4508052227210844</v>
+        <v>-0.4341089829556211</v>
       </c>
       <c r="J15" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02370094814156931</v>
+        <v>0.02226818092581806</v>
       </c>
       <c r="M15" t="n">
-        <v>18.12450196743751</v>
+        <v>18.08167993880701</v>
       </c>
       <c r="N15" t="n">
-        <v>508.4780643513658</v>
+        <v>505.9974384028524</v>
       </c>
       <c r="O15" t="n">
-        <v>22.54945818309978</v>
+        <v>22.49438681989026</v>
       </c>
       <c r="P15" t="n">
-        <v>274.2396331887663</v>
+        <v>274.0836096834182</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28554,28 +28786,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.850185236349331</v>
+        <v>-0.8467141481867899</v>
       </c>
       <c r="J16" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K16" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1006638910032095</v>
+        <v>0.1012320233697491</v>
       </c>
       <c r="M16" t="n">
-        <v>15.81504325764298</v>
+        <v>15.70898321837762</v>
       </c>
       <c r="N16" t="n">
-        <v>392.5825634718045</v>
+        <v>389.494057098744</v>
       </c>
       <c r="O16" t="n">
-        <v>19.81369636064418</v>
+        <v>19.73560379361989</v>
       </c>
       <c r="P16" t="n">
-        <v>281.5514874826232</v>
+        <v>281.5188366095634</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28632,28 +28864,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.586311593623828</v>
+        <v>-0.5799480854708464</v>
       </c>
       <c r="J17" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K17" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06633688246120284</v>
+        <v>0.06585079182129372</v>
       </c>
       <c r="M17" t="n">
-        <v>13.38377642584335</v>
+        <v>13.31149029408257</v>
       </c>
       <c r="N17" t="n">
-        <v>293.6424034392489</v>
+        <v>291.4528414391439</v>
       </c>
       <c r="O17" t="n">
-        <v>17.13599729923091</v>
+        <v>17.07198996716973</v>
       </c>
       <c r="P17" t="n">
-        <v>276.0617534846778</v>
+        <v>276.0016095744408</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28710,28 +28942,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.839266752366686</v>
+        <v>-0.8356200106564217</v>
       </c>
       <c r="J18" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K18" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1243193163793679</v>
+        <v>0.1249696250664345</v>
       </c>
       <c r="M18" t="n">
-        <v>14.32621491102753</v>
+        <v>14.23236012173665</v>
       </c>
       <c r="N18" t="n">
-        <v>306.4337677783175</v>
+        <v>304.1269132346933</v>
       </c>
       <c r="O18" t="n">
-        <v>17.50524972053577</v>
+        <v>17.43923488100018</v>
       </c>
       <c r="P18" t="n">
-        <v>286.6133079817122</v>
+        <v>286.5799121149609</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28788,28 +29020,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.137051870037532</v>
+        <v>-1.141000683232547</v>
       </c>
       <c r="J19" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K19" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2177701245230691</v>
+        <v>0.2211946397372166</v>
       </c>
       <c r="M19" t="n">
-        <v>13.14760831965274</v>
+        <v>13.11480978173544</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3207342323373</v>
+        <v>282.6911331951662</v>
       </c>
       <c r="O19" t="n">
-        <v>16.8618128987466</v>
+        <v>16.81342122220121</v>
       </c>
       <c r="P19" t="n">
-        <v>293.9807412330416</v>
+        <v>294.0171559290565</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28847,7 +29079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T411"/>
+  <dimension ref="A1:T415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60481,6 +60713,270 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-35.39714727748334,173.23931913934828</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-35.39652156808415,173.23882962286743</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
+      <c r="S412" t="inlineStr"/>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-35.39709462571132,173.2393911954831</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-35.3964412398415,173.23893955511318</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-35.39478894635668,173.23716328011886</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-35.39414523348593,173.23669838175044</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-35.393558190604764,173.23615592330418</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-35.393058594850395,173.23549378520246</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-35.39238115299752,173.2350750309932</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-35.39171779636112,173.23463699515273</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-35.391517899153854,173.23356469266372</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-35.39084655106175,173.23313758482055</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-35.389725008693354,173.2319806947744</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-35.38905959471988,173.2315454503897</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-35.388524368921175,173.2309320329107</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>-35.38801847516168,173.23027846808063</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>-35.38736785972326,173.22982295627514</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-35.39730018951211,173.2391098720263</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-35.39658542636396,173.23874223013675</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-35.395772781986345,173.23850853584867</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
+      <c r="S414" t="inlineStr"/>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-35.39593185703976,173.23829083608433</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-35.39544894298081,173.2376058881619</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-35.39476127006454,173.23720115620048</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-35.39418785843506,173.23664004793042</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-35.39364644190347,173.2360351480864</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-35.39307422386523,173.2354723962752</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-35.39245307428648,173.23497660415012</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-35.39189231597519,173.23439815921145</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-35.391337437400374,173.2338116625815</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-35.39080350693942,173.23319649254552</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>-35.390215242414904,173.2326556758569</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-35.389646665408726,173.2320879109577</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-35.38906541791903,173.2315374811047</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>-35.38854738145742,173.23090053925768</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>-35.38798503709672,173.2303242295959</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>-35.38747311619106,173.22967890804256</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30259,7 +30259,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-35.390340251933694,173.23248459478856</t>
+          <t>-35.3903402519337,173.23248459478856</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -34812,7 +34812,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>-35.388542218645654,173.2309076047918</t>
+          <t>-35.38854221864566,173.2309076047918</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -57121,7 +57121,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-35.39702528380218,173.23948609253014</t>
+          <t>-35.39702528380217,173.23948609253014</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T415"/>
+  <dimension ref="A1:T416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22642,6 +22642,42 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>636.84</v>
+      </c>
+      <c r="C416" t="n">
+        <v>520.7966666666666</v>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="n">
+        <v>276.78</v>
+      </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
+      <c r="S416" t="inlineStr"/>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22653,7 +22689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B486"/>
+  <dimension ref="A1:B487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27521,6 +27557,16 @@
       </c>
       <c r="B486" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -27694,28 +27740,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6507667922595014</v>
+        <v>-0.445718099605884</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03765168388985207</v>
+        <v>0.01148967538307222</v>
       </c>
       <c r="M2" t="n">
-        <v>21.02839665157418</v>
+        <v>22.12708685682427</v>
       </c>
       <c r="N2" t="n">
-        <v>653.8075671728802</v>
+        <v>1035.753660635585</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56966106879167</v>
+        <v>32.18312695552726</v>
       </c>
       <c r="P2" t="n">
-        <v>313.5856326418482</v>
+        <v>311.6735283332577</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27772,28 +27818,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6099597396238736</v>
+        <v>-0.4650765374192994</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04732910567241189</v>
+        <v>0.02007780354108302</v>
       </c>
       <c r="M3" t="n">
-        <v>17.11498775280285</v>
+        <v>17.88971565643846</v>
       </c>
       <c r="N3" t="n">
-        <v>442.9081038826049</v>
+        <v>626.3906115328315</v>
       </c>
       <c r="O3" t="n">
-        <v>21.04538200847409</v>
+        <v>25.02779677743991</v>
       </c>
       <c r="P3" t="n">
-        <v>302.9181421761939</v>
+        <v>301.5400236437762</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27853,7 +27899,7 @@
         <v>-1.070841040241455</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
         <v>299</v>
@@ -27931,7 +27977,7 @@
         <v>-1.284960024941165</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
         <v>290</v>
@@ -28006,28 +28052,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.201685398609789</v>
+        <v>-1.201356702075336</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1561686208000812</v>
+        <v>0.1569968236070097</v>
       </c>
       <c r="M6" t="n">
-        <v>17.28794282058633</v>
+        <v>17.23043758957983</v>
       </c>
       <c r="N6" t="n">
-        <v>466.4309709136625</v>
+        <v>464.8290622581319</v>
       </c>
       <c r="O6" t="n">
-        <v>21.5970130090636</v>
+        <v>21.55989476454215</v>
       </c>
       <c r="P6" t="n">
-        <v>307.2313413708072</v>
+        <v>307.2282549461498</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28087,7 +28133,7 @@
         <v>-1.327419224788282</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
         <v>289</v>
@@ -28165,7 +28211,7 @@
         <v>-1.482595635477502</v>
       </c>
       <c r="J8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K8" t="n">
         <v>279</v>
@@ -28243,7 +28289,7 @@
         <v>-1.056327875723538</v>
       </c>
       <c r="J9" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K9" t="n">
         <v>280</v>
@@ -28321,7 +28367,7 @@
         <v>-1.054451057843528</v>
       </c>
       <c r="J10" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K10" t="n">
         <v>266</v>
@@ -28399,7 +28445,7 @@
         <v>-1.03720298726243</v>
       </c>
       <c r="J11" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" t="n">
         <v>269</v>
@@ -28477,7 +28523,7 @@
         <v>-0.4375976933898929</v>
       </c>
       <c r="J12" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K12" t="n">
         <v>250</v>
@@ -28555,7 +28601,7 @@
         <v>-0.5352663913251521</v>
       </c>
       <c r="J13" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K13" t="n">
         <v>252</v>
@@ -28633,7 +28679,7 @@
         <v>-1.232080902234259</v>
       </c>
       <c r="J14" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K14" t="n">
         <v>240</v>
@@ -28711,7 +28757,7 @@
         <v>-0.4341089829556211</v>
       </c>
       <c r="J15" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K15" t="n">
         <v>256</v>
@@ -28789,7 +28835,7 @@
         <v>-0.8467141481867899</v>
       </c>
       <c r="J16" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K16" t="n">
         <v>250</v>
@@ -28867,7 +28913,7 @@
         <v>-0.5799480854708464</v>
       </c>
       <c r="J17" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K17" t="n">
         <v>246</v>
@@ -28945,7 +28991,7 @@
         <v>-0.8356200106564217</v>
       </c>
       <c r="J18" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K18" t="n">
         <v>253</v>
@@ -29023,7 +29069,7 @@
         <v>-1.141000683232547</v>
       </c>
       <c r="J19" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K19" t="n">
         <v>245</v>
@@ -29079,7 +29125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T415"/>
+  <dimension ref="A1:T416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60977,6 +61023,48 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-35.398966288708245,173.236829653247</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-35.397722877599406,173.23718554284815</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-35.39461766533822,173.23739768417346</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
+      <c r="S416" t="inlineStr"/>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T416"/>
+  <dimension ref="A1:T419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22648,12 +22648,8 @@
           <t>2025-06-06 22:11:18+00:00</t>
         </is>
       </c>
-      <c r="B416" t="n">
-        <v>636.84</v>
-      </c>
-      <c r="C416" t="n">
-        <v>520.7966666666666</v>
-      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="n">
@@ -22678,6 +22674,172 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>287.14</v>
+      </c>
+      <c r="C417" t="n">
+        <v>291.6133333333333</v>
+      </c>
+      <c r="D417" t="n">
+        <v>299.4533333333333</v>
+      </c>
+      <c r="E417" t="n">
+        <v>296.26</v>
+      </c>
+      <c r="F417" t="n">
+        <v>279.98</v>
+      </c>
+      <c r="G417" t="n">
+        <v>283.76</v>
+      </c>
+      <c r="H417" t="n">
+        <v>273.99</v>
+      </c>
+      <c r="I417" t="n">
+        <v>279.1833333333333</v>
+      </c>
+      <c r="J417" t="n">
+        <v>277.57</v>
+      </c>
+      <c r="K417" t="n">
+        <v>280.42</v>
+      </c>
+      <c r="L417" t="n">
+        <v>282.27</v>
+      </c>
+      <c r="M417" t="n">
+        <v>269.86</v>
+      </c>
+      <c r="N417" t="n">
+        <v>267.5033333333333</v>
+      </c>
+      <c r="O417" t="n">
+        <v>263.07</v>
+      </c>
+      <c r="P417" t="n">
+        <v>262.22</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>267.9533333333333</v>
+      </c>
+      <c r="R417" t="n">
+        <v>271.47</v>
+      </c>
+      <c r="S417" t="n">
+        <v>272.0433333333333</v>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>255.62</v>
+      </c>
+      <c r="K418" t="n">
+        <v>258.12</v>
+      </c>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr"/>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>305.58</v>
+      </c>
+      <c r="C419" t="n">
+        <v>303.53</v>
+      </c>
+      <c r="D419" t="n">
+        <v>309.09</v>
+      </c>
+      <c r="E419" t="n">
+        <v>312.1514285714285</v>
+      </c>
+      <c r="F419" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="G419" t="n">
+        <v>314.55</v>
+      </c>
+      <c r="H419" t="n">
+        <v>306.03</v>
+      </c>
+      <c r="I419" t="n">
+        <v>313.17</v>
+      </c>
+      <c r="J419" t="n">
+        <v>292.97</v>
+      </c>
+      <c r="K419" t="n">
+        <v>285.83</v>
+      </c>
+      <c r="L419" t="n">
+        <v>282.99</v>
+      </c>
+      <c r="M419" t="n">
+        <v>272.89</v>
+      </c>
+      <c r="N419" t="n">
+        <v>251</v>
+      </c>
+      <c r="O419" t="n">
+        <v>284.31</v>
+      </c>
+      <c r="P419" t="n">
+        <v>285.07</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>283.79</v>
+      </c>
+      <c r="R419" t="n">
+        <v>291.34</v>
+      </c>
+      <c r="S419" t="n">
+        <v>283.75</v>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22689,7 +22851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27567,6 +27729,36 @@
       </c>
       <c r="B487" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -27740,28 +27932,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.445718099605884</v>
+        <v>-0.651199212530255</v>
       </c>
       <c r="J2" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01148967538307222</v>
+        <v>0.03815535773957957</v>
       </c>
       <c r="M2" t="n">
-        <v>22.12708685682427</v>
+        <v>20.94952406829303</v>
       </c>
       <c r="N2" t="n">
-        <v>1035.753660635585</v>
+        <v>650.0065131976114</v>
       </c>
       <c r="O2" t="n">
-        <v>32.18312695552726</v>
+        <v>25.49522530195824</v>
       </c>
       <c r="P2" t="n">
-        <v>311.6735283332577</v>
+        <v>313.5895003009676</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27818,28 +28010,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4650765374192994</v>
+        <v>-0.5970100340743348</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02007780354108302</v>
+        <v>0.04592627214144296</v>
       </c>
       <c r="M3" t="n">
-        <v>17.88971565643846</v>
+        <v>17.06785878168416</v>
       </c>
       <c r="N3" t="n">
-        <v>626.3906115328315</v>
+        <v>440.8572301831507</v>
       </c>
       <c r="O3" t="n">
-        <v>25.02779677743991</v>
+        <v>20.99660044348015</v>
       </c>
       <c r="P3" t="n">
-        <v>301.5400236437762</v>
+        <v>302.794215792144</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27896,28 +28088,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.070841040241455</v>
+        <v>-1.03989643328359</v>
       </c>
       <c r="J4" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1145696372215064</v>
+        <v>0.1093186529411103</v>
       </c>
       <c r="M4" t="n">
-        <v>16.56183501649974</v>
+        <v>16.58436181251833</v>
       </c>
       <c r="N4" t="n">
-        <v>540.5106135025524</v>
+        <v>541.2747076307071</v>
       </c>
       <c r="O4" t="n">
-        <v>23.24888413456767</v>
+        <v>23.26531125153298</v>
       </c>
       <c r="P4" t="n">
-        <v>306.5815146017561</v>
+        <v>306.297959631783</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27974,28 +28166,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.284960024941165</v>
+        <v>-1.244791594224832</v>
       </c>
       <c r="J5" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K5" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1998899758403081</v>
+        <v>0.1891466025698922</v>
       </c>
       <c r="M5" t="n">
-        <v>15.3533284181344</v>
+        <v>15.45261550172367</v>
       </c>
       <c r="N5" t="n">
-        <v>389.6054030540508</v>
+        <v>394.2834972640597</v>
       </c>
       <c r="O5" t="n">
-        <v>19.73842453323088</v>
+        <v>19.85657315006947</v>
       </c>
       <c r="P5" t="n">
-        <v>305.3635373976251</v>
+        <v>304.9793578559572</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28052,28 +28244,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.201356702075336</v>
+        <v>-1.175923095249278</v>
       </c>
       <c r="J6" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K6" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1569968236070097</v>
+        <v>0.1518439118434645</v>
       </c>
       <c r="M6" t="n">
-        <v>17.23043758957983</v>
+        <v>17.25752943353189</v>
       </c>
       <c r="N6" t="n">
-        <v>464.8290622581319</v>
+        <v>466.4222265145506</v>
       </c>
       <c r="O6" t="n">
-        <v>21.55989476454215</v>
+        <v>21.59681056347327</v>
       </c>
       <c r="P6" t="n">
-        <v>307.2282549461498</v>
+        <v>306.987864646707</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28130,28 +28322,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.327419224788282</v>
+        <v>-1.290049574690338</v>
       </c>
       <c r="J7" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1704962273227498</v>
+        <v>0.1623224253867543</v>
       </c>
       <c r="M7" t="n">
-        <v>18.1767578149839</v>
+        <v>18.26066388667662</v>
       </c>
       <c r="N7" t="n">
-        <v>524.1619529685848</v>
+        <v>528.5466361948418</v>
       </c>
       <c r="O7" t="n">
-        <v>22.89458348537018</v>
+        <v>22.99014215255838</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7980318610983</v>
+        <v>302.4487457411736</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28208,28 +28400,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.482595635477502</v>
+        <v>-1.449461939033956</v>
       </c>
       <c r="J8" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K8" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1877895973731077</v>
+        <v>0.1813609252922705</v>
       </c>
       <c r="M8" t="n">
-        <v>19.15026512987789</v>
+        <v>19.19781749252538</v>
       </c>
       <c r="N8" t="n">
-        <v>584.8449153430799</v>
+        <v>587.3553233060621</v>
       </c>
       <c r="O8" t="n">
-        <v>24.18356705167954</v>
+        <v>24.23541465100323</v>
       </c>
       <c r="P8" t="n">
-        <v>302.0318483721499</v>
+        <v>301.723995481405</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28286,28 +28478,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.056327875723538</v>
+        <v>-1.019239825581102</v>
       </c>
       <c r="J9" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1064083314319905</v>
+        <v>0.09962778551320461</v>
       </c>
       <c r="M9" t="n">
-        <v>19.54736831063093</v>
+        <v>19.6462284941</v>
       </c>
       <c r="N9" t="n">
-        <v>588.4837286234936</v>
+        <v>593.0346419233824</v>
       </c>
       <c r="O9" t="n">
-        <v>24.2586835715274</v>
+        <v>24.35230260002907</v>
       </c>
       <c r="P9" t="n">
-        <v>292.5376353651616</v>
+        <v>292.1925080167635</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28364,28 +28556,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.054451057843528</v>
+        <v>-1.035367001559554</v>
       </c>
       <c r="J10" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K10" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1315674140440352</v>
+        <v>0.1287781718562708</v>
       </c>
       <c r="M10" t="n">
-        <v>17.68571704833204</v>
+        <v>17.67834659564818</v>
       </c>
       <c r="N10" t="n">
-        <v>466.3393030991469</v>
+        <v>464.91146661079</v>
       </c>
       <c r="O10" t="n">
-        <v>21.59489067115522</v>
+        <v>21.56180573631972</v>
       </c>
       <c r="P10" t="n">
-        <v>292.3541221919406</v>
+        <v>292.1780146823738</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28442,28 +28634,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.03720298726243</v>
+        <v>-1.009390913197874</v>
       </c>
       <c r="J11" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K11" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L11" t="n">
-        <v>0.115344323792738</v>
+        <v>0.1111627708651444</v>
       </c>
       <c r="M11" t="n">
-        <v>18.02124576792865</v>
+        <v>17.99692289805455</v>
       </c>
       <c r="N11" t="n">
-        <v>508.5273232348781</v>
+        <v>506.8318416483169</v>
       </c>
       <c r="O11" t="n">
-        <v>22.550550397604</v>
+        <v>22.51292610142708</v>
       </c>
       <c r="P11" t="n">
-        <v>286.8754203205025</v>
+        <v>286.6140959618879</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28520,28 +28712,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4375976933898929</v>
+        <v>-0.4129468280623302</v>
       </c>
       <c r="J12" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01807581649406587</v>
+        <v>0.01629173932701578</v>
       </c>
       <c r="M12" t="n">
-        <v>19.97905024425259</v>
+        <v>19.97329757294554</v>
       </c>
       <c r="N12" t="n">
-        <v>649.2619251158856</v>
+        <v>646.7545855046164</v>
       </c>
       <c r="O12" t="n">
-        <v>25.48061861721347</v>
+        <v>25.43137010671302</v>
       </c>
       <c r="P12" t="n">
-        <v>275.4946855954969</v>
+        <v>275.2638643609523</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28598,28 +28790,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5352663913251521</v>
+        <v>-0.5203711540287941</v>
       </c>
       <c r="J13" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02518589920797898</v>
+        <v>0.02415903872609726</v>
       </c>
       <c r="M13" t="n">
-        <v>20.17621007637455</v>
+        <v>20.09626948329616</v>
       </c>
       <c r="N13" t="n">
-        <v>680.5984560111767</v>
+        <v>676.1571597967285</v>
       </c>
       <c r="O13" t="n">
-        <v>26.08828196741167</v>
+        <v>26.00302212814365</v>
       </c>
       <c r="P13" t="n">
-        <v>274.4147371587895</v>
+        <v>274.2754984610932</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28676,28 +28868,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.232080902234259</v>
+        <v>-1.216735253325798</v>
       </c>
       <c r="J14" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.141509125675097</v>
+        <v>0.1402546477400527</v>
       </c>
       <c r="M14" t="n">
-        <v>18.23196170466003</v>
+        <v>18.17149424566819</v>
       </c>
       <c r="N14" t="n">
-        <v>552.076976976374</v>
+        <v>548.8955759453771</v>
       </c>
       <c r="O14" t="n">
-        <v>23.49631837068042</v>
+        <v>23.42852056672331</v>
       </c>
       <c r="P14" t="n">
-        <v>281.0192985910197</v>
+        <v>280.876631443493</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28754,28 +28946,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4341089829556211</v>
+        <v>-0.4194878502025131</v>
       </c>
       <c r="J15" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K15" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02226818092581806</v>
+        <v>0.02105105463007906</v>
       </c>
       <c r="M15" t="n">
-        <v>18.08167993880701</v>
+        <v>18.02608138633423</v>
       </c>
       <c r="N15" t="n">
-        <v>505.9974384028524</v>
+        <v>503.8421554028698</v>
       </c>
       <c r="O15" t="n">
-        <v>22.49438681989026</v>
+        <v>22.44642856676469</v>
       </c>
       <c r="P15" t="n">
-        <v>274.0836096834182</v>
+        <v>273.9454832162176</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28832,28 +29024,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8467141481867899</v>
+        <v>-0.8275942115465591</v>
       </c>
       <c r="J16" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K16" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1012320233697491</v>
+        <v>0.09784802123859404</v>
       </c>
       <c r="M16" t="n">
-        <v>15.70898321837762</v>
+        <v>15.69421900011302</v>
       </c>
       <c r="N16" t="n">
-        <v>389.494057098744</v>
+        <v>388.9723164909123</v>
       </c>
       <c r="O16" t="n">
-        <v>19.73560379361989</v>
+        <v>19.72238110601538</v>
       </c>
       <c r="P16" t="n">
-        <v>281.5188366095634</v>
+        <v>281.3371309748481</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28910,28 +29102,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5799480854708464</v>
+        <v>-0.5594837349830697</v>
       </c>
       <c r="J17" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K17" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06585079182129372</v>
+        <v>0.06196295168895705</v>
       </c>
       <c r="M17" t="n">
-        <v>13.31149029408257</v>
+        <v>13.31873659114064</v>
       </c>
       <c r="N17" t="n">
-        <v>291.4528414391439</v>
+        <v>291.3551059371713</v>
       </c>
       <c r="O17" t="n">
-        <v>17.07198996716973</v>
+        <v>17.06912727520571</v>
       </c>
       <c r="P17" t="n">
-        <v>276.0016095744408</v>
+        <v>275.8063222344922</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28988,28 +29180,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8356200106564217</v>
+        <v>-0.8132087235203406</v>
       </c>
       <c r="J18" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K18" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1249696250664345</v>
+        <v>0.1197329634050269</v>
       </c>
       <c r="M18" t="n">
-        <v>14.23236012173665</v>
+        <v>14.23253466822403</v>
       </c>
       <c r="N18" t="n">
-        <v>304.1269132346933</v>
+        <v>304.5935601585213</v>
       </c>
       <c r="O18" t="n">
-        <v>17.43923488100018</v>
+        <v>17.45260897856023</v>
       </c>
       <c r="P18" t="n">
-        <v>286.5799121149609</v>
+        <v>286.3724941581376</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29066,28 +29258,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.141000683232547</v>
+        <v>-1.122106467971703</v>
       </c>
       <c r="J19" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K19" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2211946397372166</v>
+        <v>0.2170882450055854</v>
       </c>
       <c r="M19" t="n">
-        <v>13.11480978173544</v>
+        <v>13.10119675573243</v>
       </c>
       <c r="N19" t="n">
-        <v>282.6911331951662</v>
+        <v>282.1038286392261</v>
       </c>
       <c r="O19" t="n">
-        <v>16.81342122220121</v>
+        <v>16.79594679198604</v>
       </c>
       <c r="P19" t="n">
-        <v>294.0171559290565</v>
+        <v>293.8408665353408</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29125,7 +29317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T416"/>
+  <dimension ref="A1:T419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61029,16 +61221,8 @@
           <t>2025-06-06 22:11:18+00:00</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>-35.398966288708245,173.236829653247</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>-35.397722877599406,173.23718554284815</t>
-        </is>
-      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr">
@@ -61065,6 +61249,248 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-35.396866847765764,173.23970291729418</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-35.396346963094025,173.23906857596333</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-35.39584728655459,173.23840657391938</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-35.3952813665818,173.23783522312104</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-35.39463687669141,173.23737139284626</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-35.39411281449163,173.23674274827667</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-35.39350740102699,173.23622543055507</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-35.39299181628963,173.23558517416228</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-35.39243536412678,173.23500084116026</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-35.39190570359718,173.23437983773277</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-35.39137003581844,173.23376705033252</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>-35.39074875621506,173.23327142110932</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>-35.3901878271366,173.2326931947656</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>-35.38961442756965,173.2321320297407</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>-35.38906253633601,173.23154142466856</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>-35.388550162972116,173.23089673263232</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>-35.3880244784031,173.23027025236473</t>
+        </is>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>-35.38748112047814,173.229667953789</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-35.39230358837878,173.23518118061457</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-35.391771827251965,173.2345630522469</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr"/>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-35.39697755491221,173.23955141118233</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-35.39641850617017,173.23897066693982</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-35.39590514110342,173.23832739787332</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-35.39537677171551,173.23770465759512</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-35.394838175306724,173.23709590828278</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-35.394297662575404,173.2364897764407</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-35.39369975283344,173.23596218986808</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-35.393195853892074,173.2353059402953</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-35.39252781711011,173.2348743156346</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>-35.39193818207663,173.234335389636</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>-35.391374358259384,173.2337611348935</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>-35.39076694642799,173.23324652709113</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>-35.39008875182547,173.2328287829602</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>-35.3897419380343,173.2319575261926</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>-35.38919971155107,173.23135369428658</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>-35.38864523467185,173.230766622568</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>-35.38814376269406,173.2301070058372</t>
+        </is>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>-35.38755139807599,173.22957177534994</t>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T419"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22840,6 +22840,216 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>315.56</v>
+      </c>
+      <c r="C420" t="n">
+        <v>306.6433333333333</v>
+      </c>
+      <c r="D420" t="n">
+        <v>313.6833333333333</v>
+      </c>
+      <c r="E420" t="n">
+        <v>313.23</v>
+      </c>
+      <c r="F420" t="n">
+        <v>325.63</v>
+      </c>
+      <c r="G420" t="n">
+        <v>323.07</v>
+      </c>
+      <c r="H420" t="n">
+        <v>321.56</v>
+      </c>
+      <c r="I420" t="n">
+        <v>319.4233333333333</v>
+      </c>
+      <c r="J420" t="n">
+        <v>307.08</v>
+      </c>
+      <c r="K420" t="n">
+        <v>302.47</v>
+      </c>
+      <c r="L420" t="n">
+        <v>303.68</v>
+      </c>
+      <c r="M420" t="n">
+        <v>290.65</v>
+      </c>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>329.02</v>
+      </c>
+      <c r="C421" t="n">
+        <v>313.09</v>
+      </c>
+      <c r="D421" t="n">
+        <v>309</v>
+      </c>
+      <c r="E421" t="n">
+        <v>302.8428571428572</v>
+      </c>
+      <c r="F421" t="n">
+        <v>301.21</v>
+      </c>
+      <c r="G421" t="n">
+        <v>306.6</v>
+      </c>
+      <c r="H421" t="n">
+        <v>306.67</v>
+      </c>
+      <c r="I421" t="n">
+        <v>297.02</v>
+      </c>
+      <c r="J421" t="n">
+        <v>301.21</v>
+      </c>
+      <c r="K421" t="n">
+        <v>285.89</v>
+      </c>
+      <c r="L421" t="n">
+        <v>268.45</v>
+      </c>
+      <c r="M421" t="n">
+        <v>271.09</v>
+      </c>
+      <c r="N421" t="n">
+        <v>270.34</v>
+      </c>
+      <c r="O421" t="n">
+        <v>268.71</v>
+      </c>
+      <c r="P421" t="n">
+        <v>274.95</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>320.33</v>
+      </c>
+      <c r="K422" t="n">
+        <v>333.55</v>
+      </c>
+      <c r="L422" t="n">
+        <v>278.03</v>
+      </c>
+      <c r="M422" t="n">
+        <v>239.62</v>
+      </c>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="n">
+        <v>260.91</v>
+      </c>
+      <c r="P422" t="n">
+        <v>254.42</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>251.3366666666666</v>
+      </c>
+      <c r="R422" t="n">
+        <v>265.49</v>
+      </c>
+      <c r="S422" t="n">
+        <v>245.0466666666667</v>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>301.44</v>
+      </c>
+      <c r="L423" t="n">
+        <v>271.93</v>
+      </c>
+      <c r="M423" t="n">
+        <v>271.78</v>
+      </c>
+      <c r="N423" t="n">
+        <v>237.1033333333333</v>
+      </c>
+      <c r="O423" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="P423" t="n">
+        <v>250.18</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>231.9233333333333</v>
+      </c>
+      <c r="R423" t="inlineStr"/>
+      <c r="S423" t="n">
+        <v>247.5233333333333</v>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22851,7 +23061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27759,6 +27969,46 @@
       </c>
       <c r="B490" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.86</v>
       </c>
     </row>
   </sheetData>
@@ -27932,28 +28182,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.651199212530255</v>
+        <v>-0.6208567957814415</v>
       </c>
       <c r="J2" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03815535773957957</v>
+        <v>0.03500819943647471</v>
       </c>
       <c r="M2" t="n">
-        <v>20.94952406829303</v>
+        <v>20.97862163736086</v>
       </c>
       <c r="N2" t="n">
-        <v>650.0065131976114</v>
+        <v>650.2519312257502</v>
       </c>
       <c r="O2" t="n">
-        <v>25.49522530195824</v>
+        <v>25.50003786714346</v>
       </c>
       <c r="P2" t="n">
-        <v>313.5895003009676</v>
+        <v>313.3043370706976</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28010,28 +28260,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5970100340743348</v>
+        <v>-0.5695151613840077</v>
       </c>
       <c r="J3" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04592627214144296</v>
+        <v>0.04218747836612824</v>
       </c>
       <c r="M3" t="n">
-        <v>17.06785878168416</v>
+        <v>17.10184419609467</v>
       </c>
       <c r="N3" t="n">
-        <v>440.8572301831507</v>
+        <v>441.3173217504494</v>
       </c>
       <c r="O3" t="n">
-        <v>20.99660044348015</v>
+        <v>21.00755392116011</v>
       </c>
       <c r="P3" t="n">
-        <v>302.794215792144</v>
+        <v>302.5306860450635</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28088,28 +28338,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.03989643328359</v>
+        <v>-1.001557261341153</v>
       </c>
       <c r="J4" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1093186529411103</v>
+        <v>0.1023372754804184</v>
       </c>
       <c r="M4" t="n">
-        <v>16.58436181251833</v>
+        <v>16.6388758833358</v>
       </c>
       <c r="N4" t="n">
-        <v>541.2747076307071</v>
+        <v>544.3612509650807</v>
       </c>
       <c r="O4" t="n">
-        <v>23.26531125153298</v>
+        <v>23.33155054781145</v>
       </c>
       <c r="P4" t="n">
-        <v>306.297959631783</v>
+        <v>305.9459162690451</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28166,28 +28416,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.244791594224832</v>
+        <v>-1.201318262591474</v>
       </c>
       <c r="J5" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1891466025698922</v>
+        <v>0.1773147564265491</v>
       </c>
       <c r="M5" t="n">
-        <v>15.45261550172367</v>
+        <v>15.56934534293118</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2834972640597</v>
+        <v>400.1017340186868</v>
       </c>
       <c r="O5" t="n">
-        <v>19.85657315006947</v>
+        <v>20.00254318877194</v>
       </c>
       <c r="P5" t="n">
-        <v>304.9793578559572</v>
+        <v>304.5627668221168</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28244,28 +28494,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.175923095249278</v>
+        <v>-1.131195639418155</v>
       </c>
       <c r="J6" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1518439118434645</v>
+        <v>0.1411334620638534</v>
       </c>
       <c r="M6" t="n">
-        <v>17.25752943353189</v>
+        <v>17.40191870526019</v>
       </c>
       <c r="N6" t="n">
-        <v>466.4222265145506</v>
+        <v>473.3228672740767</v>
       </c>
       <c r="O6" t="n">
-        <v>21.59681056347327</v>
+        <v>21.7559846312245</v>
       </c>
       <c r="P6" t="n">
-        <v>306.987864646707</v>
+        <v>306.5647520743283</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28322,28 +28572,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.290049574690338</v>
+        <v>-1.235239060891581</v>
       </c>
       <c r="J7" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1623224253867543</v>
+        <v>0.1490599836197278</v>
       </c>
       <c r="M7" t="n">
-        <v>18.26066388667662</v>
+        <v>18.44208780765279</v>
       </c>
       <c r="N7" t="n">
-        <v>528.5466361948418</v>
+        <v>539.4513944302121</v>
       </c>
       <c r="O7" t="n">
-        <v>22.99014215255838</v>
+        <v>23.22609296524519</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4487457411736</v>
+        <v>301.935649862509</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28400,28 +28650,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.449461939033956</v>
+        <v>-1.387763446520718</v>
       </c>
       <c r="J8" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K8" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1813609252922705</v>
+        <v>0.166539069715767</v>
       </c>
       <c r="M8" t="n">
-        <v>19.19781749252538</v>
+        <v>19.40501088477682</v>
       </c>
       <c r="N8" t="n">
-        <v>587.3553233060621</v>
+        <v>600.8748030550245</v>
       </c>
       <c r="O8" t="n">
-        <v>24.23541465100323</v>
+        <v>24.51274776631589</v>
       </c>
       <c r="P8" t="n">
-        <v>301.723995481405</v>
+        <v>301.1499500053498</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28478,28 +28728,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.019239825581102</v>
+        <v>-0.9692811995181029</v>
       </c>
       <c r="J9" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K9" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09962778551320461</v>
+        <v>0.0901677462850311</v>
       </c>
       <c r="M9" t="n">
-        <v>19.6462284941</v>
+        <v>19.83675050753518</v>
       </c>
       <c r="N9" t="n">
-        <v>593.0346419233824</v>
+        <v>602.1823949589883</v>
       </c>
       <c r="O9" t="n">
-        <v>24.35230260002907</v>
+        <v>24.53940494305003</v>
       </c>
       <c r="P9" t="n">
-        <v>292.1925080167635</v>
+        <v>291.7269052075176</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28556,28 +28806,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.035367001559554</v>
+        <v>-0.9557238002174679</v>
       </c>
       <c r="J10" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K10" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1287781718562708</v>
+        <v>0.1092496692732629</v>
       </c>
       <c r="M10" t="n">
-        <v>17.67834659564818</v>
+        <v>17.98733623510281</v>
       </c>
       <c r="N10" t="n">
-        <v>464.91146661079</v>
+        <v>481.4028352076598</v>
       </c>
       <c r="O10" t="n">
-        <v>21.56180573631972</v>
+        <v>21.94089412963063</v>
       </c>
       <c r="P10" t="n">
-        <v>292.1780146823738</v>
+        <v>291.4409296493762</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28634,28 +28884,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.009390913197874</v>
+        <v>-0.8991638482015841</v>
       </c>
       <c r="J11" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K11" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1111627708651444</v>
+        <v>0.08723098059201151</v>
       </c>
       <c r="M11" t="n">
-        <v>17.99692289805455</v>
+        <v>18.3758065348535</v>
       </c>
       <c r="N11" t="n">
-        <v>506.8318416483169</v>
+        <v>532.5129286931304</v>
       </c>
       <c r="O11" t="n">
-        <v>22.51292610142708</v>
+        <v>23.07624165008528</v>
       </c>
       <c r="P11" t="n">
-        <v>286.6140959618879</v>
+        <v>285.5743439588853</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28712,28 +28962,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4129468280623302</v>
+        <v>-0.3718995698025024</v>
       </c>
       <c r="J12" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01629173932701578</v>
+        <v>0.01348081887661057</v>
       </c>
       <c r="M12" t="n">
-        <v>19.97329757294554</v>
+        <v>19.91861391352452</v>
       </c>
       <c r="N12" t="n">
-        <v>646.7545855046164</v>
+        <v>643.4394054212646</v>
       </c>
       <c r="O12" t="n">
-        <v>25.43137010671302</v>
+        <v>25.36610741562971</v>
       </c>
       <c r="P12" t="n">
-        <v>275.2638643609523</v>
+        <v>274.8783158219089</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28790,28 +29040,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5203711540287941</v>
+        <v>-0.5005300742051376</v>
       </c>
       <c r="J13" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K13" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02415903872609726</v>
+        <v>0.02283961110486987</v>
       </c>
       <c r="M13" t="n">
-        <v>20.09626948329616</v>
+        <v>20.05668060051349</v>
       </c>
       <c r="N13" t="n">
-        <v>676.1571597967285</v>
+        <v>671.7076640421737</v>
       </c>
       <c r="O13" t="n">
-        <v>26.00302212814365</v>
+        <v>25.91732362807112</v>
       </c>
       <c r="P13" t="n">
-        <v>274.2754984610932</v>
+        <v>274.0897211675928</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28868,28 +29118,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.216735253325798</v>
+        <v>-1.210173472273928</v>
       </c>
       <c r="J14" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1402546477400527</v>
+        <v>0.1404535478134276</v>
       </c>
       <c r="M14" t="n">
-        <v>18.17149424566819</v>
+        <v>18.16137075521289</v>
       </c>
       <c r="N14" t="n">
-        <v>548.8955759453771</v>
+        <v>546.8097588749687</v>
       </c>
       <c r="O14" t="n">
-        <v>23.42852056672331</v>
+        <v>23.38396371180405</v>
       </c>
       <c r="P14" t="n">
-        <v>280.876631443493</v>
+        <v>280.8155445391895</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28946,28 +29196,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4194878502025131</v>
+        <v>-0.4262988714129522</v>
       </c>
       <c r="J15" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02105105463007906</v>
+        <v>0.02214655174844293</v>
       </c>
       <c r="M15" t="n">
-        <v>18.02608138633423</v>
+        <v>17.90098181526513</v>
       </c>
       <c r="N15" t="n">
-        <v>503.8421554028698</v>
+        <v>498.921011202071</v>
       </c>
       <c r="O15" t="n">
-        <v>22.44642856676469</v>
+        <v>22.33653982160332</v>
       </c>
       <c r="P15" t="n">
-        <v>273.9454832162176</v>
+        <v>274.0101390095325</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29024,28 +29274,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8275942115465591</v>
+        <v>-0.8276422516185948</v>
       </c>
       <c r="J16" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K16" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09784802123859404</v>
+        <v>0.09943783749220747</v>
       </c>
       <c r="M16" t="n">
-        <v>15.69421900011302</v>
+        <v>15.62791282501741</v>
       </c>
       <c r="N16" t="n">
-        <v>388.9723164909123</v>
+        <v>385.7693102219102</v>
       </c>
       <c r="O16" t="n">
-        <v>19.72238110601538</v>
+        <v>19.64101092667865</v>
       </c>
       <c r="P16" t="n">
-        <v>281.3371309748481</v>
+        <v>281.3377813689769</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29102,28 +29352,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5594837349830697</v>
+        <v>-0.5756648409780337</v>
       </c>
       <c r="J17" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K17" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06196295168895705</v>
+        <v>0.06567541443209135</v>
       </c>
       <c r="M17" t="n">
-        <v>13.31873659114064</v>
+        <v>13.37985127602878</v>
       </c>
       <c r="N17" t="n">
-        <v>291.3551059371713</v>
+        <v>292.5946052615151</v>
       </c>
       <c r="O17" t="n">
-        <v>17.06912727520571</v>
+        <v>17.10539696299139</v>
       </c>
       <c r="P17" t="n">
-        <v>275.8063222344922</v>
+        <v>275.9616342635695</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29180,28 +29430,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8132087235203406</v>
+        <v>-0.8130568744220805</v>
       </c>
       <c r="J18" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K18" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1197329634050269</v>
+        <v>0.1204796808631602</v>
       </c>
       <c r="M18" t="n">
-        <v>14.23253466822403</v>
+        <v>14.17770687183838</v>
       </c>
       <c r="N18" t="n">
-        <v>304.5935601585213</v>
+        <v>303.4039356912251</v>
       </c>
       <c r="O18" t="n">
-        <v>17.45260897856023</v>
+        <v>17.41849407070615</v>
       </c>
       <c r="P18" t="n">
-        <v>286.3724941581376</v>
+        <v>286.3710840329053</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29258,28 +29508,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.122106467971703</v>
+        <v>-1.147649600825712</v>
       </c>
       <c r="J19" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K19" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2170882450055854</v>
+        <v>0.2258319221481739</v>
       </c>
       <c r="M19" t="n">
-        <v>13.10119675573243</v>
+        <v>13.16230332966548</v>
       </c>
       <c r="N19" t="n">
-        <v>282.1038286392261</v>
+        <v>282.5133287740481</v>
       </c>
       <c r="O19" t="n">
-        <v>16.79594679198604</v>
+        <v>16.80813281640909</v>
       </c>
       <c r="P19" t="n">
-        <v>293.8408665353408</v>
+        <v>294.0801879558381</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29317,7 +29567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T419"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61491,6 +61741,306 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-35.397037471173434,173.239469413667</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-35.396437197411096,173.23894508732306</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-35.395932717552874,173.2382896584383</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-35.39538324697792,173.237695795936</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-35.39491093802739,173.23699632927256</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-35.39434881238983,173.2364197755857</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-35.39379298681992,173.2358345949152</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-35.393233395459724,173.23525456286322</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-35.392612525538645,173.23475838842205</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>-35.39203807881268,173.23419867659726</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>-35.391498568278294,173.2335911479105</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>-35.39087356618656,173.23310061341306</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-35.397118279990515,173.23935882363935</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-35.396475900670005,173.23889212049875</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-35.395904600781,173.238328137325</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-35.39532088717214,173.23778113776254</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-35.39476433186752,173.23719696600617</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-35.39424993471895,173.23655509406012</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-35.393703595060934,173.2359569316144</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-35.39309889808966,173.23543862859216</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-35.39257728540508,173.23480661614377</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>-35.39193854228147,173.23433489668093</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>-35.391287068909804,173.2338805937759</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>-35.39075614036152,173.23326131561817</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>-35.390204856628365,173.2326698892275</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>-35.38964828630524,173.23208569269397</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>-35.389138958275275,173.23143683797403</t>
+        </is>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>-35.388601470890656,173.23082651540972</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>-35.39269207091394,173.2346495267153</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>-35.392224664368364,173.23394332465742</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>-35.391344581438155,173.23380188568285</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>-35.39056721400619,173.23351986772755</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>-35.3896014603896,173.23214977583345</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>-35.3890157105939,173.23160550754173</t>
+        </is>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>-35.38845040857502,173.23103325065165</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>-35.38798857901108,173.23031938232768</t>
+        </is>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>-35.3873190534814,173.2298897496156</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-35.39203189530529,173.23420713901268</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-35.39130796073189,173.23385200254</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-35.390760282687204,173.23325564668326</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>-35.39000532513231,173.23294295502834</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>-35.38953116141894,173.2322459825614</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>-35.38899025658647,173.23164034230322</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>-35.38833386482677,173.23119274489858</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr"/>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>-35.38733392147946,173.22986940216535</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22973,9 +22973,7 @@
       <c r="J422" t="n">
         <v>320.33</v>
       </c>
-      <c r="K422" t="n">
-        <v>333.55</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>278.03</v>
       </c>
@@ -23040,13 +23038,211 @@
       <c r="Q423" t="n">
         <v>231.9233333333333</v>
       </c>
-      <c r="R423" t="inlineStr"/>
+      <c r="R423" t="n">
+        <v>222.35</v>
+      </c>
       <c r="S423" t="n">
         <v>247.5233333333333</v>
       </c>
       <c r="T423" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="C424" t="n">
+        <v>290.5633333333333</v>
+      </c>
+      <c r="D424" t="n">
+        <v>277.2133333333333</v>
+      </c>
+      <c r="E424" t="n">
+        <v>284.1771428571428</v>
+      </c>
+      <c r="F424" t="n">
+        <v>281.78</v>
+      </c>
+      <c r="G424" t="n">
+        <v>291.91</v>
+      </c>
+      <c r="H424" t="n">
+        <v>279.55</v>
+      </c>
+      <c r="I424" t="n">
+        <v>284.9633333333333</v>
+      </c>
+      <c r="J424" t="n">
+        <v>271.87</v>
+      </c>
+      <c r="K424" t="n">
+        <v>255.09</v>
+      </c>
+      <c r="L424" t="n">
+        <v>254.39</v>
+      </c>
+      <c r="M424" t="n">
+        <v>249.88</v>
+      </c>
+      <c r="N424" t="n">
+        <v>242.9533333333333</v>
+      </c>
+      <c r="O424" t="n">
+        <v>258.76</v>
+      </c>
+      <c r="P424" t="n">
+        <v>259.71</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>267.4033333333333</v>
+      </c>
+      <c r="R424" t="n">
+        <v>261.23</v>
+      </c>
+      <c r="S424" t="n">
+        <v>261.1633333333333</v>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>297.51</v>
+      </c>
+      <c r="C425" t="n">
+        <v>295.6166666666667</v>
+      </c>
+      <c r="D425" t="n">
+        <v>296.9366666666667</v>
+      </c>
+      <c r="E425" t="n">
+        <v>294.3228571428572</v>
+      </c>
+      <c r="F425" t="n">
+        <v>292.37</v>
+      </c>
+      <c r="G425" t="n">
+        <v>294.37</v>
+      </c>
+      <c r="H425" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="I425" t="n">
+        <v>285.2566666666667</v>
+      </c>
+      <c r="J425" t="n">
+        <v>278.88</v>
+      </c>
+      <c r="K425" t="n">
+        <v>270.05</v>
+      </c>
+      <c r="L425" t="n">
+        <v>273.82</v>
+      </c>
+      <c r="M425" t="n">
+        <v>267.79</v>
+      </c>
+      <c r="N425" t="n">
+        <v>252.0066666666666</v>
+      </c>
+      <c r="O425" t="n">
+        <v>264.8</v>
+      </c>
+      <c r="P425" t="n">
+        <v>269.37</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>271.0466666666667</v>
+      </c>
+      <c r="R425" t="n">
+        <v>272</v>
+      </c>
+      <c r="S425" t="n">
+        <v>277.2566666666667</v>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>308.33</v>
+      </c>
+      <c r="C426" t="n">
+        <v>300.0166666666667</v>
+      </c>
+      <c r="D426" t="n">
+        <v>302.6566666666667</v>
+      </c>
+      <c r="E426" t="n">
+        <v>295.2728571428572</v>
+      </c>
+      <c r="F426" t="n">
+        <v>295.3</v>
+      </c>
+      <c r="G426" t="n">
+        <v>293.77</v>
+      </c>
+      <c r="H426" t="n">
+        <v>280.54</v>
+      </c>
+      <c r="I426" t="n">
+        <v>285.4066666666667</v>
+      </c>
+      <c r="J426" t="n">
+        <v>268.54</v>
+      </c>
+      <c r="K426" t="n">
+        <v>264.74</v>
+      </c>
+      <c r="L426" t="n">
+        <v>279.33</v>
+      </c>
+      <c r="M426" t="n">
+        <v>261.09</v>
+      </c>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="n">
+        <v>274.16</v>
+      </c>
+      <c r="P426" t="n">
+        <v>273.76</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>272.9866666666667</v>
+      </c>
+      <c r="R426" t="n">
+        <v>279.95</v>
+      </c>
+      <c r="S426" t="n">
+        <v>266.9766666666667</v>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23061,7 +23257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28009,6 +28205,56 @@
       </c>
       <c r="B494" t="n">
         <v>-0.86</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -28182,28 +28428,28 @@
         <v>0.0246</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6208567957814415</v>
+        <v>-0.6197387781314481</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03500819943647471</v>
+        <v>0.03551115492907986</v>
       </c>
       <c r="M2" t="n">
-        <v>20.97862163736086</v>
+        <v>20.84172097543479</v>
       </c>
       <c r="N2" t="n">
-        <v>650.2519312257502</v>
+        <v>644.5621037694023</v>
       </c>
       <c r="O2" t="n">
-        <v>25.50003786714346</v>
+        <v>25.38822766105193</v>
       </c>
       <c r="P2" t="n">
-        <v>313.3043370706976</v>
+        <v>313.2935578582492</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28260,28 +28506,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5695151613840077</v>
+        <v>-0.5556479757415067</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04218747836612824</v>
+        <v>0.04094573136659274</v>
       </c>
       <c r="M3" t="n">
-        <v>17.10184419609467</v>
+        <v>17.00563318496567</v>
       </c>
       <c r="N3" t="n">
-        <v>441.3173217504494</v>
+        <v>437.6062557763738</v>
       </c>
       <c r="O3" t="n">
-        <v>21.00755392116011</v>
+        <v>20.91904050802459</v>
       </c>
       <c r="P3" t="n">
-        <v>302.5306860450635</v>
+        <v>302.3967429098406</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28338,28 +28584,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.001557261341153</v>
+        <v>-0.9795939937780561</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1023372754804184</v>
+        <v>0.09970670200482079</v>
       </c>
       <c r="M4" t="n">
-        <v>16.6388758833358</v>
+        <v>16.58952763455676</v>
       </c>
       <c r="N4" t="n">
-        <v>544.3612509650807</v>
+        <v>541.6618477798693</v>
       </c>
       <c r="O4" t="n">
-        <v>23.33155054781145</v>
+        <v>23.27362987975596</v>
       </c>
       <c r="P4" t="n">
-        <v>305.9459162690451</v>
+        <v>305.7425552416861</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28416,28 +28662,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.201318262591474</v>
+        <v>-1.168658026663092</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1773147564265491</v>
+        <v>0.1710291938368871</v>
       </c>
       <c r="M5" t="n">
-        <v>15.56934534293118</v>
+        <v>15.57480796564774</v>
       </c>
       <c r="N5" t="n">
-        <v>400.1017340186868</v>
+        <v>399.4922167386203</v>
       </c>
       <c r="O5" t="n">
-        <v>20.00254318877194</v>
+        <v>19.98730138709627</v>
       </c>
       <c r="P5" t="n">
-        <v>304.5627668221168</v>
+        <v>304.2474340445522</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28494,28 +28740,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.131195639418155</v>
+        <v>-1.108438458284795</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1411334620638534</v>
+        <v>0.1381420055834186</v>
       </c>
       <c r="M6" t="n">
-        <v>17.40191870526019</v>
+        <v>17.35719251577156</v>
       </c>
       <c r="N6" t="n">
-        <v>473.3228672740767</v>
+        <v>470.4831674191014</v>
       </c>
       <c r="O6" t="n">
-        <v>21.7559846312245</v>
+        <v>21.69062395181617</v>
       </c>
       <c r="P6" t="n">
-        <v>306.5647520743283</v>
+        <v>306.3477375147948</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28572,28 +28818,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.235239060891581</v>
+        <v>-1.193621254529156</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1490599836197278</v>
+        <v>0.1417045583625698</v>
       </c>
       <c r="M7" t="n">
-        <v>18.44208780765279</v>
+        <v>18.49236052099073</v>
       </c>
       <c r="N7" t="n">
-        <v>539.4513944302121</v>
+        <v>539.4750269375998</v>
       </c>
       <c r="O7" t="n">
-        <v>23.22609296524519</v>
+        <v>23.22660170876488</v>
       </c>
       <c r="P7" t="n">
-        <v>301.935649862509</v>
+        <v>301.5430891224588</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28650,28 +28896,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.387763446520718</v>
+        <v>-1.361867762195811</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L8" t="n">
-        <v>0.166539069715767</v>
+        <v>0.1636580281608705</v>
       </c>
       <c r="M8" t="n">
-        <v>19.40501088477682</v>
+        <v>19.34691623329244</v>
       </c>
       <c r="N8" t="n">
-        <v>600.8748030550245</v>
+        <v>596.6501400891021</v>
       </c>
       <c r="O8" t="n">
-        <v>24.51274776631589</v>
+        <v>24.4264229900553</v>
       </c>
       <c r="P8" t="n">
-        <v>301.1499500053498</v>
+        <v>300.9071863951122</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28728,28 +28974,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9692811995181029</v>
+        <v>-0.9367443468640865</v>
       </c>
       <c r="J9" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0901677462850311</v>
+        <v>0.08572446838295522</v>
       </c>
       <c r="M9" t="n">
-        <v>19.83675050753518</v>
+        <v>19.84539410398143</v>
       </c>
       <c r="N9" t="n">
-        <v>602.1823949589883</v>
+        <v>599.452140615604</v>
       </c>
       <c r="O9" t="n">
-        <v>24.53940494305003</v>
+        <v>24.48371174098413</v>
       </c>
       <c r="P9" t="n">
-        <v>291.7269052075176</v>
+        <v>291.4211824987271</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28806,28 +29052,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9557238002174679</v>
+        <v>-0.9441297970679132</v>
       </c>
       <c r="J10" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K10" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1092496692732629</v>
+        <v>0.1085965462682723</v>
       </c>
       <c r="M10" t="n">
-        <v>17.98733623510281</v>
+        <v>17.86347013959128</v>
       </c>
       <c r="N10" t="n">
-        <v>481.4028352076598</v>
+        <v>476.8088620012006</v>
       </c>
       <c r="O10" t="n">
-        <v>21.94089412963063</v>
+        <v>21.83595342551363</v>
       </c>
       <c r="P10" t="n">
-        <v>291.4409296493762</v>
+        <v>291.3328354896213</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28884,28 +29130,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8991638482015841</v>
+        <v>-0.939513275538109</v>
       </c>
       <c r="J11" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K11" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08723098059201151</v>
+        <v>0.09863965728651836</v>
       </c>
       <c r="M11" t="n">
-        <v>18.3758065348535</v>
+        <v>18.05407717158597</v>
       </c>
       <c r="N11" t="n">
-        <v>532.5129286931304</v>
+        <v>510.6562853023274</v>
       </c>
       <c r="O11" t="n">
-        <v>23.07624165008528</v>
+        <v>22.59770531054707</v>
       </c>
       <c r="P11" t="n">
-        <v>285.5743439588853</v>
+        <v>285.9548319761929</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28962,28 +29208,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3718995698025024</v>
+        <v>-0.3643049066555982</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01348081887661057</v>
+        <v>0.01317277101922654</v>
       </c>
       <c r="M12" t="n">
-        <v>19.91861391352452</v>
+        <v>19.81906956642356</v>
       </c>
       <c r="N12" t="n">
-        <v>643.4394054212646</v>
+        <v>637.4930739898424</v>
       </c>
       <c r="O12" t="n">
-        <v>25.36610741562971</v>
+        <v>25.24862519009386</v>
       </c>
       <c r="P12" t="n">
-        <v>274.8783158219089</v>
+        <v>274.806114372331</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29040,28 +29286,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5005300742051376</v>
+        <v>-0.503342585809143</v>
       </c>
       <c r="J13" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K13" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02283961110486987</v>
+        <v>0.02355302768822787</v>
       </c>
       <c r="M13" t="n">
-        <v>20.05668060051349</v>
+        <v>19.89589304659282</v>
       </c>
       <c r="N13" t="n">
-        <v>671.7076640421737</v>
+        <v>664.6398746554185</v>
       </c>
       <c r="O13" t="n">
-        <v>25.91732362807112</v>
+        <v>25.78061043992982</v>
       </c>
       <c r="P13" t="n">
-        <v>274.0897211675928</v>
+        <v>274.1161140896025</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29118,28 +29364,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.210173472273928</v>
+        <v>-1.212833148787964</v>
       </c>
       <c r="J14" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K14" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1404535478134276</v>
+        <v>0.1429627190930198</v>
       </c>
       <c r="M14" t="n">
-        <v>18.16137075521289</v>
+        <v>18.049607259566</v>
       </c>
       <c r="N14" t="n">
-        <v>546.8097588749687</v>
+        <v>542.558965374287</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38396371180405</v>
+        <v>23.29289516943497</v>
       </c>
       <c r="P14" t="n">
-        <v>280.8155445391895</v>
+        <v>280.8404495509827</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29196,28 +29442,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4262988714129522</v>
+        <v>-0.4204960067653567</v>
       </c>
       <c r="J15" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K15" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02214655174844293</v>
+        <v>0.02198077353009786</v>
       </c>
       <c r="M15" t="n">
-        <v>17.90098181526513</v>
+        <v>17.76342319346606</v>
       </c>
       <c r="N15" t="n">
-        <v>498.921011202071</v>
+        <v>493.8083847788758</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33653982160332</v>
+        <v>22.22179976462023</v>
       </c>
       <c r="P15" t="n">
-        <v>274.0101390095325</v>
+        <v>273.9546844314197</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29274,28 +29520,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8276422516185948</v>
+        <v>-0.8123897529132702</v>
       </c>
       <c r="J16" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K16" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09943783749220747</v>
+        <v>0.09772541079929731</v>
       </c>
       <c r="M16" t="n">
-        <v>15.62791282501741</v>
+        <v>15.53715312643175</v>
       </c>
       <c r="N16" t="n">
-        <v>385.7693102219102</v>
+        <v>382.3790407528532</v>
       </c>
       <c r="O16" t="n">
-        <v>19.64101092667865</v>
+        <v>19.55451458750263</v>
       </c>
       <c r="P16" t="n">
-        <v>281.3377813689769</v>
+        <v>281.1913544156204</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29352,28 +29598,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5756648409780337</v>
+        <v>-0.5569851045961463</v>
       </c>
       <c r="J17" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K17" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06567541443209135</v>
+        <v>0.06273733288689987</v>
       </c>
       <c r="M17" t="n">
-        <v>13.37985127602878</v>
+        <v>13.32697404807344</v>
       </c>
       <c r="N17" t="n">
-        <v>292.5946052615151</v>
+        <v>290.2381077455148</v>
       </c>
       <c r="O17" t="n">
-        <v>17.10539696299139</v>
+        <v>17.03637601561772</v>
       </c>
       <c r="P17" t="n">
-        <v>275.9616342635695</v>
+        <v>275.7815944797661</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29430,28 +29676,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8130568744220805</v>
+        <v>-0.8293364808185016</v>
       </c>
       <c r="J18" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K18" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1204796808631602</v>
+        <v>0.1249874769154933</v>
       </c>
       <c r="M18" t="n">
-        <v>14.17770687183838</v>
+        <v>14.2363031124308</v>
       </c>
       <c r="N18" t="n">
-        <v>303.4039356912251</v>
+        <v>306.8701539584368</v>
       </c>
       <c r="O18" t="n">
-        <v>17.41849407070615</v>
+        <v>17.51770972354653</v>
       </c>
       <c r="P18" t="n">
-        <v>286.3710840329053</v>
+        <v>286.5216696246073</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29508,28 +29754,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.147649600825712</v>
+        <v>-1.138938100016762</v>
       </c>
       <c r="J19" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K19" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2258319221481739</v>
+        <v>0.2266088901980328</v>
       </c>
       <c r="M19" t="n">
-        <v>13.16230332966548</v>
+        <v>13.07385494739249</v>
       </c>
       <c r="N19" t="n">
-        <v>282.5133287740481</v>
+        <v>279.8913703238597</v>
       </c>
       <c r="O19" t="n">
-        <v>16.80813281640909</v>
+        <v>16.72995428337626</v>
       </c>
       <c r="P19" t="n">
-        <v>294.0801879558381</v>
+        <v>293.9980311207772</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29567,7 +29813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61932,11 +62178,7 @@
           <t>-35.39269207091394,173.2346495267153</t>
         </is>
       </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>-35.392224664368364,173.23394332465742</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>-35.391344581438155,173.23380188568285</t>
@@ -62029,7 +62271,11 @@
           <t>-35.38833386482677,173.23119274489858</t>
         </is>
       </c>
-      <c r="R423" t="inlineStr"/>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>-35.38772959852258,173.23067380689014</t>
+        </is>
+      </c>
       <c r="S423" t="inlineStr">
         <is>
           <t>-35.38733392147946,173.22986940216535</t>
@@ -62038,6 +62284,308 @@
       <c r="T423" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-35.39686840871384,173.23970078109375</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-35.396340659294694,173.23907720290399</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-35.395713766622485,173.23858930008006</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-35.39520882633785,173.23793449684698</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-35.394647683075064,173.2373566039692</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-35.394161743152665,173.2366757876725</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-35.39354078047034,173.2361797496766</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-35.39302651633555,173.23553768588133</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-35.3924011444824,173.23504767196337</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-35.39175363685712,173.23458794636954</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-35.39120266107677,173.23399610879133</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-35.390628808741596,173.2334355734641</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-35.39004044480165,173.23289489269683</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-35.38958855324019,173.23216743976272</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-35.38904746805605,173.2315620462166</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>-35.38854686117408,173.2309012512883</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>-35.38796300518445,173.23035438123793</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>-35.387415805466446,173.22975734043465</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-35.39692910554997,173.23961771569768</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-35.396370997574074,173.23903568402818</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-35.395832177523424,173.2384272511456</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-35.395269736820126,173.2378511388545</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-35.394711260595464,173.23726959599594</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-35.394176511796424,173.23665557623497</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-35.39352907365315,173.2361957708523</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-35.39302827735238,173.23553527586367</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-35.392443228638975,173.2349900782859</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-35.39184344812958,173.23446503666514</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-35.391319307149665,173.233836474535</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-35.39073632923493,173.2332884279074</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>-35.390094795203694,173.23282051239107</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-35.38962481331845,173.23211781643084</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-35.38910545990301,173.2314826819697</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>-35.38856873308153,173.23087131860882</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>-35.38802766012084,173.2302658980348</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>-35.38751241723108,173.2296251226369</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-35.3969940649096,173.2395288166887</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-35.39639741347852,173.23899953300278</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-35.39586651804477,173.2383802549488</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-35.39527544020647,173.2378433335728</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-35.39472885096537,173.23724552294428</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-35.3941729096885,173.2366605058546</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-35.39354672393055,173.23617161584718</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-35.39302917787233,173.23553404346825</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-35.39238115299752,173.2350750309932</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>-35.39181156994495,173.2345086630687</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>-35.391352385848286,173.23379120503535</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>-35.390696106625846,173.23334347402965</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>-35.38968100439274,173.23204091661017</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>-35.38913181435863,173.2314466147433</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>-35.38858037941895,173.2308553800666</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>-35.388075385867864,173.23020058304493</t>
+        </is>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>-35.38745070418192,173.22970957994093</t>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T426"/>
+  <dimension ref="A1:T429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23246,6 +23246,136 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="n">
+        <v>264.12</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
+      <c r="S427" t="inlineStr"/>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="n">
+        <v>423.9366666666667</v>
+      </c>
+      <c r="R428" t="n">
+        <v>384.69</v>
+      </c>
+      <c r="S428" t="n">
+        <v>392.5666666666667</v>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:18:21+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="n">
+        <v>295.44</v>
+      </c>
+      <c r="D429" t="n">
+        <v>337.29</v>
+      </c>
+      <c r="E429" t="n">
+        <v>338.08</v>
+      </c>
+      <c r="F429" t="n">
+        <v>311.9</v>
+      </c>
+      <c r="G429" t="n">
+        <v>323.25</v>
+      </c>
+      <c r="H429" t="n">
+        <v>319.65</v>
+      </c>
+      <c r="I429" t="n">
+        <v>310.02</v>
+      </c>
+      <c r="J429" t="n">
+        <v>297.56</v>
+      </c>
+      <c r="K429" t="n">
+        <v>330.86</v>
+      </c>
+      <c r="L429" t="n">
+        <v>367.49</v>
+      </c>
+      <c r="M429" t="n">
+        <v>400.61</v>
+      </c>
+      <c r="N429" t="n">
+        <v>392.28</v>
+      </c>
+      <c r="O429" t="n">
+        <v>442.69</v>
+      </c>
+      <c r="P429" t="n">
+        <v>401.37</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>400.75</v>
+      </c>
+      <c r="R429" t="inlineStr"/>
+      <c r="S429" t="n">
+        <v>355.55</v>
+      </c>
+      <c r="T429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23257,7 +23387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28255,6 +28385,36 @@
       </c>
       <c r="B499" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -29813,7 +29973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T426"/>
+  <dimension ref="A1:T429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62589,6 +62749,176 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-35.39344814646892,173.2363065222375</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
+      <c r="S427" t="inlineStr"/>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>-35.389486566067376,173.22961519954046</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>-35.38870416177568,173.2293400611337</t>
+        </is>
+      </c>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>-35.388204643885764,173.22867776248077</t>
+        </is>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:18:21+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-35.396369936935265,173.23903713554614</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-35.39607444190574,173.23809570253283</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-35.395532435127926,173.23749162526457</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-35.3948285096256,173.23710913617413</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>-35.39434989301928,173.23641829669344</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>-35.39378152018754,173.2358502875492</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-35.39317694301948,173.23533182070014</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>-35.3925553728762,173.23483660439933</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>-35.3922085152538,173.23396542562796</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>-35.39188164271378,173.23306688800977</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>-35.3915336922458,173.23219718886432</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>-35.39093690039102,173.2316680430679</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>-35.390692735500934,173.23065629078687</t>
+        </is>
+      </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>-35.38989788984274,173.23039819018734</t>
+        </is>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>-35.38934737214535,173.2298056992082</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr"/>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>-35.387982426994334,173.22898188457472</t>
+        </is>
+      </c>
+      <c r="T429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -28591,7 +28591,7 @@
         <v>-0.6197387781314481</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K2" t="n">
         <v>304</v>
@@ -28666,28 +28666,28 @@
         <v>0.0317</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5556479757415067</v>
+        <v>-0.5511339322514858</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04094573136659274</v>
+        <v>0.0405456710213179</v>
       </c>
       <c r="M3" t="n">
-        <v>17.00563318496567</v>
+        <v>16.97326034819268</v>
       </c>
       <c r="N3" t="n">
-        <v>437.6062557763738</v>
+        <v>436.3320051574324</v>
       </c>
       <c r="O3" t="n">
-        <v>20.91904050802459</v>
+        <v>20.88856158660601</v>
       </c>
       <c r="P3" t="n">
-        <v>302.3967429098406</v>
+        <v>302.3530066958535</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28744,28 +28744,28 @@
         <v>0.0352</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9795939937780561</v>
+        <v>-0.946100797184639</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09970670200482079</v>
+        <v>0.09256395513412929</v>
       </c>
       <c r="M4" t="n">
-        <v>16.58952763455676</v>
+        <v>16.69030902928276</v>
       </c>
       <c r="N4" t="n">
-        <v>541.6618477798693</v>
+        <v>550.4281752001424</v>
       </c>
       <c r="O4" t="n">
-        <v>23.27362987975596</v>
+        <v>23.46120574906887</v>
       </c>
       <c r="P4" t="n">
-        <v>305.7425552416861</v>
+        <v>305.4316485333937</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28822,28 +28822,28 @@
         <v>0.0358</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.168658026663092</v>
+        <v>-1.129878714885476</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1710291938368871</v>
+        <v>0.157992938498284</v>
       </c>
       <c r="M5" t="n">
-        <v>15.57480796564774</v>
+        <v>15.71557836605293</v>
       </c>
       <c r="N5" t="n">
-        <v>399.4922167386203</v>
+        <v>411.9167588324671</v>
       </c>
       <c r="O5" t="n">
-        <v>19.98730138709627</v>
+        <v>20.29573252761445</v>
       </c>
       <c r="P5" t="n">
-        <v>304.2474340445522</v>
+        <v>303.8717559950992</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28900,28 +28900,28 @@
         <v>0.0255</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.108438458284795</v>
+        <v>-1.08795848964022</v>
       </c>
       <c r="J6" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K6" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1381420055834186</v>
+        <v>0.1335465736492308</v>
       </c>
       <c r="M6" t="n">
-        <v>17.35719251577156</v>
+        <v>17.41553104883563</v>
       </c>
       <c r="N6" t="n">
-        <v>470.4831674191014</v>
+        <v>472.8542146409894</v>
       </c>
       <c r="O6" t="n">
-        <v>21.69062395181617</v>
+        <v>21.74521130366384</v>
       </c>
       <c r="P6" t="n">
-        <v>306.3477375147948</v>
+        <v>306.1518164961917</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28978,28 +28978,28 @@
         <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.193621254529156</v>
+        <v>-1.1626343097714</v>
       </c>
       <c r="J7" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1417045583625698</v>
+        <v>0.1341704734752895</v>
       </c>
       <c r="M7" t="n">
-        <v>18.49236052099073</v>
+        <v>18.60915109672716</v>
       </c>
       <c r="N7" t="n">
-        <v>539.4750269375998</v>
+        <v>546.9864566067284</v>
       </c>
       <c r="O7" t="n">
-        <v>23.22660170876488</v>
+        <v>23.38774158842038</v>
       </c>
       <c r="P7" t="n">
-        <v>301.5430891224588</v>
+        <v>301.2496631260102</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29056,28 +29056,28 @@
         <v>0.0277</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.361867762195811</v>
+        <v>-1.33013510579401</v>
       </c>
       <c r="J8" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K8" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1636580281608705</v>
+        <v>0.156800190689299</v>
       </c>
       <c r="M8" t="n">
-        <v>19.34691623329244</v>
+        <v>19.40524423055243</v>
       </c>
       <c r="N8" t="n">
-        <v>596.6501400891021</v>
+        <v>602.6616769826263</v>
       </c>
       <c r="O8" t="n">
-        <v>24.4264229900553</v>
+        <v>24.54916855990496</v>
       </c>
       <c r="P8" t="n">
-        <v>300.9071863951122</v>
+        <v>300.6084989749816</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29134,28 +29134,28 @@
         <v>0.0334</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9367443468640865</v>
+        <v>-0.9118885334750425</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08572446838295522</v>
+        <v>0.08127097335813471</v>
       </c>
       <c r="M9" t="n">
-        <v>19.84539410398143</v>
+        <v>19.93995900533188</v>
       </c>
       <c r="N9" t="n">
-        <v>599.452140615604</v>
+        <v>603.7507445092583</v>
       </c>
       <c r="O9" t="n">
-        <v>24.48371174098413</v>
+        <v>24.57133990056827</v>
       </c>
       <c r="P9" t="n">
-        <v>291.4211824987271</v>
+        <v>291.1866421039796</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29212,28 +29212,28 @@
         <v>0.0278</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9441297970679132</v>
+        <v>-0.9259789276411018</v>
       </c>
       <c r="J10" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K10" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1085965462682723</v>
+        <v>0.104809044738072</v>
       </c>
       <c r="M10" t="n">
-        <v>17.86347013959128</v>
+        <v>17.91082394898512</v>
       </c>
       <c r="N10" t="n">
-        <v>476.8088620012006</v>
+        <v>478.5055157461777</v>
       </c>
       <c r="O10" t="n">
-        <v>21.83595342551363</v>
+        <v>21.87476893012079</v>
       </c>
       <c r="P10" t="n">
-        <v>291.3328354896213</v>
+        <v>291.1628430834023</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29290,28 +29290,28 @@
         <v>0.0284</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.939513275538109</v>
+        <v>-0.8979173491297492</v>
       </c>
       <c r="J11" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K11" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09863965728651836</v>
+        <v>0.08869376366590709</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05407717158597</v>
+        <v>18.23199563790854</v>
       </c>
       <c r="N11" t="n">
-        <v>510.6562853023274</v>
+        <v>525.9430390424513</v>
       </c>
       <c r="O11" t="n">
-        <v>22.59770531054707</v>
+        <v>22.93344804085185</v>
       </c>
       <c r="P11" t="n">
-        <v>285.9548319761929</v>
+        <v>285.5582554265039</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29368,28 +29368,28 @@
         <v>0.0268</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3643049066555982</v>
+        <v>-0.3001631177844082</v>
       </c>
       <c r="J12" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K12" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01317277101922654</v>
+        <v>0.008511724950185928</v>
       </c>
       <c r="M12" t="n">
-        <v>19.81906956642356</v>
+        <v>20.14966027168819</v>
       </c>
       <c r="N12" t="n">
-        <v>637.4930739898424</v>
+        <v>674.7963198437515</v>
       </c>
       <c r="O12" t="n">
-        <v>25.24862519009386</v>
+        <v>25.9768419913536</v>
       </c>
       <c r="P12" t="n">
-        <v>274.806114372331</v>
+        <v>274.1962981305057</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29446,28 +29446,28 @@
         <v>0.0262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.503342585809143</v>
+        <v>-0.4132439358995555</v>
       </c>
       <c r="J13" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K13" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02355302768822787</v>
+        <v>0.01451995405137407</v>
       </c>
       <c r="M13" t="n">
-        <v>19.89589304659282</v>
+        <v>20.34919947331212</v>
       </c>
       <c r="N13" t="n">
-        <v>664.6398746554185</v>
+        <v>735.7338123498869</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78061043992982</v>
+        <v>27.12441358536414</v>
       </c>
       <c r="P13" t="n">
-        <v>274.1161140896025</v>
+        <v>273.261877461511</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29524,28 +29524,28 @@
         <v>0.0311</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.212833148787964</v>
+        <v>-1.108205882177118</v>
       </c>
       <c r="J14" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1429627190930198</v>
+        <v>0.1086823462935486</v>
       </c>
       <c r="M14" t="n">
-        <v>18.049607259566</v>
+        <v>18.6088532601627</v>
       </c>
       <c r="N14" t="n">
-        <v>542.558965374287</v>
+        <v>622.2875576599215</v>
       </c>
       <c r="O14" t="n">
-        <v>23.29289516943497</v>
+        <v>24.94569216638259</v>
       </c>
       <c r="P14" t="n">
-        <v>280.8404495509827</v>
+        <v>279.8534703181099</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29602,28 +29602,28 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4204960067653567</v>
+        <v>-0.3058022707737083</v>
       </c>
       <c r="J15" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K15" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02198077353009786</v>
+        <v>0.009520305951117414</v>
       </c>
       <c r="M15" t="n">
-        <v>17.76342319346606</v>
+        <v>18.38660917848328</v>
       </c>
       <c r="N15" t="n">
-        <v>493.8083847788758</v>
+        <v>612.5432353515693</v>
       </c>
       <c r="O15" t="n">
-        <v>22.22179976462023</v>
+        <v>24.74961081212327</v>
       </c>
       <c r="P15" t="n">
-        <v>273.9546844314197</v>
+        <v>272.8574367190661</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29680,28 +29680,28 @@
         <v>0.0262</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8123897529132702</v>
+        <v>-0.7212298770386002</v>
       </c>
       <c r="J16" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K16" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09772541079929731</v>
+        <v>0.06681125583224745</v>
       </c>
       <c r="M16" t="n">
-        <v>15.53715312643175</v>
+        <v>16.04151005596199</v>
       </c>
       <c r="N16" t="n">
-        <v>382.3790407528532</v>
+        <v>457.2829185779572</v>
       </c>
       <c r="O16" t="n">
-        <v>19.55451458750263</v>
+        <v>21.3841744890458</v>
       </c>
       <c r="P16" t="n">
-        <v>281.1913544156204</v>
+        <v>280.313547825922</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29758,28 +29758,28 @@
         <v>0.032</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5569851045961463</v>
+        <v>-0.3624289892397387</v>
       </c>
       <c r="J17" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K17" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06273733288689987</v>
+        <v>0.01753102527599948</v>
       </c>
       <c r="M17" t="n">
-        <v>13.32697404807344</v>
+        <v>14.34609464312187</v>
       </c>
       <c r="N17" t="n">
-        <v>290.2381077455148</v>
+        <v>463.6319277043215</v>
       </c>
       <c r="O17" t="n">
-        <v>17.03637601561772</v>
+        <v>21.53211386985313</v>
       </c>
       <c r="P17" t="n">
-        <v>275.7815944797661</v>
+        <v>273.9003273071438</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29836,28 +29836,28 @@
         <v>0.0273</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8293364808185016</v>
+        <v>-0.7514770634423</v>
       </c>
       <c r="J18" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K18" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1249874769154933</v>
+        <v>0.09113099432193794</v>
       </c>
       <c r="M18" t="n">
-        <v>14.2363031124308</v>
+        <v>14.58887851097268</v>
       </c>
       <c r="N18" t="n">
-        <v>306.8701539584368</v>
+        <v>360.1037744995947</v>
       </c>
       <c r="O18" t="n">
-        <v>17.51770972354653</v>
+        <v>18.97640046214231</v>
       </c>
       <c r="P18" t="n">
-        <v>286.5216696246073</v>
+        <v>285.7922782404372</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29914,28 +29914,28 @@
         <v>0.0314</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.138938100016762</v>
+        <v>-0.9930317845903227</v>
       </c>
       <c r="J19" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K19" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2266088901980328</v>
+        <v>0.1439431928093053</v>
       </c>
       <c r="M19" t="n">
-        <v>13.07385494739249</v>
+        <v>13.72517372231838</v>
       </c>
       <c r="N19" t="n">
-        <v>279.8913703238597</v>
+        <v>373.2204290731169</v>
       </c>
       <c r="O19" t="n">
-        <v>16.72995428337626</v>
+        <v>19.31891376535226</v>
       </c>
       <c r="P19" t="n">
-        <v>293.9980311207772</v>
+        <v>292.6190784828122</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -28579,13 +28579,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0196</v>
+        <v>0.0237</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0246</v>
+        <v>0.0303</v>
       </c>
       <c r="I2" t="n">
         <v>-0.6197387781314481</v>
@@ -28660,10 +28660,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0283</v>
+        <v>0.0296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0317</v>
+        <v>0.0351</v>
       </c>
       <c r="I3" t="n">
         <v>-0.5511270824176658</v>
@@ -28735,13 +28735,13 @@
         <v>0.8823529411761004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
         <v>0.0296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0352</v>
+        <v>0.0449</v>
       </c>
       <c r="I4" t="n">
         <v>-0.9460941699434318</v>
@@ -28816,10 +28816,10 @@
         <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0297</v>
+        <v>0.0296</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0358</v>
+        <v>0.0365</v>
       </c>
       <c r="I5" t="n">
         <v>-1.129913655451772</v>
@@ -28891,13 +28891,13 @@
         <v>0.7647058823522008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0247</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0255</v>
+        <v>0.0376</v>
       </c>
       <c r="I6" t="n">
         <v>-1.08795848964022</v>
@@ -28969,13 +28969,13 @@
         <v>0.7058823529417088</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0223</v>
+        <v>0.0282</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0258</v>
+        <v>0.0325</v>
       </c>
       <c r="I7" t="n">
         <v>-1.1626343097714</v>
@@ -29050,10 +29050,10 @@
         <v>0.025</v>
       </c>
       <c r="G8" t="n">
-        <v>0.024</v>
+        <v>0.0244</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0277</v>
+        <v>0.0291</v>
       </c>
       <c r="I8" t="n">
         <v>-1.33013510579401</v>
@@ -29128,10 +29128,10 @@
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0243</v>
+        <v>0.0278</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0334</v>
+        <v>0.0336</v>
       </c>
       <c r="I9" t="n">
         <v>-0.9118763811158409</v>
@@ -29203,13 +29203,13 @@
         <v>0.5294117647058594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0229</v>
+        <v>0.0246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0278</v>
+        <v>0.0314</v>
       </c>
       <c r="I10" t="n">
         <v>-0.9259789276411017</v>
@@ -29281,13 +29281,13 @@
         <v>0.4705882352939096</v>
       </c>
       <c r="F11" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0244</v>
+        <v>0.0289</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0284</v>
+        <v>0.0376</v>
       </c>
       <c r="I11" t="n">
         <v>-0.8979173491297492</v>
@@ -29359,13 +29359,13 @@
         <v>0.4117647058819599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0242</v>
+        <v>0.0299</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0268</v>
+        <v>0.0421</v>
       </c>
       <c r="I12" t="n">
         <v>-0.3001631177844082</v>
@@ -29440,10 +29440,10 @@
         <v>0.025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0234</v>
+        <v>0.0242</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0262</v>
+        <v>0.026</v>
       </c>
       <c r="I13" t="n">
         <v>-0.4132439358995555</v>
@@ -29515,13 +29515,13 @@
         <v>0.2941176470591091</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G14" t="n">
         <v>0.0247</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0311</v>
+        <v>0.0301</v>
       </c>
       <c r="I14" t="n">
         <v>-1.108206795257438</v>
@@ -29593,13 +29593,13 @@
         <v>0.2352941176471594</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0198</v>
+        <v>0.0294</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0262</v>
+        <v>0.0373</v>
       </c>
       <c r="I15" t="n">
         <v>-0.3058022707737081</v>
@@ -29671,13 +29671,13 @@
         <v>0.1764705882352096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0244</v>
+        <v>0.0253</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0262</v>
+        <v>0.032</v>
       </c>
       <c r="I16" t="n">
         <v>-0.7212298770386001</v>
@@ -29752,10 +29752,10 @@
         <v>0.03</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0258</v>
+        <v>0.029</v>
       </c>
       <c r="H17" t="n">
-        <v>0.032</v>
+        <v>0.0325</v>
       </c>
       <c r="I17" t="n">
         <v>-0.3624241259866357</v>
@@ -29827,13 +29827,13 @@
         <v>0.05882352941090102</v>
       </c>
       <c r="F18" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0243</v>
+        <v>0.0296</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0273</v>
+        <v>0.0338</v>
       </c>
       <c r="I18" t="n">
         <v>-0.7514770634422999</v>
@@ -29908,10 +29908,10 @@
         <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0271</v>
+        <v>0.0292</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0314</v>
+        <v>0.0306</v>
       </c>
       <c r="I19" t="n">
         <v>-0.9930251954408786</v>

--- a/data/nzd0069/nzd0069.xlsx
+++ b/data/nzd0069/nzd0069.xlsx
@@ -565,7 +565,7 @@
         <v>264.6</v>
       </c>
       <c r="J2" t="n">
-        <v>279.24</v>
+        <v>287.04</v>
       </c>
       <c r="K2" t="n">
         <v>265.03</v>
@@ -659,7 +659,7 @@
         <v>297.89</v>
       </c>
       <c r="J4" t="n">
-        <v>301.57</v>
+        <v>299.37</v>
       </c>
       <c r="K4" t="n">
         <v>297.39</v>
@@ -709,7 +709,7 @@
         <v>306.95</v>
       </c>
       <c r="J5" t="n">
-        <v>303.59</v>
+        <v>300.32</v>
       </c>
       <c r="K5" t="n">
         <v>297.76</v>
@@ -773,7 +773,7 @@
         <v>285.23</v>
       </c>
       <c r="J6" t="n">
-        <v>282.69</v>
+        <v>280.69</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -829,7 +829,7 @@
         <v>264.48</v>
       </c>
       <c r="J7" t="n">
-        <v>271.83</v>
+        <v>276.03</v>
       </c>
       <c r="K7" t="n">
         <v>256.88</v>
@@ -895,7 +895,7 @@
         <v>282.19</v>
       </c>
       <c r="J8" t="n">
-        <v>287.79</v>
+        <v>294.59</v>
       </c>
       <c r="K8" t="n">
         <v>275.77</v>
@@ -959,7 +959,7 @@
         <v>316.67</v>
       </c>
       <c r="J9" t="n">
-        <v>303.45</v>
+        <v>300.18</v>
       </c>
       <c r="K9" t="n">
         <v>286.9</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>280.02</v>
+        <v>283.42</v>
       </c>
       <c r="K10" t="n">
         <v>256.44</v>
@@ -1141,7 +1141,7 @@
         <v>328.06</v>
       </c>
       <c r="J13" t="n">
-        <v>310.05</v>
+        <v>312.25</v>
       </c>
       <c r="K13" t="n">
         <v>305.28</v>
@@ -1195,7 +1195,7 @@
         <v>326.25</v>
       </c>
       <c r="J14" t="n">
-        <v>328.33</v>
+        <v>326.8</v>
       </c>
       <c r="K14" t="n">
         <v>323.33</v>
@@ -1259,7 +1259,7 @@
         <v>316.43</v>
       </c>
       <c r="J15" t="n">
-        <v>314.63</v>
+        <v>317.7</v>
       </c>
       <c r="K15" t="n">
         <v>300.04</v>
@@ -1323,7 +1323,7 @@
         <v>312.88</v>
       </c>
       <c r="J16" t="n">
-        <v>311.29</v>
+        <v>317.42</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1369,7 +1369,7 @@
         <v>325.97</v>
       </c>
       <c r="J17" t="n">
-        <v>338.68</v>
+        <v>337.35</v>
       </c>
       <c r="K17" t="n">
         <v>336.63</v>
@@ -1501,7 +1501,7 @@
         <v>338.03</v>
       </c>
       <c r="J20" t="n">
-        <v>331.14</v>
+        <v>327.01</v>
       </c>
       <c r="K20" t="n">
         <v>326.17</v>
@@ -1567,7 +1567,7 @@
         <v>328.63</v>
       </c>
       <c r="J21" t="n">
-        <v>330.73</v>
+        <v>337.46</v>
       </c>
       <c r="K21" t="n">
         <v>325.35</v>
@@ -1633,7 +1633,7 @@
         <v>325.54</v>
       </c>
       <c r="J22" t="n">
-        <v>326.9</v>
+        <v>326.5</v>
       </c>
       <c r="K22" t="n">
         <v>326.08</v>
@@ -1689,7 +1689,7 @@
         <v>308.97</v>
       </c>
       <c r="J23" t="n">
-        <v>311.62</v>
+        <v>314.49</v>
       </c>
       <c r="K23" t="n">
         <v>305.71</v>
@@ -1799,7 +1799,7 @@
         <v>317.41</v>
       </c>
       <c r="J25" t="n">
-        <v>305.8</v>
+        <v>300.87</v>
       </c>
       <c r="K25" t="n">
         <v>321.23</v>
@@ -2023,7 +2023,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>279.87</v>
+        <v>278.6</v>
       </c>
       <c r="K31" t="n">
         <v>294.61</v>
@@ -2075,7 +2075,7 @@
         <v>296.12</v>
       </c>
       <c r="J32" t="n">
-        <v>288.41</v>
+        <v>284.54</v>
       </c>
       <c r="K32" t="n">
         <v>284.67</v>
@@ -2181,7 +2181,7 @@
         <v>280.39</v>
       </c>
       <c r="J34" t="n">
-        <v>285.01</v>
+        <v>285.54</v>
       </c>
       <c r="K34" t="n">
         <v>273.04</v>
@@ -2247,7 +2247,7 @@
         <v>273.37</v>
       </c>
       <c r="J35" t="n">
-        <v>277.18</v>
+        <v>280.58</v>
       </c>
       <c r="K35" t="n">
         <v>255.06</v>
@@ -2311,7 +2311,7 @@
         <v>307.48</v>
       </c>
       <c r="J36" t="n">
-        <v>314.23</v>
+        <v>319.23</v>
       </c>
       <c r="K36" t="n">
         <v>297.42</v>
@@ -2377,7 +2377,7 @@
         <v>307.23</v>
       </c>
       <c r="J37" t="n">
-        <v>303.65</v>
+        <v>300.45</v>
       </c>
       <c r="K37" t="n">
         <v>284.4</v>
@@ -2475,7 +2475,7 @@
         <v>289.19</v>
       </c>
       <c r="J39" t="n">
-        <v>272.65</v>
+        <v>269.25</v>
       </c>
       <c r="K39" t="n">
         <v>279.74</v>
@@ -2538,9 +2538,7 @@
         <v>323.95</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>313.48</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>310.24</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>270.64</v>
       </c>
       <c r="J41" t="n">
-        <v>285.65</v>
+        <v>292.38</v>
       </c>
       <c r="K41" t="n">
         <v>279.89</v>
@@ -2668,9 +2666,7 @@
       <c r="I42" t="n">
         <v>253.24</v>
       </c>
-      <c r="J42" t="n">
-        <v>252.52</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>246.61</v>
       </c>
@@ -2731,7 +2727,7 @@
         <v>277.98</v>
       </c>
       <c r="J43" t="n">
-        <v>285.8</v>
+        <v>293.47</v>
       </c>
       <c r="K43" t="n">
         <v>276.09</v>
@@ -2777,7 +2773,7 @@
         <v>259.64</v>
       </c>
       <c r="J44" t="n">
-        <v>268.81</v>
+        <v>275.54</v>
       </c>
       <c r="K44" t="n">
         <v>271.85</v>
@@ -2897,7 +2893,7 @@
         <v>286.68</v>
       </c>
       <c r="J46" t="n">
-        <v>289.87</v>
+        <v>293.87</v>
       </c>
       <c r="K46" t="n">
         <v>288.07</v>
@@ -3115,7 +3111,7 @@
         <v>321.86</v>
       </c>
       <c r="J51" t="n">
-        <v>321.81</v>
+        <v>317.08</v>
       </c>
       <c r="K51" t="n">
         <v>277.04</v>
@@ -3163,7 +3159,7 @@
         <v>305.33</v>
       </c>
       <c r="J52" t="n">
-        <v>293.13</v>
+        <v>292.66</v>
       </c>
       <c r="K52" t="n">
         <v>278.2</v>
@@ -3221,7 +3217,7 @@
         <v>271.41</v>
       </c>
       <c r="J53" t="n">
-        <v>270.98</v>
+        <v>273.11</v>
       </c>
       <c r="K53" t="n">
         <v>251.02</v>
@@ -3287,7 +3283,7 @@
         <v>299.5</v>
       </c>
       <c r="J54" t="n">
-        <v>290.01</v>
+        <v>290.48</v>
       </c>
       <c r="K54" t="n">
         <v>278.67</v>
@@ -3381,7 +3377,7 @@
         <v>308.66</v>
       </c>
       <c r="J56" t="n">
-        <v>293.21</v>
+        <v>297.14</v>
       </c>
       <c r="K56" t="n">
         <v>286</v>
@@ -3479,7 +3475,7 @@
         <v>302.98</v>
       </c>
       <c r="J58" t="n">
-        <v>302.55</v>
+        <v>303.82</v>
       </c>
       <c r="K58" t="n">
         <v>273.93</v>
@@ -3545,7 +3541,7 @@
         <v>300.33</v>
       </c>
       <c r="J59" t="n">
-        <v>305.2</v>
+        <v>309.07</v>
       </c>
       <c r="K59" t="n">
         <v>275.18</v>
@@ -3603,7 +3599,7 @@
         <v>288.48</v>
       </c>
       <c r="J60" t="n">
-        <v>284.39</v>
+        <v>292.12</v>
       </c>
       <c r="K60" t="n">
         <v>257.35</v>
@@ -3667,7 +3663,7 @@
         <v>331.8</v>
       </c>
       <c r="J61" t="n">
-        <v>293.16</v>
+        <v>289.36</v>
       </c>
       <c r="K61" t="n">
         <v>273.67</v>
@@ -3717,7 +3713,7 @@
         <v>303.93</v>
       </c>
       <c r="J62" t="n">
-        <v>305.45</v>
+        <v>313.38</v>
       </c>
       <c r="K62" t="n">
         <v>263.1</v>
@@ -3879,7 +3875,7 @@
         <v>325.71</v>
       </c>
       <c r="J65" t="n">
-        <v>320.48</v>
+        <v>317.75</v>
       </c>
       <c r="K65" t="n">
         <v>302.29</v>
@@ -3945,7 +3941,7 @@
         <v>325.79</v>
       </c>
       <c r="J66" t="n">
-        <v>303.27</v>
+        <v>299.87</v>
       </c>
       <c r="K66" t="n">
         <v>288.39</v>
@@ -4011,7 +4007,7 @@
         <v>312.55</v>
       </c>
       <c r="J67" t="n">
-        <v>310.6</v>
+        <v>309.6</v>
       </c>
       <c r="K67" t="n">
         <v>295.25</v>
@@ -4075,7 +4071,7 @@
         <v>281.06</v>
       </c>
       <c r="J68" t="n">
-        <v>278.02</v>
+        <v>284.69</v>
       </c>
       <c r="K68" t="n">
         <v>275.79</v>
@@ -4132,7 +4128,9 @@
         <v>326.66</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>322.4</v>
+      </c>
       <c r="K69" t="n">
         <v>311.97</v>
       </c>
@@ -4187,7 +4185,7 @@
         <v>265.24</v>
       </c>
       <c r="J70" t="n">
-        <v>256.81</v>
+        <v>253.54</v>
       </c>
       <c r="K70" t="n">
         <v>249.45</v>
@@ -4245,7 +4243,7 @@
         <v>265.39</v>
       </c>
       <c r="J71" t="n">
-        <v>259.29</v>
+        <v>265.02</v>
       </c>
       <c r="K71" t="n">
         <v>276.69</v>
@@ -4311,7 +4309,7 @@
         <v>288.62</v>
       </c>
       <c r="J72" t="n">
-        <v>277.68</v>
+        <v>284.88</v>
       </c>
       <c r="K72" t="n">
         <v>290.94</v>
@@ -4369,7 +4367,7 @@
         <v>267.44</v>
       </c>
       <c r="J73" t="n">
-        <v>259.84</v>
+        <v>269.97</v>
       </c>
       <c r="K73" t="n">
         <v>248.02</v>
@@ -4535,7 +4533,7 @@
         <v>280.58</v>
       </c>
       <c r="J76" t="n">
-        <v>285.63</v>
+        <v>282.43</v>
       </c>
       <c r="K76" t="n">
         <v>275.42</v>
@@ -4741,7 +4739,7 @@
         <v>299.1</v>
       </c>
       <c r="J80" t="n">
-        <v>294.79</v>
+        <v>291.86</v>
       </c>
       <c r="K80" t="n">
         <v>294.76</v>
@@ -4807,7 +4805,7 @@
         <v>259.1</v>
       </c>
       <c r="J81" t="n">
-        <v>259.91</v>
+        <v>267.24</v>
       </c>
       <c r="K81" t="n">
         <v>280.75</v>
@@ -4863,7 +4861,7 @@
         <v>267.41</v>
       </c>
       <c r="J82" t="n">
-        <v>266.1</v>
+        <v>272.1</v>
       </c>
       <c r="K82" t="n">
         <v>269.51</v>
@@ -5017,7 +5015,7 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>275.07</v>
+        <v>282.27</v>
       </c>
       <c r="K85" t="n">
         <v>278.26</v>
@@ -5149,7 +5147,7 @@
         <v>259.31</v>
       </c>
       <c r="J88" t="n">
-        <v>267.87</v>
+        <v>273.94</v>
       </c>
       <c r="K88" t="n">
         <v>264.03</v>
@@ -5215,7 +5213,7 @@
         <v>268.92</v>
       </c>
       <c r="J89" t="n">
-        <v>265.9</v>
+        <v>268.1</v>
       </c>
       <c r="K89" t="n">
         <v>263.68</v>
@@ -5313,7 +5311,7 @@
         <v>230.64</v>
       </c>
       <c r="J91" t="n">
-        <v>236.52</v>
+        <v>238.92</v>
       </c>
       <c r="K91" t="n">
         <v>239.65</v>
@@ -5363,7 +5361,7 @@
         <v>267.47</v>
       </c>
       <c r="J92" t="n">
-        <v>266.04</v>
+        <v>260.97</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -5411,7 +5409,7 @@
         <v>278.79</v>
       </c>
       <c r="J93" t="n">
-        <v>272.51</v>
+        <v>269.71</v>
       </c>
       <c r="K93" t="n">
         <v>265.6</v>
@@ -5477,7 +5475,7 @@
         <v>256.49</v>
       </c>
       <c r="J94" t="n">
-        <v>262.75</v>
+        <v>273.15</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -5533,7 +5531,7 @@
         <v>237.45</v>
       </c>
       <c r="J95" t="n">
-        <v>243.37</v>
+        <v>249.97</v>
       </c>
       <c r="K95" t="n">
         <v>245.11</v>
@@ -5597,7 +5595,7 @@
         <v>264.45</v>
       </c>
       <c r="J96" t="n">
-        <v>266.68</v>
+        <v>264.95</v>
       </c>
       <c r="K96" t="n">
         <v>262.73</v>
@@ -5701,7 +5699,7 @@
         <v>284.72</v>
       </c>
       <c r="J98" t="n">
-        <v>284.26</v>
+        <v>291.19</v>
       </c>
       <c r="K98" t="n">
         <v>280.46</v>
@@ -5767,7 +5765,7 @@
         <v>287.02</v>
       </c>
       <c r="J99" t="n">
-        <v>276.95</v>
+        <v>276.22</v>
       </c>
       <c r="K99" t="n">
         <v>276.26</v>
@@ -5871,7 +5869,7 @@
         <v>279.46</v>
       </c>
       <c r="J101" t="n">
-        <v>276.6</v>
+        <v>279.4</v>
       </c>
       <c r="K101" t="n">
         <v>271.56</v>
@@ -5919,7 +5917,7 @@
         <v>284.8</v>
       </c>
       <c r="J102" t="n">
-        <v>275.48</v>
+        <v>272.08</v>
       </c>
       <c r="K102" t="n">
         <v>274.67</v>
@@ -6063,7 +6061,7 @@
         <v>289.91</v>
       </c>
       <c r="J105" t="n">
-        <v>291.86</v>
+        <v>299.66</v>
       </c>
       <c r="K105" t="n">
         <v>300.43</v>
@@ -6151,7 +6149,7 @@
         <v>278.16</v>
       </c>
       <c r="J107" t="n">
-        <v>274.21</v>
+        <v>278.08</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -6199,7 +6197,7 @@
         <v>258.7</v>
       </c>
       <c r="J108" t="n">
-        <v>266.43</v>
+        <v>262.96</v>
       </c>
       <c r="K108" t="n">
         <v>261.38</v>
@@ -6257,7 +6255,7 @@
         <v>269.15</v>
       </c>
       <c r="J109" t="n">
-        <v>268.9</v>
+        <v>274.37</v>
       </c>
       <c r="K109" t="n">
         <v>284.77</v>
@@ -6309,7 +6307,7 @@
         <v>299.15</v>
       </c>
       <c r="J110" t="n">
-        <v>290.46</v>
+        <v>288.33</v>
       </c>
       <c r="K110" t="n">
         <v>280.86</v>
@@ -6369,7 +6367,7 @@
         <v>308.81</v>
       </c>
       <c r="J111" t="n">
-        <v>295.97</v>
+        <v>300.57</v>
       </c>
       <c r="K111" t="n">
         <v>305.75</v>
@@ -6453,7 +6451,7 @@
         <v>301.64</v>
       </c>
       <c r="J113" t="n">
-        <v>305.03</v>
+        <v>307.9</v>
       </c>
       <c r="K113" t="n">
         <v>310.66</v>
@@ -6509,7 +6507,7 @@
         <v>301.22</v>
       </c>
       <c r="J114" t="n">
-        <v>310.82</v>
+        <v>310.69</v>
       </c>
       <c r="K114" t="n">
         <v>309.64</v>
@@ -6563,7 +6561,7 @@
         <v>300.04</v>
       </c>
       <c r="J115" t="n">
-        <v>299.9</v>
+        <v>303.1</v>
       </c>
       <c r="K115" t="n">
         <v>297.96</v>
@@ -6621,7 +6619,7 @@
         <v>306.36</v>
       </c>
       <c r="J116" t="n">
-        <v>296.69</v>
+        <v>293.96</v>
       </c>
       <c r="K116" t="n">
         <v>272.98</v>
@@ -6679,7 +6677,7 @@
         <v>278.7</v>
       </c>
       <c r="J117" t="n">
-        <v>276.34</v>
+        <v>271.67</v>
       </c>
       <c r="K117" t="n">
         <v>266.77</v>
@@ -6777,7 +6775,7 @@
         <v>265.17</v>
       </c>
       <c r="J119" t="n">
-        <v>251.85</v>
+        <v>253.45</v>
       </c>
       <c r="K119" t="n">
         <v>257.97</v>
@@ -6875,7 +6873,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>223.49</v>
+        <v>231.42</v>
       </c>
       <c r="K121" t="n">
         <v>251.88</v>
@@ -6929,7 +6927,7 @@
         <v>264.95</v>
       </c>
       <c r="J122" t="n">
-        <v>253.94</v>
+        <v>263.41</v>
       </c>
       <c r="K122" t="n">
         <v>256.34</v>
@@ -6993,7 +6991,7 @@
         <v>270.43</v>
       </c>
       <c r="J123" t="n">
-        <v>259.66</v>
+        <v>269.19</v>
       </c>
       <c r="K123" t="n">
         <v>267.84</v>
@@ -7047,7 +7045,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>257.69</v>
+        <v>264.42</v>
       </c>
       <c r="K124" t="n">
         <v>265.95</v>
@@ -7101,7 +7099,7 @@
         <v>252.09</v>
       </c>
       <c r="J125" t="n">
-        <v>250.57</v>
+        <v>256.37</v>
       </c>
       <c r="K125" t="n">
         <v>256.51</v>
@@ -7223,7 +7221,7 @@
         <v>252.93</v>
       </c>
       <c r="J127" t="n">
-        <v>255.94</v>
+        <v>253.74</v>
       </c>
       <c r="K127" t="n">
         <v>264.49</v>
@@ -7281,7 +7279,7 @@
         <v>259.26</v>
       </c>
       <c r="J128" t="n">
-        <v>263.02</v>
+        <v>258.75</v>
       </c>
       <c r="K128" t="n">
         <v>268.59</v>
@@ -7343,7 +7341,7 @@
         <v>262.38</v>
       </c>
       <c r="J129" t="n">
-        <v>255.76</v>
+        <v>261.69</v>
       </c>
       <c r="K129" t="n">
         <v>266.67</v>
@@ -7409,7 +7407,7 @@
         <v>270.19</v>
       </c>
       <c r="J130" t="n">
-        <v>262.29</v>
+        <v>269.56</v>
       </c>
       <c r="K130" t="n">
         <v>272.67</v>
@@ -7457,7 +7455,7 @@
         <v>265.57</v>
       </c>
       <c r="J131" t="n">
-        <v>271.87</v>
+        <v>268.67</v>
       </c>
       <c r="K131" t="n">
         <v>277.04</v>
@@ -7513,7 +7511,7 @@
         <v>272.26</v>
       </c>
       <c r="J132" t="n">
-        <v>273.3</v>
+        <v>282.17</v>
       </c>
       <c r="K132" t="n">
         <v>284.47</v>
@@ -7571,7 +7569,7 @@
         <v>288.12</v>
       </c>
       <c r="J133" t="n">
-        <v>293.34</v>
+        <v>292.34</v>
       </c>
       <c r="K133" t="n">
         <v>299.09</v>
@@ -7633,7 +7631,7 @@
         <v>294.9</v>
       </c>
       <c r="J134" t="n">
-        <v>285.24</v>
+        <v>284.04</v>
       </c>
       <c r="K134" t="n">
         <v>277.66</v>
@@ -7881,7 +7879,7 @@
         <v>274.7</v>
       </c>
       <c r="J139" t="n">
-        <v>276.39</v>
+        <v>270.52</v>
       </c>
       <c r="K139" t="n">
         <v>272.51</v>
@@ -7939,7 +7937,7 @@
         <v>285.36</v>
       </c>
       <c r="J140" t="n">
-        <v>272.57</v>
+        <v>273.77</v>
       </c>
       <c r="K140" t="n">
         <v>269.39</v>
@@ -8043,7 +8041,7 @@
         <v>272.77</v>
       </c>
       <c r="J142" t="n">
-        <v>282.62</v>
+        <v>279.95</v>
       </c>
       <c r="K142" t="n">
         <v>275.81</v>
@@ -8103,7 +8101,7 @@
         <v>297.59</v>
       </c>
       <c r="J143" t="n">
-        <v>291.78</v>
+        <v>293.71</v>
       </c>
       <c r="K143" t="n">
         <v>284.49</v>
@@ -8169,7 +8167,7 @@
         <v>299.9</v>
       </c>
       <c r="J144" t="n">
-        <v>303.86</v>
+        <v>310.33</v>
       </c>
       <c r="K144" t="n">
         <v>286.22</v>
@@ -8233,7 +8231,7 @@
         <v>289.82</v>
       </c>
       <c r="J145" t="n">
-        <v>290.81</v>
+        <v>289.74</v>
       </c>
       <c r="K145" t="n">
         <v>280.69</v>
@@ -8291,7 +8289,7 @@
         <v>303.99</v>
       </c>
       <c r="J146" t="n">
-        <v>299.25</v>
+        <v>295.92</v>
       </c>
       <c r="K146" t="n">
         <v>308.45</v>
@@ -8447,7 +8445,7 @@
         <v>258.32</v>
       </c>
       <c r="J149" t="n">
-        <v>260.81</v>
+        <v>268.01</v>
       </c>
       <c r="K149" t="n">
         <v>258.15</v>
@@ -8493,7 +8491,7 @@
         <v>289.36</v>
       </c>
       <c r="J150" t="n">
-        <v>293.62</v>
+        <v>299.89</v>
       </c>
       <c r="K150" t="n">
         <v>274.77</v>
@@ -8547,7 +8545,7 @@
         <v>293.42</v>
       </c>
       <c r="J151" t="n">
-        <v>298.02</v>
+        <v>300.89</v>
       </c>
       <c r="K151" t="n">
         <v>285.73</v>
@@ -8599,7 +8597,7 @@
         <v>280.94</v>
       </c>
       <c r="J152" t="n">
-        <v>289.72</v>
+        <v>292.12</v>
       </c>
       <c r="K152" t="n">
         <v>276.48</v>
@@ -8807,7 +8805,7 @@
         <v>311.42</v>
       </c>
       <c r="J156" t="n">
-        <v>302.77</v>
+        <v>299.77</v>
       </c>
       <c r="K156" t="n">
         <v>286.81</v>
@@ -8929,7 +8927,7 @@
         <v>294.97</v>
       </c>
       <c r="J158" t="n">
-        <v>291.99</v>
+        <v>299.26</v>
       </c>
       <c r="K158" t="n">
         <v>283.22</v>
@@ -8985,7 +8983,7 @@
         <v>321.21</v>
       </c>
       <c r="J159" t="n">
-        <v>312.18</v>
+        <v>310.31</v>
       </c>
       <c r="K159" t="n">
         <v>288.22</v>
@@ -9073,7 +9071,7 @@
         <v>281.05</v>
       </c>
       <c r="J161" t="n">
-        <v>270.1</v>
+        <v>265.03</v>
       </c>
       <c r="K161" t="n">
         <v>262.16</v>
@@ -9249,7 +9247,7 @@
         <v>269.49</v>
       </c>
       <c r="J165" t="n">
-        <v>262.28</v>
+        <v>269.08</v>
       </c>
       <c r="K165" t="n">
         <v>249.81</v>
@@ -9421,7 +9419,7 @@
         <v>264.46</v>
       </c>
       <c r="J169" t="n">
-        <v>242.68</v>
+        <v>240.08</v>
       </c>
       <c r="K169" t="n">
         <v>242.82</v>
@@ -9479,7 +9477,7 @@
         <v>268.69</v>
       </c>
       <c r="J170" t="n">
-        <v>263.51</v>
+        <v>271.24</v>
       </c>
       <c r="K170" t="n">
         <v>257.89</v>
@@ -9662,9 +9660,7 @@
       <c r="I174" t="n">
         <v>244.3</v>
       </c>
-      <c r="J174" t="n">
-        <v>229.83</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>243.15</v>
       </c>
@@ -9869,7 +9865,7 @@
         <v>255.08</v>
       </c>
       <c r="J178" t="n">
-        <v>277.96</v>
+        <v>272.16</v>
       </c>
       <c r="K178" t="n">
         <v>272.98</v>
@@ -9921,7 +9917,7 @@
         <v>269.97</v>
       </c>
       <c r="J179" t="n">
-        <v>267.88</v>
+        <v>271.28</v>
       </c>
       <c r="K179" t="n">
         <v>278.41</v>
@@ -10069,7 +10065,7 @@
         <v>262.77</v>
       </c>
       <c r="J182" t="n">
-        <v>266.31</v>
+        <v>262.18</v>
       </c>
       <c r="K182" t="n">
         <v>280.37</v>
@@ -10115,7 +10111,7 @@
         <v>291.84</v>
       </c>
       <c r="J183" t="n">
-        <v>290.75</v>
+        <v>291.02</v>
       </c>
       <c r="K183" t="n">
         <v>291.51</v>
@@ -10223,7 +10219,7 @@
         <v>286.31</v>
       </c>
       <c r="J185" t="n">
-        <v>284.51</v>
+        <v>290.18</v>
       </c>
       <c r="K185" t="n">
         <v>285.94</v>
@@ -10263,7 +10259,7 @@
         <v>302.96</v>
       </c>
       <c r="J186" t="n">
-        <v>294.17</v>
+        <v>303.04</v>
       </c>
       <c r="K186" t="n">
         <v>311.45</v>
@@ -10321,7 +10317,7 @@
         <v>288.49</v>
       </c>
       <c r="J187" t="n">
-        <v>269.33</v>
+        <v>276.86</v>
       </c>
       <c r="K187" t="n">
         <v>268.04</v>
@@ -10421,7 +10417,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>265.26</v>
+        <v>260.13</v>
       </c>
       <c r="K189" t="n">
         <v>271.16</v>
@@ -10607,7 +10603,7 @@
         <v>281.82</v>
       </c>
       <c r="J193" t="n">
-        <v>269.04</v>
+        <v>273.51</v>
       </c>
       <c r="K193" t="n">
         <v>267.18</v>
@@ -10727,7 +10723,7 @@
         <v>276.55</v>
       </c>
       <c r="J195" t="n">
-        <v>285.78</v>
+        <v>282.85</v>
       </c>
       <c r="K195" t="n">
         <v>285.85</v>
@@ -10825,7 +10821,7 @@
         <v>276.76</v>
       </c>
       <c r="J197" t="n">
-        <v>265.65</v>
+        <v>269.52</v>
       </c>
       <c r="K197" t="n">
         <v>259.86</v>
@@ -10885,7 +10881,7 @@
         <v>260.06</v>
       </c>
       <c r="J198" t="n">
-        <v>247.03</v>
+        <v>249.03</v>
       </c>
       <c r="K198" t="n">
         <v>237.45</v>
@@ -10951,7 +10947,7 @@
         <v>274.67</v>
       </c>
       <c r="J199" t="n">
-        <v>278.92</v>
+        <v>275.12</v>
       </c>
       <c r="K199" t="n">
         <v>285.65</v>
@@ -11011,7 +11007,7 @@
         <v>292.89</v>
       </c>
       <c r="J200" t="n">
-        <v>280.49</v>
+        <v>289.16</v>
       </c>
       <c r="K200" t="n">
         <v>269.12</v>
@@ -11075,7 +11071,7 @@
         <v>292.27</v>
       </c>
       <c r="J201" t="n">
-        <v>290.56</v>
+        <v>298.56</v>
       </c>
       <c r="K201" t="n">
         <v>283.96</v>
@@ -11169,7 +11165,7 @@
         <v>291.26</v>
       </c>
       <c r="J203" t="n">
-        <v>287.92</v>
+        <v>288.92</v>
       </c>
       <c r="K203" t="n">
         <v>289.97</v>
@@ -11227,7 +11223,7 @@
         <v>286.97</v>
       </c>
       <c r="J204" t="n">
-        <v>290.87</v>
+        <v>286.2</v>
       </c>
       <c r="K204" t="n">
         <v>291.9</v>
@@ -11327,7 +11323,7 @@
         <v>294.73</v>
       </c>
       <c r="J206" t="n">
-        <v>305.96</v>
+        <v>301.63</v>
       </c>
       <c r="K206" t="n">
         <v>313.95</v>
@@ -11389,7 +11385,7 @@
         <v>261.29</v>
       </c>
       <c r="J207" t="n">
-        <v>258.96</v>
+        <v>253.83</v>
       </c>
       <c r="K207" t="n">
         <v>258.51</v>
@@ -11447,7 +11443,7 @@
         <v>258.53</v>
       </c>
       <c r="J208" t="n">
-        <v>251.32</v>
+        <v>247.12</v>
       </c>
       <c r="K208" t="n">
         <v>248.89</v>
@@ -11553,7 +11549,7 @@
         <v>262.83</v>
       </c>
       <c r="J210" t="n">
-        <v>253.1</v>
+        <v>253.23</v>
       </c>
       <c r="K210" t="n">
         <v>256.23</v>
@@ -11667,7 +11663,7 @@
         <v>284.67</v>
       </c>
       <c r="J212" t="n">
-        <v>272.99</v>
+        <v>275.79</v>
       </c>
       <c r="K212" t="n">
         <v>274.3</v>
@@ -11717,7 +11713,7 @@
         <v>260.57</v>
       </c>
       <c r="J213" t="n">
-        <v>255.03</v>
+        <v>262.76</v>
       </c>
       <c r="K213" t="n">
         <v>245.75</v>
@@ -11829,7 +11825,7 @@
         <v>293.75</v>
       </c>
       <c r="J215" t="n">
-        <v>278.39</v>
+        <v>285.86</v>
       </c>
       <c r="K215" t="n">
         <v>271.15</v>
@@ -11993,7 +11989,7 @@
         <v>284.07</v>
       </c>
       <c r="J218" t="n">
-        <v>275.53</v>
+        <v>278.73</v>
       </c>
       <c r="K218" t="n">
         <v>288.59</v>
@@ -12059,7 +12055,7 @@
         <v>287.31</v>
       </c>
       <c r="J219" t="n">
-        <v>280.3</v>
+        <v>280.63</v>
       </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
@@ -12145,7 +12141,7 @@
         <v>287.2</v>
       </c>
       <c r="J221" t="n">
-        <v>264.89</v>
+        <v>263.82</v>
       </c>
       <c r="K221" t="n">
         <v>267.91</v>
@@ -12211,7 +12207,7 @@
         <v>295.19</v>
       </c>
       <c r="J222" t="n">
-        <v>301.83</v>
+        <v>297.3</v>
       </c>
       <c r="K222" t="n">
         <v>289.8</v>
@@ -12323,7 +12319,7 @@
         <v>286.62</v>
       </c>
       <c r="J224" t="n">
-        <v>275.61</v>
+        <v>274.54</v>
       </c>
       <c r="K224" t="n">
         <v>276.52</v>
@@ -12437,7 +12433,7 @@
         <v>295.16</v>
       </c>
       <c r="J226" t="n">
-        <v>301.77</v>
+        <v>299.1</v>
       </c>
       <c r="K226" t="n">
         <v>285.89</v>
@@ -12561,7 +12557,7 @@
         <v>263.17</v>
       </c>
       <c r="J229" t="n">
-        <v>251.7</v>
+        <v>254.03</v>
       </c>
       <c r="K229" t="n">
         <v>248.06</v>
@@ -12667,7 +12663,7 @@
         <v>246.14</v>
       </c>
       <c r="J231" t="n">
-        <v>242.67</v>
+        <v>237.67</v>
       </c>
       <c r="K231" t="n">
         <v>239.78</v>
@@ -12715,7 +12711,7 @@
         <v>262.98</v>
       </c>
       <c r="J232" t="n">
-        <v>250.29</v>
+        <v>251.42</v>
       </c>
       <c r="K232" t="n">
         <v>246.72</v>
@@ -12854,9 +12850,7 @@
       <c r="I235" t="n">
         <v>290.46</v>
       </c>
-      <c r="J235" t="n">
-        <v>283.96</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
         <v>285.67</v>
       </c>
@@ -12921,7 +12915,7 @@
         <v>289.52</v>
       </c>
       <c r="J236" t="n">
-        <v>281.9</v>
+        <v>289.77</v>
       </c>
       <c r="K236" t="n">
         <v>282.42</v>
@@ -12971,7 +12965,7 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>245.51</v>
+        <v>247.44</v>
       </c>
       <c r="K237" t="n">
         <v>253.42</v>
@@ -13027,7 +13021,7 @@
         <v>265.52</v>
       </c>
       <c r="J238" t="n">
-        <v>255.81</v>
+        <v>252.14</v>
       </c>
       <c r="K238" t="n">
         <v>252.32</v>
@@ -13093,7 +13087,7 @@
         <v>275.48</v>
       </c>
       <c r="J239" t="n">
-        <v>268.77</v>
+        <v>276.9</v>
       </c>
       <c r="K239" t="n">
         <v>266.76</v>
@@ -13184,9 +13178,7 @@
       <c r="I241" t="n">
         <v>218.41</v>
       </c>
-      <c r="J241" t="n">
-        <v>208.86</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>252.2</v>
@@ -13275,7 +13267,7 @@
         <v>252.78</v>
       </c>
       <c r="J243" t="n">
-        <v>247.82</v>
+        <v>251.22</v>
       </c>
       <c r="K243" t="n">
         <v>250.59</v>
@@ -13333,7 +13325,7 @@
         <v>254.53</v>
       </c>
       <c r="J244" t="n">
-        <v>249.51</v>
+        <v>257.31</v>
       </c>
       <c r="K244" t="n">
         <v>255.04</v>
@@ -13433,7 +13425,7 @@
         <v>260.69</v>
       </c>
       <c r="J246" t="n">
-        <v>247.46</v>
+        <v>254.99</v>
       </c>
       <c r="K246" t="n">
         <v>250.05</v>
@@ -13499,7 +13491,7 @@
         <v>252.27</v>
       </c>
       <c r="J247" t="n">
-        <v>256.73</v>
+        <v>256.46</v>
       </c>
       <c r="K247" t="n">
         <v>249.04</v>
@@ -13655,7 +13647,7 @@
         <v>229.77</v>
       </c>
       <c r="J250" t="n">
-        <v>218</v>
+        <v>213.8</v>
       </c>
       <c r="K250" t="n">
         <v>227.32</v>
@@ -13721,7 +13713,7 @@
         <v>239.55</v>
       </c>
       <c r="J251" t="n">
-        <v>235.22</v>
+        <v>234.29</v>
       </c>
       <c r="K251" t="n">
         <v>235.25</v>
@@ -13787,7 +13779,7 @@
         <v>254.08</v>
       </c>
       <c r="J252" t="n">
-        <v>250.53</v>
+        <v>252.73</v>
       </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
@@ -13909,7 +13901,7 @@
         <v>253.52</v>
       </c>
       <c r="J255" t="n">
-        <v>241.59</v>
+        <v>249.72</v>
       </c>
       <c r="K255" t="n">
         <v>237.32</v>
@@ -14087,7 +14079,7 @@
         <v>264.06</v>
       </c>
       <c r="J259" t="n">
-        <v>254.43</v>
+        <v>261.36</v>
       </c>
       <c r="K259" t="n">
         <v>246.04</v>
@@ -14135,7 +14127,7 @@
         <v>254.13</v>
       </c>
       <c r="J260" t="n">
-        <v>238.2</v>
+        <v>247.27</v>
       </c>
       <c r="K260" t="n">
         <v>231.26</v>
@@ -14197,7 +14189,7 @@
         <v>254.17</v>
       </c>
       <c r="J261" t="n">
-        <v>240.95</v>
+        <v>247.95</v>
       </c>
       <c r="K261" t="n">
         <v>233.63</v>
@@ -14293,7 +14285,7 @@
         <v>265.71</v>
       </c>
       <c r="J263" t="n">
-        <v>269.08</v>
+        <v>266.35</v>
       </c>
       <c r="K263" t="n">
         <v>269.06</v>
@@ -14513,7 +14505,7 @@
         <v>250.65</v>
       </c>
       <c r="J268" t="n">
-        <v>285.92</v>
+        <v>291.99</v>
       </c>
       <c r="K268" t="n">
         <v>296.55</v>
@@ -14619,7 +14611,7 @@
         <v>267.26</v>
       </c>
       <c r="J270" t="n">
-        <v>267.3</v>
+        <v>275.43</v>
       </c>
       <c r="K270" t="n">
         <v>263.01</v>
@@ -14683,7 +14675,7 @@
         <v>270.45</v>
       </c>
       <c r="J271" t="n">
-        <v>271.92</v>
+        <v>273.05</v>
       </c>
       <c r="K271" t="n">
         <v>267.63</v>
@@ -14741,7 +14733,7 @@
         <v>278.31</v>
       </c>
       <c r="J272" t="n">
-        <v>284.72</v>
+        <v>290.65</v>
       </c>
       <c r="K272" t="n">
         <v>291.55</v>
@@ -14803,7 +14795,7 @@
         <v>265.1</v>
       </c>
       <c r="J273" t="n">
-        <v>268.82</v>
+        <v>264.89</v>
       </c>
       <c r="K273" t="n">
         <v>261.59</v>
@@ -14863,7 +14855,7 @@
         <v>263.98</v>
       </c>
       <c r="J274" t="n">
-        <v>259.39</v>
+        <v>258.99</v>
       </c>
       <c r="K274" t="n">
         <v>255.99</v>
@@ -14909,7 +14901,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>256.36</v>
+        <v>255.43</v>
       </c>
       <c r="K275" t="n">
         <v>256.47</v>
@@ -15007,7 +14999,7 @@
         <v>238.98</v>
       </c>
       <c r="J277" t="n">
-        <v>238.69</v>
+        <v>234.09</v>
       </c>
       <c r="K277" t="n">
         <v>237.45</v>
@@ -15071,7 +15063,7 @@
         <v>226.83</v>
       </c>
       <c r="J278" t="n">
-        <v>225.53</v>
+        <v>223.86</v>
       </c>
       <c r="K278" t="n">
         <v>227.1</v>
@@ -15137,7 +15129,7 @@
         <v>226.23</v>
       </c>
       <c r="J279" t="n">
-        <v>222.38</v>
+        <v>222.78</v>
       </c>
       <c r="K279" t="n">
         <v>204.17</v>
@@ -15203,7 +15195,7 @@
         <v>261.91</v>
       </c>
       <c r="J280" t="n">
-        <v>261.82</v>
+        <v>268.15</v>
       </c>
       <c r="K280" t="n">
         <v>253.89</v>
@@ -15269,7 +15261,7 @@
         <v>255.14</v>
       </c>
       <c r="J281" t="n">
-        <v>248.86</v>
+        <v>257.33</v>
       </c>
       <c r="K281" t="n">
         <v>245.18</v>
@@ -15367,7 +15359,7 @@
         <v>256.93</v>
       </c>
       <c r="J283" t="n">
-        <v>258.58</v>
+        <v>254.38</v>
       </c>
       <c r="K283" t="n">
         <v>253.4</v>
@@ -15461,7 +15453,7 @@
         <v>260.23</v>
       </c>
       <c r="J285" t="n">
-        <v>268.54</v>
+        <v>267.21</v>
       </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
@@ -15503,7 +15495,7 @@
         <v>257.4</v>
       </c>
       <c r="J286" t="n">
-        <v>251.01</v>
+        <v>258.94</v>
       </c>
       <c r="K286" t="n">
         <v>253.53</v>
@@ -15599,7 +15591,7 @@
         <v>244.7</v>
       </c>
       <c r="J288" t="n">
-        <v>237.38</v>
+        <v>246.78</v>
       </c>
       <c r="K288" t="n">
         <v>225.85</v>
@@ -15719,7 +15711,7 @@
         <v>292.44</v>
       </c>
       <c r="J291" t="n">
-        <v>292.52</v>
+        <v>301.32</v>
       </c>
       <c r="K291" t="n">
         <v>283.04</v>
@@ -15785,7 +15777,7 @@
         <v>294.51</v>
       </c>
       <c r="J292" t="n">
-        <v>288.76</v>
+        <v>298.69</v>
       </c>
       <c r="K292" t="n">
         <v>284.33</v>
@@ -15899,7 +15891,7 @@
         <v>272.88</v>
       </c>
       <c r="J294" t="n">
-        <v>262.45</v>
+        <v>272.25</v>
       </c>
       <c r="K294" t="n">
         <v>256.42</v>
@@ -15957,7 +15949,7 @@
         <v>292.62</v>
       </c>
       <c r="J295" t="n">
-        <v>288.56</v>
+        <v>293.69</v>
       </c>
       <c r="K295" t="n">
         <v>279.15</v>
@@ -16095,7 +16087,7 @@
         <v>268.48</v>
       </c>
       <c r="J298" t="n">
-        <v>265.4</v>
+        <v>269.53</v>
       </c>
       <c r="K298" t="n">
         <v>266.12</v>
@@ -16161,7 +16153,7 @@
         <v>254.49</v>
       </c>
       <c r="J299" t="n">
-        <v>250.03</v>
+        <v>249.7</v>
       </c>
       <c r="K299" t="n">
         <v>249.24</v>
@@ -16227,7 +16219,7 @@
         <v>261.28</v>
       </c>
       <c r="J300" t="n">
-        <v>265.71</v>
+        <v>272.84</v>
       </c>
       <c r="K300" t="n">
         <v>263.97</v>
@@ -16293,7 +16285,7 @@
         <v>282</v>
       </c>
       <c r="J301" t="n">
-        <v>279.54</v>
+        <v>288.41</v>
       </c>
       <c r="K301" t="n">
         <v>275.29</v>
@@ -16359,7 +16351,7 @@
         <v>264.7</v>
       </c>
       <c r="J302" t="n">
-        <v>266.19</v>
+        <v>263.66</v>
       </c>
       <c r="K302" t="n">
         <v>262.43</v>
@@ -16425,7 +16417,7 @@
         <v>260.63</v>
       </c>
       <c r="J303" t="n">
-        <v>257</v>
+        <v>263.47</v>
       </c>
       <c r="K303" t="n">
         <v>241.95</v>
@@ -16531,7 +16523,7 @@
         <v>270.98</v>
       </c>
       <c r="J305" t="n">
-        <v>258.5</v>
+        <v>259.83</v>
       </c>
       <c r="K305" t="n">
         <v>247.12</v>
@@ -16595,7 +16587,7 @@
         <v>288.35</v>
       </c>
       <c r="J306" t="n">
-        <v>270.66</v>
+        <v>278.86</v>
       </c>
       <c r="K306" t="n">
         <v>246.36</v>
@@ -16699,7 +16691,7 @@
         <v>284.07</v>
       </c>
       <c r="J308" t="n">
-        <v>279.21</v>
+        <v>288.54</v>
       </c>
       <c r="K308" t="n">
         <v>257.88</v>
@@ -16765,7 +16757,7 @@
         <v>266.29</v>
       </c>
       <c r="J309" t="n">
-        <v>261.6</v>
+        <v>263.93</v>
       </c>
       <c r="K309" t="n">
         <v>246.36</v>
@@ -16831,7 +16823,7 @@
         <v>297.65</v>
       </c>
       <c r="J310" t="n">
-        <v>289.51</v>
+        <v>291.18</v>
       </c>
       <c r="K310" t="n">
         <v>287.38</v>
@@ -16889,7 +16881,7 @@
         <v>278.08</v>
       </c>
       <c r="J311" t="n">
-        <v>277.94</v>
+        <v>276.74</v>
       </c>
       <c r="K311" t="n">
         <v>272.57</v>
@@ -16944,7 +16936,9 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>315.29</v>
+      </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>313.72</v>
@@ -17005,7 +16999,7 @@
         <v>268.91</v>
       </c>
       <c r="J313" t="n">
-        <v>267.31</v>
+        <v>275.78</v>
       </c>
       <c r="K313" t="n">
         <v>264.39</v>
@@ -17067,7 +17061,7 @@
         <v>279.7</v>
       </c>
       <c r="J314" t="n">
-        <v>285.09</v>
+        <v>285.76</v>
       </c>
       <c r="K314" t="n">
         <v>284.14</v>
@@ -17131,7 +17125,7 @@
         <v>254.57</v>
       </c>
       <c r="J315" t="n">
-        <v>259.12</v>
+        <v>252.85</v>
       </c>
       <c r="K315" t="n">
         <v>285.55</v>
@@ -17185,7 +17179,7 @@
         <v>259.93</v>
       </c>
       <c r="J316" t="n">
-        <v>267</v>
+        <v>264.2</v>
       </c>
       <c r="K316" t="n">
         <v>269.04</v>
@@ -17245,7 +17239,7 @@
         <v>275.58</v>
       </c>
       <c r="J317" t="n">
-        <v>269.95</v>
+        <v>276.88</v>
       </c>
       <c r="K317" t="n">
         <v>268.21</v>
@@ -17311,7 +17305,7 @@
         <v>278.55</v>
       </c>
       <c r="J318" t="n">
-        <v>274.61</v>
+        <v>283.88</v>
       </c>
       <c r="K318" t="n">
         <v>269.59</v>
@@ -17377,7 +17371,7 @@
         <v>284.85</v>
       </c>
       <c r="J319" t="n">
-        <v>285.98</v>
+        <v>282.38</v>
       </c>
       <c r="K319" t="n">
         <v>275.87</v>
@@ -17433,7 +17427,7 @@
         <v>281.98</v>
       </c>
       <c r="J320" t="n">
-        <v>268.24</v>
+        <v>276.84</v>
       </c>
       <c r="K320" t="n">
         <v>254.42</v>
@@ -17493,7 +17487,7 @@
         <v>287.92</v>
       </c>
       <c r="J321" t="n">
-        <v>284.72</v>
+        <v>279.25</v>
       </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
@@ -17541,7 +17535,7 @@
         <v>259.03</v>
       </c>
       <c r="J322" t="n">
-        <v>262.08</v>
+        <v>258.15</v>
       </c>
       <c r="K322" t="n">
         <v>260.76</v>
@@ -17727,7 +17721,7 @@
         <v>268.84</v>
       </c>
       <c r="J326" t="n">
-        <v>263.26</v>
+        <v>263.73</v>
       </c>
       <c r="K326" t="n">
         <v>256.67</v>
@@ -17793,7 +17787,7 @@
         <v>270.17</v>
       </c>
       <c r="J327" t="n">
-        <v>276.03</v>
+        <v>274.36</v>
       </c>
       <c r="K327" t="n">
         <v>271.84</v>
@@ -17859,7 +17853,7 @@
         <v>270.22</v>
       </c>
       <c r="J328" t="n">
-        <v>267.58</v>
+        <v>274.58</v>
       </c>
       <c r="K328" t="n">
         <v>260.51</v>
@@ -17923,7 +17917,7 @@
         <v>294.92</v>
       </c>
       <c r="J329" t="n">
-        <v>287.1</v>
+        <v>281.37</v>
       </c>
       <c r="K329" t="n">
         <v>294.52</v>
@@ -18069,7 +18063,7 @@
         <v>262.31</v>
       </c>
       <c r="J332" t="n">
-        <v>257.64</v>
+        <v>265.11</v>
       </c>
       <c r="K332" t="n">
         <v>250.72</v>
@@ -18173,7 +18167,7 @@
         <v>266.24</v>
       </c>
       <c r="J334" t="n">
-        <v>257.76</v>
+        <v>261.83</v>
       </c>
       <c r="K334" t="n">
         <v>253.19</v>
@@ -18239,7 +18233,7 @@
         <v>263.18</v>
       </c>
       <c r="J335" t="n">
-        <v>258.52</v>
+        <v>259.92</v>
       </c>
       <c r="K335" t="n">
         <v>263.23</v>
@@ -18295,7 +18289,7 @@
         <v>249.82</v>
       </c>
       <c r="J336" t="n">
-        <v>244.59</v>
+        <v>248.39</v>
       </c>
       <c r="K336" t="n">
         <v>233.12</v>
@@ -18429,7 +18423,7 @@
         <v>262.42</v>
       </c>
       <c r="J339" t="n">
-        <v>257.39</v>
+        <v>254.92</v>
       </c>
       <c r="K339" t="n">
         <v>255.68</v>
@@ -18525,7 +18519,7 @@
         <v>245.42</v>
       </c>
       <c r="J341" t="n">
-        <v>252.45</v>
+        <v>248.65</v>
       </c>
       <c r="K341" t="n">
         <v>263.52</v>
@@ -18587,7 +18581,7 @@
         <v>266.58</v>
       </c>
       <c r="J342" t="n">
-        <v>266.17</v>
+        <v>270.24</v>
       </c>
       <c r="K342" t="n">
         <v>265.29</v>
@@ -18651,7 +18645,7 @@
         <v>263.97</v>
       </c>
       <c r="J343" t="n">
-        <v>250.8</v>
+        <v>257.07</v>
       </c>
       <c r="K343" t="n">
         <v>239</v>
@@ -18701,7 +18695,7 @@
         <v>245.5</v>
       </c>
       <c r="J344" t="n">
-        <v>253.64</v>
+        <v>251.57</v>
       </c>
       <c r="K344" t="n">
         <v>253.56</v>
@@ -18749,7 +18743,7 @@
         <v>236.49</v>
       </c>
       <c r="J345" t="n">
-        <v>229.8</v>
+        <v>235.67</v>
       </c>
       <c r="K345" t="n">
         <v>224.45</v>
@@ -18809,7 +18803,7 @@
         <v>226.66</v>
       </c>
       <c r="J346" t="n">
-        <v>223.6</v>
+        <v>218.33</v>
       </c>
       <c r="K346" t="n">
         <v>226.48</v>
@@ -18859,7 +18853,7 @@
         <v>227.05</v>
       </c>
       <c r="J347" t="n">
-        <v>236.84</v>
+        <v>231.44</v>
       </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
@@ -18907,7 +18901,7 @@
         <v>255.08</v>
       </c>
       <c r="J348" t="n">
-        <v>259.49</v>
+        <v>265.36</v>
       </c>
       <c r="K348" t="n">
         <v>234.03</v>
@@ -19045,7 +19039,7 @@
         <v>231.28</v>
       </c>
       <c r="J351" t="n">
-        <v>238.14</v>
+        <v>241.01</v>
       </c>
       <c r="K351" t="n">
         <v>229.26</v>
@@ -19111,7 +19105,7 @@
         <v>231.51</v>
       </c>
       <c r="J352" t="n">
-        <v>230.81</v>
+        <v>236.21</v>
       </c>
       <c r="K352" t="n">
         <v>218.96</v>
@@ -19177,7 +19171,7 @@
         <v>237.11</v>
       </c>
       <c r="J353" t="n">
-        <v>233.25</v>
+        <v>234.12</v>
       </c>
       <c r="K353" t="n">
         <v>222.71</v>
@@ -19233,7 +19227,7 @@
         <v>238.26</v>
       </c>
       <c r="J354" t="n">
-        <v>247.29</v>
+        <v>257.16</v>
       </c>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
@@ -19315,7 +19309,7 @@
         <v>244.1</v>
       </c>
       <c r="J356" t="n">
-        <v>240.42</v>
+        <v>247.55</v>
       </c>
       <c r="K356" t="n">
         <v>237.07</v>
@@ -19413,7 +19407,7 @@
         <v>229.51</v>
       </c>
       <c r="J358" t="n">
-        <v>235.15</v>
+        <v>229.48</v>
       </c>
       <c r="K358" t="n">
         <v>240.59</v>
@@ -19499,7 +19493,7 @@
         <v>220.57</v>
       </c>
       <c r="J360" t="n">
-        <v>225.28</v>
+        <v>232.81</v>
       </c>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr"/>
@@ -19625,7 +19619,7 @@
         <v>264.57</v>
       </c>
       <c r="J363" t="n">
-        <v>251.52</v>
+        <v>254.19</v>
       </c>
       <c r="K363" t="n">
         <v>247.29</v>
@@ -19691,7 +19685,7 @@
         <v>258.58</v>
       </c>
       <c r="J364" t="n">
-        <v>249.87</v>
+        <v>250.07</v>
       </c>
       <c r="K364" t="n">
         <v>237.76</v>
@@ -19757,7 +19751,7 @@
         <v>265.74</v>
       </c>
       <c r="J365" t="n">
-        <v>259.94</v>
+        <v>267.27</v>
       </c>
       <c r="K365" t="n">
         <v>255.81</v>
@@ -19811,7 +19805,7 @@
         <v>268.12</v>
       </c>
       <c r="J366" t="n">
-        <v>267.57</v>
+        <v>264.04</v>
       </c>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr"/>
@@ -19891,7 +19885,7 @@
         <v>242.84</v>
       </c>
       <c r="J368" t="n">
-        <v>238.24</v>
+        <v>234.71</v>
       </c>
       <c r="K368" t="n">
         <v>230.79</v>
@@ -19953,7 +19947,7 @@
         <v>249.91</v>
       </c>
       <c r="J369" t="n">
-        <v>245.01</v>
+        <v>255.14</v>
       </c>
       <c r="K369" t="n">
         <v>222.88</v>
@@ -20015,7 +20009,7 @@
         <v>260.12</v>
       </c>
       <c r="J370" t="n">
-        <v>255.32</v>
+        <v>262.25</v>
       </c>
       <c r="K370" t="n">
         <v>237.88</v>
@@ -20081,7 +20075,7 @@
         <v>280.31</v>
       </c>
       <c r="J371" t="n">
-        <v>280.27</v>
+        <v>279.2</v>
       </c>
       <c r="K371" t="n">
         <v>276.25</v>
@@ -20147,7 +20141,7 @@
         <v>278.17</v>
       </c>
       <c r="J372" t="n">
-        <v>274.89</v>
+        <v>281.09</v>
       </c>
       <c r="K372" t="n">
         <v>262.69</v>
@@ -20213,7 +20207,7 @@
         <v>267.16</v>
       </c>
       <c r="J373" t="n">
-        <v>265.42</v>
+        <v>269.35</v>
       </c>
       <c r="K373" t="n">
         <v>251.94</v>
@@ -20279,7 +20273,7 @@
         <v>242.02</v>
       </c>
       <c r="J374" t="n">
-        <v>234.85</v>
+        <v>236.98</v>
       </c>
       <c r="K374" t="n">
         <v>217.02</v>
@@ -20337,7 +20331,7 @@
         <v>254.85</v>
       </c>
       <c r="J375" t="n">
-        <v>249.84</v>
+        <v>254.17</v>
       </c>
       <c r="K375" t="n">
         <v>236.08</v>
@@ -20403,7 +20397,7 @@
         <v>258.86</v>
       </c>
       <c r="J376" t="n">
-        <v>255.18</v>
+        <v>256.98</v>
       </c>
       <c r="K376" t="n">
         <v>246.22</v>
@@ -20469,7 +20463,7 @@
         <v>264.42</v>
       </c>
       <c r="J377" t="n">
-        <v>264.81</v>
+        <v>275.21</v>
       </c>
       <c r="K377" t="n">
         <v>251.58</v>
@@ -20535,7 +20529,7 @@
         <v>248.13</v>
       </c>
       <c r="J378" t="n">
-        <v>245.2</v>
+        <v>242</v>
       </c>
       <c r="K378" t="n">
         <v>238.77</v>
@@ -20593,7 +20587,7 @@
         <v>247.75</v>
       </c>
       <c r="J379" t="n">
-        <v>240.79</v>
+        <v>247.99</v>
       </c>
       <c r="K379" t="n">
         <v>232.83</v>
@@ -20805,7 +20799,7 @@
         <v>286.21</v>
       </c>
       <c r="J384" t="n">
-        <v>277.49</v>
+        <v>281.76</v>
       </c>
       <c r="K384" t="n">
         <v>266.95</v>
@@ -20869,7 +20863,7 @@
         <v>294.8</v>
       </c>
       <c r="J385" t="n">
-        <v>313</v>
+        <v>310.33</v>
       </c>
       <c r="K385" t="n">
         <v>306.69</v>
@@ -20973,7 +20967,7 @@
         <v>287.79</v>
       </c>
       <c r="J387" t="n">
-        <v>293.31</v>
+        <v>288.91</v>
       </c>
       <c r="K387" t="n">
         <v>286.96</v>
@@ -21039,7 +21033,7 @@
         <v>300.7</v>
       </c>
       <c r="J388" t="n">
-        <v>280.11</v>
+        <v>289.64</v>
       </c>
       <c r="K388" t="n">
         <v>265.57</v>
@@ -21095,7 +21089,7 @@
         <v>300.61</v>
       </c>
       <c r="J389" t="n">
-        <v>299.23</v>
+        <v>305.83</v>
       </c>
       <c r="K389" t="n">
         <v>292.49</v>
@@ -21158,9 +21152,7 @@
       <c r="I390" t="n">
         <v>269.21</v>
       </c>
-      <c r="J390" t="n">
-        <v>255.84</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
         <v>251.83</v>
       </c>
@@ -21218,9 +21210,7 @@
       <c r="I391" t="n">
         <v>245.58</v>
       </c>
-      <c r="J391" t="n">
-        <v>236.96</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
         <v>247.08</v>
       </c>
@@ -21305,7 +21295,7 @@
         <v>278.26</v>
       </c>
       <c r="J393" t="n">
-        <v>273</v>
+        <v>282.87</v>
       </c>
       <c r="K393" t="n">
         <v>262.58</v>
@@ -21355,7 +21345,7 @@
         <v>265.17</v>
       </c>
       <c r="J394" t="n">
-        <v>250.08</v>
+        <v>257.01</v>
       </c>
       <c r="K394" t="n">
         <v>235.98</v>
@@ -21417,7 +21407,7 @@
         <v>298.28</v>
       </c>
       <c r="J395" t="n">
-        <v>296.83</v>
+        <v>303.23</v>
       </c>
       <c r="K395" t="n">
         <v>295.82</v>
@@ -21483,7 +21473,7 @@
         <v>314.44</v>
       </c>
       <c r="J396" t="n">
-        <v>318.55</v>
+        <v>314.88</v>
       </c>
       <c r="K396" t="n">
         <v>323.41</v>
@@ -21549,7 +21539,7 @@
         <v>310.64</v>
       </c>
       <c r="J397" t="n">
-        <v>306.1</v>
+        <v>312.77</v>
       </c>
       <c r="K397" t="n">
         <v>304.88</v>
@@ -21615,7 +21605,7 @@
         <v>288.09</v>
       </c>
       <c r="J398" t="n">
-        <v>287.82</v>
+        <v>286.75</v>
       </c>
       <c r="K398" t="n">
         <v>292.62</v>
@@ -21681,7 +21671,7 @@
         <v>303.06</v>
       </c>
       <c r="J399" t="n">
-        <v>299.02</v>
+        <v>304.89</v>
       </c>
       <c r="K399" t="n">
         <v>284.97</v>
@@ -21747,7 +21737,7 @@
         <v>306.96</v>
       </c>
       <c r="J400" t="n">
-        <v>305.28</v>
+        <v>313.41</v>
       </c>
       <c r="K400" t="n">
         <v>296.36</v>
@@ -21803,7 +21793,7 @@
         <v>305.32</v>
       </c>
       <c r="J401" t="n">
-        <v>302.2</v>
+        <v>298.87</v>
       </c>
       <c r="K401" t="n">
         <v>298.93</v>
@@ -21869,7 +21859,7 @@
         <v>314.63</v>
       </c>
       <c r="J402" t="n">
-        <v>278.17</v>
+        <v>287.3</v>
       </c>
       <c r="K402" t="n">
         <v>273.97</v>
@@ -21961,7 +21951,7 @@
         <v>321.61</v>
       </c>
       <c r="J404" t="n">
-        <v>306.74</v>
+        <v>314.41</v>
       </c>
       <c r="K404" t="n">
         <v>303.27</v>
@@ -22003,7 +21993,7 @@
         <v>309.51</v>
       </c>
       <c r="J405" t="n">
-        <v>297.38</v>
+        <v>294.98</v>
       </c>
       <c r="K405" t="n">
         <v>299.39</v>
@@ -22069,7 +22059,7 @@
         <v>318.08</v>
       </c>
       <c r="J406" t="n">
-        <v>294.51</v>
+        <v>304.91</v>
       </c>
       <c r="K406" t="n">
         <v>298.72</v>
@@ -22135,7 +22125,7 @@
         <v>312.03</v>
       </c>
       <c r="J407" t="n">
-        <v>303.8</v>
+        <v>302.93</v>
       </c>
       <c r="K407" t="n">
         <v>306.44</v>
@@ -22201,7 +22191,7 @@
         <v>307.05</v>
       </c>
       <c r="J408" t="n">
-        <v>293.8</v>
+        <v>295.87</v>
       </c>
       <c r="K408" t="n">
         <v>291.1</v>
@@ -22267,7 +22257,7 @@
         <v>313.72</v>
       </c>
       <c r="J409" t="n">
-        <v>303.97</v>
+        <v>302.84</v>
       </c>
       <c r="K409" t="n">
         <v>305.84</v>
@@ -22333,7 +22323,7 @@
         <v>320.41</v>
       </c>
       <c r="J410" t="n">
-        <v>288.6</v>
+        <v>295.2</v>
       </c>
       <c r="K410" t="n">
         <v>292.38</v>
@@ -22399,7 +22389,7 @@
         <v>302.75</v>
       </c>
       <c r="J411" t="n">
-        <v>270.95</v>
+        <v>280.75</v>
       </c>
       <c r="K411" t="n">
         <v>256.99</v>
@@ -22461,7 +22451,7 @@
         <v>284.05</v>
       </c>
       <c r="J412" t="n">
-        <v>284.76</v>
+        <v>280.49</v>
       </c>
       <c r="K412" t="n">
         <v>283.87</v>
@@ -22557,7 +22547,7 @@
         <v>290.31</v>
       </c>
       <c r="J414" t="n">
-        <v>261.81</v>
+        <v>268.54</v>
       </c>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
@@ -22653,7 +22643,7 @@
         <v>292.91</v>
       </c>
       <c r="J416" t="n">
-        <v>286.32</v>
+        <v>280.52</v>
       </c>
       <c r="K416" t="n">
         <v>283.99</v>
@@ -22751,7 +22741,7 @@
         <v>279.18</v>
       </c>
       <c r="J418" t="n">
-        <v>275.7</v>
+        <v>277.57</v>
       </c>
       <c r="K418" t="n">
         <v>278.55</v>
@@ -22801,7 +22791,7 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>258.42</v>
+        <v>255.62</v>
       </c>
       <c r="K419" t="n">
         <v>260.92</v>
@@ -22851,7 +22841,7 @@
         <v>313.17</v>
       </c>
       <c r="J420" t="n">
-        <v>288.17</v>
+        <v>292.97</v>
       </c>
       <c r="K420" t="n">
         <v>281.03</v>
@@ -22917,7 +22907,7 @@
         <v>319.42</v>
       </c>
       <c r="J421" t="n">
-        <v>299.61</v>
+        <v>307.08</v>
       </c>
       <c r="K421" t="n">
         <v>295</v>
@@ -22971,7 +22961,7 @@
         <v>297.02</v>
       </c>
       <c r="J422" t="n">
-        <v>305.61</v>
+        <v>301.21</v>
       </c>
       <c r="K422" t="n">
         <v>290.29</v>
@@ -23017,7 +23007,7 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>312.2</v>
+        <v>320.33</v>
       </c>
       <c r="K423" t="n">
         <v>325.42</v>
@@ -23129,7 +23119,7 @@
         <v>284.96</v>
       </c>
       <c r="J425" t="n">
-        <v>275.4</v>
+        <v>271.87</v>
       </c>
       <c r="K425" t="n">
         <v>258.62</v>
@@ -23195,7 +23185,7 @@
         <v>285.26</v>
       </c>
       <c r="J426" t="n">
-        <v>278.15</v>
+        <v>278.88</v>
       </c>
       <c r="K426" t="n">
         <v>269.32</v>
@@ -23261,7 +23251,7 @@
         <v>285.41</v>
       </c>
       <c r="J427" t="n">
-        <v>263.61</v>
+        <v>268.54</v>
       </c>
       <c r="K427" t="n">
         <v>259.81</v>
@@ -23351,7 +23341,7 @@
         <v>310.02</v>
       </c>
       <c r="J429" t="n">
-        <v>296.16</v>
+        <v>297.56</v>
       </c>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr"/>
@@ -23399,7 +23389,7 @@
         <v>322.83</v>
       </c>
       <c r="J430" t="n">
-        <v>319.8</v>
+        <v>326</v>
       </c>
       <c r="K430" t="n">
         <v>316.57</v>
@@ -23465,7 +23455,7 @@
         <v>315.23</v>
       </c>
       <c r="J431" t="n">
-        <v>302.29</v>
+        <v>311.69</v>
       </c>
       <c r="K431" t="n">
         <v>304.77</v>
@@ -23527,7 +23517,7 @@
         <v>301.65</v>
       </c>
       <c r="J432" t="n">
-        <v>335.25</v>
+        <v>329.85</v>
       </c>
       <c r="K432" t="n">
         <v>317.68</v>
@@ -29446,28 +29436,28 @@
         <v>0.0292</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8994094225372652</v>
+        <v>-0.8301267140941716</v>
       </c>
       <c r="J10" t="n">
         <v>431</v>
       </c>
       <c r="K10" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09349780728847501</v>
+        <v>0.08224878983008421</v>
       </c>
       <c r="M10" t="n">
-        <v>18.39844759938795</v>
+        <v>18.31546413348602</v>
       </c>
       <c r="N10" t="n">
-        <v>516.1192568609398</v>
+        <v>506.310096900243</v>
       </c>
       <c r="O10" t="n">
-        <v>22.71825822683024</v>
+        <v>22.50133544704054</v>
       </c>
       <c r="P10" t="n">
-        <v>288.2467610695715</v>
+        <v>290.2609964200043</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30357,7 +30347,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-35.39244538987879,173.23498712054905</t>
+          <t>-35.39249221672381,173.23492303621217</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -30485,7 +30475,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-35.39257944664041,173.23480365839717</t>
+          <t>-35.39256623909009,173.23482173351297</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -30555,7 +30545,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-35.39259157357059,173.23478706214922</t>
+          <t>-35.392571942350784,173.23481392835006</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -30653,7 +30643,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-35.39246610175675,173.23495877556303</t>
+          <t>-35.39245409487181,173.23497520744075</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -30735,7 +30725,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-35.392400904344484,173.23504800060044</t>
+          <t>-35.39242611882115,173.23501349369693</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -30837,7 +30827,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-35.39249671930327,173.23491687425278</t>
+          <t>-35.39253754267596,173.2348610057898</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -30935,7 +30925,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-35.39259073309035,173.23478821238442</t>
+          <t>-35.39257110187029,173.23481507858466</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -31025,7 +31015,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-35.392450072564834,173.2349807121187</t>
+          <t>-35.39247048426922,173.23495277792645</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -31179,7 +31169,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-35.392630355718104,173.23473398698638</t>
+          <t>-35.39264356325527,173.2347159118419</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -31257,7 +31247,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-35.39274009826277,173.23458379878875</t>
+          <t>-35.39273091303507,173.23459636926071</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -31355,7 +31345,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-35.39265785140605,173.23469635781532</t>
+          <t>-35.3926762819152,173.23467113475408</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -31453,7 +31443,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-35.39263779996666,173.2347237991784</t>
+          <t>-35.39267460095693,173.2346734352292</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -31515,7 +31505,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-35.39280223359211,173.2344987631681</t>
+          <t>-35.392794249055555,173.23450969045805</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -31689,7 +31679,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-35.39275696786052,173.23456071183602</t>
+          <t>-35.392732173752684,173.23459464390197</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -31791,7 +31781,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-35.39275450646042,173.23456408039556</t>
+          <t>-35.3927949094308,173.2345087866973</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -31893,7 +31883,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-35.39273151337678,173.2345955476613</t>
+          <t>-35.39272911200989,173.2345988340588</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -31975,7 +31965,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-35.392639781097174,173.23472108790662</t>
+          <t>-35.39265701092669,173.2346975080524</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -32135,7 +32125,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-35.39260484115,173.2347689048624</t>
+          <t>-35.39257524423832,173.23480940957103</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -32403,7 +32393,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-35.392449172048316,173.2349819445092</t>
+          <t>-35.39244154767462,173.23499237874776</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -32477,7 +32467,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-35.39250044143538,173.23491178036582</t>
+          <t>-35.39247720812335,173.2349435760718</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -32629,7 +32619,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-35.392480029740504,173.23493971457876</t>
+          <t>-35.392483211563956,173.23493536012884</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -32731,7 +32721,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-35.39243302278328,173.23500404537438</t>
+          <t>-35.39245343449306,173.2349761111939</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -32829,7 +32819,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-35.39265545003639,173.23469964420684</t>
+          <t>-35.392685467150685,173.23465856429905</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -32931,7 +32921,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-35.3925919337764,173.23478656919127</t>
+          <t>-35.392572722796956,173.23481286027504</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -33067,7 +33057,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-35.39240582717165,173.23504126354</t>
+          <t>-35.392385415446775,173.23506919768766</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -33163,11 +33153,7 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>-35.39265094746804,173.2347058061904</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>-35.39208472525232,173.2341348387226</t>
@@ -33263,7 +33249,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-35.39248387194239,173.23493445637504</t>
+          <t>-35.39252427508268,173.23487916304646</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -33363,11 +33349,7 @@
           <t>-35.392836066083824,173.2357983231941</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>-35.39228497765915,173.2352066499207</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>-35.39170272773792,173.23465761698998</t>
@@ -33459,7 +33441,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-35.392484772458424,173.2349332239835</t>
+          <t>-35.39253081882813,173.23487020765816</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -33521,7 +33503,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-35.39238277392895,173.23507281269397</t>
+          <t>-35.39242317713271,173.23501751950346</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -33701,7 +33683,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-35.39250920645531,173.23489978508184</t>
+          <t>-35.39253322020243,173.23486692127676</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -33987,7 +33969,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-35.39270095597619,173.23463736705475</t>
+          <t>-35.39267255979325,173.23467622866312</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -34053,7 +34035,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-35.392528777659905,173.23487300108218</t>
+          <t>-35.39252595604487,173.23487686257988</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -34139,7 +34121,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-35.39239580141347,173.23505498413783</t>
+          <t>-35.39240858875746,173.23503748421308</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -34241,7 +34223,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-35.392510046936614,173.23489863484897</t>
+          <t>-35.39251286855233,173.23489477335283</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -34369,7 +34351,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-35.39252925793477,173.23487234380596</t>
+          <t>-35.39255285143405,173.23484005510164</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -34505,7 +34487,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-35.39258533000286,173.23479560675273</t>
+          <t>-35.392592954359536,173.23478517247713</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -34607,7 +34589,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-35.39260123909251,173.23477383444313</t>
+          <t>-35.39262447235976,173.23474203863972</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -34693,7 +34675,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-35.3924763076072,173.23494480846313</t>
+          <t>-35.39252271418918,173.2348812991939</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -34791,7 +34773,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-35.39252895776297,173.2348727546036</t>
+          <t>-35.39250614470192,173.2349039752156</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -34861,7 +34843,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-35.39260273994982,173.2347717804512</t>
+          <t>-35.39265034712557,173.23470662778814</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -35095,7 +35077,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-35.39269297142707,173.23464829431737</t>
+          <t>-35.39267658208631,173.23467072395493</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -35197,7 +35179,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-35.392589652472886,173.23478969125813</t>
+          <t>-35.39256924080631,173.23481762553263</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -35299,7 +35281,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-35.392633657602644,173.2347294682008</t>
+          <t>-35.39262765417608,173.2347376841743</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -35397,7 +35379,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-35.39243806567689,173.23499714398992</t>
+          <t>-35.39247810863947,173.23494234368042</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -35481,7 +35463,11 @@
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-35.39270449799389,173.23463251962175</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>-35.39209511113452,173.2341206251318</t>
@@ -35561,7 +35547,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-35.39231073249231,173.23517140368426</t>
+          <t>-35.39229110118685,173.2351982696987</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -35647,7 +35633,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-35.3923256210625,173.2351510282273</t>
+          <t>-35.39236002085059,173.23510395103403</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -35749,7 +35735,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-35.3924360245057,173.23499993740754</t>
+          <t>-35.39247924929322,173.23494078265134</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -35835,7 +35821,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-35.39232892296269,173.23514650947578</t>
+          <t>-35.39238973793022,173.23506328222228</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -36077,7 +36063,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-35.392483751873584,173.23493462069393</t>
+          <t>-35.39246454086184,173.23496091170742</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -36369,7 +36355,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-35.392538743363,173.23485936259885</t>
+          <t>-35.392521153295625,173.23488343534126</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -36471,7 +36457,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-35.39232934320451,173.2351459343619</t>
+          <t>-35.39237334851225,173.23508571169185</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -36553,7 +36539,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-35.39236650457822,173.2350950778413</t>
+          <t>-35.392402525275415,173.23504578230015</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -36771,7 +36757,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-35.392420355513075,173.23502138099104</t>
+          <t>-35.392463580311116,173.23496222625775</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -36945,7 +36931,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-35.39237713068599,173.2350805356612</t>
+          <t>-35.39241357161852,173.23503066499208</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -37047,7 +37033,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-35.39236530388797,173.23509672102523</t>
+          <t>-35.39237851147953,173.23507864599912</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -37183,7 +37169,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-35.39218892224641,173.23533810421787</t>
+          <t>-35.39220333056747,173.23531838609318</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -37253,7 +37239,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-35.39236614437117,173.23509557079646</t>
+          <t>-35.392335706866156,173.23513722549419</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -37319,7 +37305,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-35.39240498668899,173.23504241376992</t>
+          <t>-35.39238817703346,173.2350654183626</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -37421,7 +37407,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-35.39234639301353,173.23512260116598</t>
+          <t>-35.392408828895356,173.23503715557595</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -37503,7 +37489,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-35.392230045987546,173.2352818253851</t>
+          <t>-35.39226966883735,173.2352276004702</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -37601,7 +37587,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-35.392369986579844,173.23509031260755</t>
+          <t>-35.39235960060897,173.23510452614832</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -37749,7 +37735,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-35.39247552715989,173.2349458765356</t>
+          <t>-35.39251713099284,173.23488894002833</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -37851,7 +37837,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-35.392431641990896,173.23500593503903</t>
+          <t>-35.39242725947581,173.23501193266983</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -37999,7 +37985,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-35.39242954078509,173.2350088106155</t>
+          <t>-35.392446350429815,173.23498580599932</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -38065,7 +38051,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>-35.39242281692596,173.23501801245934</t>
+          <t>-35.39240240520646,173.2350459466187</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -38263,7 +38249,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>-35.392521153295625,173.23488343534126</t>
+          <t>-35.39256798008551,173.23481935088444</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -38379,7 +38365,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>-35.39241519254913,173.2350284466911</t>
+          <t>-35.392438425883554,173.23499665103384</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -38445,7 +38431,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>-35.39236848571711,173.23509236658765</t>
+          <t>-35.39234765373867,173.23512087582364</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -38531,7 +38517,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>-35.39238331423942,173.23507207326088</t>
+          <t>-35.392416153100605,173.2350271321423</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -38605,7 +38591,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>-35.39251274848358,173.2348949376718</t>
+          <t>-35.392499961160276,173.2349124376416</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -38695,7 +38681,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>-35.39254582741609,173.23484966777133</t>
+          <t>-35.39257344320878,173.23481187435962</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -38803,7 +38789,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-35.39260021850952,173.23477523115758</t>
+          <t>-35.392617448349625,173.2347516513264</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -38885,7 +38871,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>-35.39263497835642,173.23472766068647</t>
+          <t>-35.392634197911015,173.23472872876314</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -38963,7 +38949,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>-35.39256942090929,173.2348173790538</t>
+          <t>-35.392588631889716,173.2347910879722</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -39049,7 +39035,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>-35.39255014988877,173.23484375228247</t>
+          <t>-35.39253376051165,173.23486618184094</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -39135,7 +39121,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>-35.39242797988926,173.23501094675797</t>
+          <t>-35.39239994379278,173.23504931514873</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -39271,7 +39257,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>-35.39228095534161,173.2352121545757</t>
+          <t>-35.3922905608756,173.2351990091301</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -39407,7 +39393,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>-35.39211069701377,173.2354451570807</t>
+          <t>-35.39215830455348,173.23538000520952</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -39485,7 +39471,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>-35.392293502570105,173.23519498333678</t>
+          <t>-35.39235035529244,173.2351171786613</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -39583,7 +39569,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>-35.39232784234083,173.23514798833995</t>
+          <t>-35.3923850552398,173.2350696906431</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -39661,7 +39647,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>-35.39231601553374,173.23516417368427</t>
+          <t>-35.392356418779414,173.23510888058493</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -39739,7 +39725,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>-35.392273270913385,173.23522267092986</t>
+          <t>-35.39230809097145,173.23517501868392</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -39923,7 +39909,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>-35.39230550948503,173.23517855152423</t>
+          <t>-35.392292301878484,173.23519662651776</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -40009,7 +39995,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>-35.39234801394586,173.2351203828687</t>
+          <t>-35.392322379196706,173.23515546481937</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -40103,7 +40089,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>-35.39230442886278,173.23518003038757</t>
+          <t>-35.392340029352944,173.23513131003605</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -40205,7 +40191,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>-35.39234363142505,173.23512638048715</t>
+          <t>-35.392387276516075,173.23506665075126</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -40271,7 +40257,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>-35.3924011444824,173.23504767196337</t>
+          <t>-35.392381933445996,173.2350739629232</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -40353,7 +40339,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>-35.392409729412435,173.23503592318664</t>
+          <t>-35.39246297996688,173.2349630478517</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -40439,7 +40425,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>-35.39253003838146,173.23487127573208</t>
+          <t>-35.392524034945204,173.23487949168452</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -40533,7 +40519,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>-35.39248141053184,173.23493782491187</t>
+          <t>-35.39247420640284,173.2349476840428</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -40879,7 +40865,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>-35.39242828006155,173.23501053596135</t>
+          <t>-35.39239303982711,173.23505876346357</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -40965,7 +40951,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>-35.39240534689584,173.23504192081424</t>
+          <t>-35.39241255103255,173.23503206170008</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -41113,7 +41099,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>-35.39246568151582,173.23495935067882</t>
+          <t>-35.392449652323805,173.2349812872343</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -41203,7 +41189,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>-35.39252067302067,173.23488409261736</t>
+          <t>-35.39253225965273,173.23486823582934</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -41305,7 +41291,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>-35.392593194496726,173.23478484383847</t>
+          <t>-35.39263203667753,173.23473168651375</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -41403,7 +41389,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>-35.39251484968669,173.23489206208941</t>
+          <t>-35.3925084260084,173.23490085315515</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -41489,7 +41475,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>-35.392565518678175,173.23482271942822</t>
+          <t>-35.39254552724436,173.2348500785691</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -41711,7 +41697,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>-35.39233474631349,173.2351385400403</t>
+          <t>-35.392377971169026,173.2350793854321</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -41773,7 +41759,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>-35.392531719343495,173.23486897526516</t>
+          <t>-35.39256936087495,173.2348174612134</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -41851,7 +41837,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>-35.392558134455605,173.23483282505842</t>
+          <t>-35.392575364306964,173.23480924525174</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -41925,7 +41911,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>-35.392508305939636,173.23490101747416</t>
+          <t>-35.39252271418918,173.2348812991939</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -42221,7 +42207,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>-35.392586650757636,173.23479379924058</t>
+          <t>-35.39256864046308,173.23481844712873</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -42405,7 +42391,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>-35.3925219337424,173.23488236726757</t>
+          <t>-35.39256557871249,173.23482263726862</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -42487,7 +42473,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>-35.39264314301548,173.23471648696022</t>
+          <t>-35.392631916609,173.23473185083324</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -42603,7 +42589,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>-35.392390518378605,173.23506221415207</t>
+          <t>-35.392360080885126,173.23510386887483</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -42835,7 +42821,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>-35.39234357139051,173.2351264626463</t>
+          <t>-35.39238439486035,173.23507059439467</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -43059,7 +43045,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>-35.39222590359729,173.23528749435042</t>
+          <t>-35.39221029458815,173.23530885566373</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -43145,7 +43131,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>-35.39235095563772,173.23511635706964</t>
+          <t>-35.392397362310064,173.23505284799708</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -43391,11 +43377,7 @@
           <t>-35.39278239491184,173.23587177356347</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>-35.39214875903446,173.23539306845342</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>-35.39168195584518,173.23468604389248</t>
@@ -43685,7 +43667,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>-35.392437705470215,173.23499763694596</t>
+          <t>-35.392402885482284,173.2350452893445</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -43759,7 +43741,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>-35.3923771907205,173.23508045350198</t>
+          <t>-35.39239760244799,173.23505251936004</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -43965,7 +43947,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>-35.392367765302964,173.23509335249807</t>
+          <t>-35.39234297104519,173.23512728423782</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -44027,7 +44009,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>-35.39251448948044,173.2348925550464</t>
+          <t>-35.39251611040853,173.23489033673988</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -44183,7 +44165,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>-35.392477028020124,173.23494382255006</t>
+          <t>-35.39251106752103,173.23489723813762</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -44233,7 +44215,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>-35.3925350212331,173.2348644564906</t>
+          <t>-35.39258827168389,173.2347915809301</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -44319,7 +44301,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>-35.39238589572272,173.23506854041375</t>
+          <t>-35.39243110168084,173.235006674473</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -44459,7 +44441,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>-35.39236146167902,173.23510197921354</t>
+          <t>-35.392330663964515,173.23514412686117</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -44711,7 +44693,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>-35.39238415472237,173.2350709230316</t>
+          <t>-35.392410990136334,173.23503419784163</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -44891,7 +44873,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>-35.392484652389626,173.23493338830235</t>
+          <t>-35.39246706230746,173.23495746101258</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -45027,7 +45009,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>-35.39236380302512,173.2350987750051</t>
+          <t>-35.39238703637811,173.23506697938822</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -45117,7 +45099,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>-35.39225201866181,173.23525175521158</t>
+          <t>-35.39226402558449,173.23523532341588</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -45219,7 +45201,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>-35.39244346877673,173.23498974964846</t>
+          <t>-35.39242065568537,173.23502097019454</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -45309,7 +45291,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>-35.39245289418318,173.23497685062824</t>
+          <t>-35.39250494401426,173.23490561840518</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -45407,7 +45389,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>-35.392513348827336,173.23489411607687</t>
+          <t>-35.39256137630953,173.2348283884405</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -45535,7 +45517,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>-35.39249749975035,173.23491580617974</t>
+          <t>-35.39250350318905,173.2349075902327</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -45621,7 +45603,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>-35.39251520989294,173.2348915691324</t>
+          <t>-35.39248717383445,173.23492993760584</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -45761,7 +45743,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>-35.39260580169863,173.23476759030748</t>
+          <t>-35.3925798068463,173.23480316543936</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -45855,7 +45837,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>-35.39232363992231,173.23515373947808</t>
+          <t>-35.39229284218972,173.23519588708632</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -45941,7 +45923,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>-35.39227777350818,173.23521650900383</t>
+          <t>-35.39225255897338,173.23525101578088</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -46093,7 +46075,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>-35.39228845966516,173.2352018846966</t>
+          <t>-35.39228924011477,173.23520081662906</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -46261,7 +46243,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>-35.39240786834378,173.2350384701245</t>
+          <t>-35.39242467799417,173.23501546552058</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -46331,7 +46313,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>-35.39230004633901,173.23518602799956</t>
+          <t>-35.39234645304807,173.23512251900684</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -46495,7 +46477,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>-35.39244028695132,173.23499410409408</t>
+          <t>-35.392485132664824,173.23493273102684</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -46733,7 +46715,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-35.39242311709825,173.23501760166275</t>
+          <t>-35.392442328122364,173.23499131067618</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -46835,7 +46817,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>-35.39245175352897,173.23497841165636</t>
+          <t>-35.39245373466521,173.234975700397</t>
         </is>
       </c>
       <c r="K219" t="inlineStr"/>
@@ -46947,7 +46929,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>-35.39235924040186,173.23510501910343</t>
+          <t>-35.39235281670801,173.23511381013543</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -47049,7 +47031,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>-35.392581007532534,173.2348015222467</t>
+          <t>-35.392553811983454,173.2348387405484</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -47213,7 +47195,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>-35.39242359737393,173.23501694438826</t>
+          <t>-35.3924171736865,173.23502573543422</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -47381,7 +47363,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>-35.39258064732667,173.2348020152045</t>
+          <t>-35.39256461816328,173.23482395182225</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -47539,7 +47521,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>-35.392280054822734,173.23521338696102</t>
+          <t>-35.39229404288132,173.2351942439053</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -47691,7 +47673,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>-35.39222584356265,173.2352875765093</t>
+          <t>-35.39219582623399,173.2353286559507</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -47757,7 +47739,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>-35.39227158994459,173.23522497138208</t>
+          <t>-35.39227837385412,173.23521568741364</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -47945,11 +47927,7 @@
           <t>-35.393059515381466,173.23549252541952</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>-35.392473726127534,173.23494834131813</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>-35.391937221530334,173.2343367041828</t>
@@ -48049,7 +48027,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>-35.39246135903746,173.2349652661553</t>
+          <t>-35.39250860611152,173.23490060667672</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -48119,7 +48097,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>-35.392242893399086,173.23526424337305</t>
+          <t>-35.392254480081135,173.23524838669388</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -48201,7 +48179,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>-35.39230472903562,173.2351796195922</t>
+          <t>-35.39228269634476,173.2352097719639</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -48303,7 +48281,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>-35.39238253379097,173.2350731413309</t>
+          <t>-35.39243134181866,173.23500634583567</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -48425,11 +48403,7 @@
           <t>-35.39262696438611,173.2360844833119</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>-35.392022866113535,173.23556535509837</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -48547,7 +48521,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>-35.39225676139653,173.2352452646529</t>
+          <t>-35.39227717316221,173.235217330594</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -48633,7 +48607,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>-35.392266907245585,173.23523137978418</t>
+          <t>-35.39231373422045,173.23516729572984</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -48773,7 +48747,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>-35.39225460015037,173.2352482223759</t>
+          <t>-35.39229980620072,173.2351863566358</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -48875,7 +48849,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>-35.39231025221579,173.23517206095693</t>
+          <t>-35.39230863128254,173.2351742792522</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -49097,7 +49071,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>-35.392077737927174,173.23549026217736</t>
+          <t>-35.39205252331402,173.2355247687839</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -49199,7 +49173,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>-35.39218111773784,173.23534878486583</t>
+          <t>-35.392175534511885,173.23535642563579</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -49301,7 +49275,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>-35.392273030774994,173.23522299956593</t>
+          <t>-35.392286238385495,173.23520492458098</t>
         </is>
       </c>
       <c r="K252" t="inlineStr"/>
@@ -49455,7 +49429,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>-35.39221935982084,173.23529644967124</t>
+          <t>-35.392268167972276,173.23522965444522</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -49691,7 +49665,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>-35.392296444264474,173.23519095754315</t>
+          <t>-35.392338048213205,173.23513402128776</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -49757,7 +49731,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>-35.39219900807149,173.23532430153134</t>
+          <t>-35.39225345949264,173.23524978339634</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -49851,7 +49825,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>-35.39221551760317,173.23530170784056</t>
+          <t>-35.39225754184652,173.23524419658617</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -49983,7 +49957,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>-35.39238439486035,173.23507059439467</t>
+          <t>-35.39236800544102,173.23509302386128</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -50273,7 +50247,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>-35.39248549287124,173.23493223807023</t>
+          <t>-35.3925219337424,173.23488236726757</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -50425,7 +50399,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>-35.39237370871928,173.23508521873657</t>
+          <t>-35.392422516753655,173.23501842325592</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -50523,7 +50497,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>-35.3924014446548,173.235047261167</t>
+          <t>-35.39240822855063,173.2350379771688</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -50609,7 +50583,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>-35.39247828874271,173.23494209720215</t>
+          <t>-35.39251388913671,173.2348933766414</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -50703,7 +50677,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>-35.39238283396346,173.23507273053474</t>
+          <t>-35.39235924040186,173.23510501910343</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -50793,7 +50767,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>-35.39232622140799,173.23515020663615</t>
+          <t>-35.392323820025965,173.23515349300075</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -50855,7 +50829,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>-35.392308030936874,173.23517510084298</t>
+          <t>-35.392302447721946,173.2351827416369</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -50991,7 +50965,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>-35.39220194977017,173.2353202757471</t>
+          <t>-35.39217433381806,173.235358068812</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -51089,7 +51063,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>-35.39212294410175,173.23542839670753</t>
+          <t>-35.3921129182995,173.2354421172095</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -51191,7 +51165,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>-35.392104033156095,173.23545427669336</t>
+          <t>-35.39210643454632,173.23545099034664</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -51293,7 +51267,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>-35.39234080980192,173.23513024196714</t>
+          <t>-35.39237881165204,173.235078235203</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -51395,7 +51369,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>-35.392263004996124,173.2352367201187</t>
+          <t>-35.392313854289576,173.23516713141166</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -51531,7 +51505,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>-35.39232135860929,173.23515686152422</t>
+          <t>-35.392296144091574,173.23519136833843</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -51659,7 +51633,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>-35.39238115299752,173.2350750309932</t>
+          <t>-35.39237316840873,173.23508595816946</t>
         </is>
       </c>
       <c r="K285" t="inlineStr"/>
@@ -51713,7 +51687,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>-35.39227591243571,173.23521905593336</t>
+          <t>-35.3923235198532,173.2351539037963</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -51845,7 +51819,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>-35.3921940852285,173.23533103855732</t>
+          <t>-35.39225051779633,173.2352538091857</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -51995,7 +51969,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>-35.39252511556379,173.23487801281317</t>
+          <t>-35.39257794578256,173.23480571238787</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -52097,7 +52071,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>-35.39250254263891,173.23490890478428</t>
+          <t>-35.3925621567558,173.23482732036575</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -52265,7 +52239,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>-35.392344591977576,173.23512506594068</t>
+          <t>-35.39240342579258,173.23504454991107</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -52351,7 +52325,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>-35.39250134195118,173.23491054797375</t>
+          <t>-35.39253213958401,173.23486840014843</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -52537,7 +52511,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>-35.39236230216225,173.23510082898488</t>
+          <t>-35.3923870964126,173.23506689722896</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -52639,7 +52613,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>-35.392270029044965,173.2352271075162</t>
+          <t>-35.39226804790306,173.23522981876326</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -52741,7 +52715,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>-35.392364163232216,173.23509828204993</t>
+          <t>-35.39240696782668,173.23503970251372</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -52843,7 +52817,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>-35.39244719091193,173.23498465576824</t>
+          <t>-35.39250044143538,173.23491178036582</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -52945,7 +52919,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>-35.392367044888836,173.23509433840852</t>
+          <t>-35.392351856155614,173.23511512468212</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -53047,7 +53021,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>-35.392311873149026,173.23516984266163</t>
+          <t>-35.39235071549961,173.23511668570632</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -53199,7 +53173,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>-35.39232087833286,173.23515751879708</t>
+          <t>-35.39232886292813,173.2351465916349</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -53297,7 +53271,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>-35.39239388030993,173.23505761323403</t>
+          <t>-35.39244310857009,173.2349902426046</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -53445,7 +53419,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>-35.39244520977549,173.23498736702712</t>
+          <t>-35.39250122188241,173.2349107122927</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -53547,7 +53521,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>-35.39233948904212,173.23513204946835</t>
+          <t>-35.39235347708779,173.23511290638453</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -53649,7 +53623,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>-35.39250704521763,173.23490274282332</t>
+          <t>-35.39251707095848,173.23488902218784</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -53735,7 +53709,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>-35.392437585401325,173.23499780126465</t>
+          <t>-35.39243038126741,173.23500766038495</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -53815,7 +53789,11 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-35.39266181366579,173.23469093526893</t>
+        </is>
+      </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -53907,7 +53885,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>-35.392373768753785,173.23508513657737</t>
+          <t>-35.39242461795971,173.2350155476799</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -54001,7 +53979,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>-35.39248051001576,173.2349390573033</t>
+          <t>-35.392484532320815,173.23493355262121</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -54099,7 +54077,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>-35.39232460047514,173.23515242493227</t>
+          <t>-35.39228695880053,173.23520393867256</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -54177,7 +54155,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>-35.392371907684094,173.23508768351292</t>
+          <t>-35.39235509801993,173.23511068808685</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -54267,7 +54245,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>-35.39238961786125,173.23506344654078</t>
+          <t>-35.39243122174976,173.2350065101543</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -54369,7 +54347,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>-35.39241759392777,173.2350251603191</t>
+          <t>-35.39247324585225,173.23494899859347</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -54471,7 +54449,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>-35.39248585307765,173.23493174511358</t>
+          <t>-35.392464240689726,173.23496132250438</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -54553,7 +54531,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>-35.39237935196254,173.23507749576999</t>
+          <t>-35.39243098161194,173.23500683879163</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -54643,7 +54621,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>-35.39247828874271,173.23494209720215</t>
+          <t>-35.39244544991323,173.23498703838968</t>
         </is>
       </c>
       <c r="K321" t="inlineStr"/>
@@ -54709,7 +54687,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>-35.39234237069984,173.2351281058293</t>
+          <t>-35.392318777123414,173.23516039436572</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -54961,7 +54939,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>-35.39234945477454,173.2351184110488</t>
+          <t>-35.39235227639729,173.23511454956795</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -55063,7 +55041,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>-35.39242611882115,173.23501349369693</t>
+          <t>-35.39241609306613,173.23502721430162</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -55165,7 +55143,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>-35.39237538968541,173.23508291827855</t>
+          <t>-35.39241741382436,173.235025406797</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -55263,7 +55241,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>-35.39249257693018,173.2349225432554</t>
+          <t>-35.39245817721293,173.23496962060287</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -55465,7 +55443,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>-35.392315715360944,173.23516458447975</t>
+          <t>-35.39236056116126,173.23510321160134</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -55613,7 +55591,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>-35.392316435775655,173.23516359857058</t>
+          <t>-35.39234086983645,173.235130159808</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -55715,7 +55693,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>-35.392320998401956,173.23515735447887</t>
+          <t>-35.39232940323906,173.23514585220278</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -55797,7 +55775,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>-35.39223737021313,173.23527180199574</t>
+          <t>-35.39226018336946,173.23524058159103</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -55975,7 +55953,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>-35.39231421449693,173.2351666384571</t>
+          <t>-35.392299385958694,173.23518693174927</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -56107,7 +56085,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>-35.39228455741703,173.23520722503395</t>
+          <t>-35.39226174426935,173.23523844545744</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -56201,7 +56179,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>-35.39236692481982,173.2350945027269</t>
+          <t>-35.39239135886144,173.2350610639226</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -56299,7 +56277,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>-35.392274651709165,173.23522078127263</t>
+          <t>-35.392312293390965,173.235169267548</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -56369,7 +56347,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>-35.39229170153267,173.23519744810824</t>
+          <t>-35.392279274373024,173.2352144550283</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -56435,7 +56413,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>-35.39214857893032,173.2353933149297</t>
+          <t>-35.39218381929861,173.23534508771868</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -56525,7 +56503,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>-35.392111357396026,173.2354442533352</t>
+          <t>-35.392079719074935,173.23548755094308</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -56595,7 +56573,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>-35.392190843356076,173.23533547513497</t>
+          <t>-35.39215842462289,173.235379840892</t>
         </is>
       </c>
       <c r="K347" t="inlineStr"/>
@@ -56661,7 +56639,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>-35.392326821753485,173.235149385045</t>
+          <t>-35.392362062024176,173.23510115762164</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -56847,7 +56825,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>-35.392198647863474,173.23532479448448</t>
+          <t>-35.39221587781108,173.23530121488724</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -56949,7 +56927,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>-35.392154642436296,173.23538501689467</t>
+          <t>-35.39218706117138,173.23534065114183</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -57051,7 +57029,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>-35.3921692909038,173.23536497015147</t>
+          <t>-35.39217451392214,173.23535782233554</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -57133,7 +57111,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>-35.39225357956189,173.23524961907842</t>
+          <t>-35.39231283370203,173.23516852811622</t>
         </is>
       </c>
       <c r="K354" t="inlineStr"/>
@@ -57237,7 +57215,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>-35.39221233576648,173.2353060622617</t>
+          <t>-35.39225514046192,173.23524748294517</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -57373,7 +57351,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>-35.392180697495036,173.2353493599776</t>
+          <t>-35.39214665781941,173.2353959440098</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -57485,7 +57463,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>-35.39212144323325,173.23543045067512</t>
+          <t>-35.392166649377124,173.2353685851385</t>
         </is>
       </c>
       <c r="K360" t="inlineStr"/>
@@ -57647,7 +57625,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>-35.39227897420005,173.23521486582345</t>
+          <t>-35.3922950034346,173.23519292936047</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -57749,7 +57727,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>-35.392269068491316,173.23522842206023</t>
+          <t>-35.39227026918338,173.2352267788802</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -57851,7 +57829,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>-35.39232952330815,173.23514568788454</t>
+          <t>-35.392373528615764,173.2350854652142</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -57929,7 +57907,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>-35.3923753296509,173.23508300043775</t>
+          <t>-35.39235413746755,173.23511200263363</t>
         </is>
       </c>
       <c r="K366" t="inlineStr"/>
@@ -58029,7 +58007,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>-35.39219924821016,173.23532397289588</t>
+          <t>-35.39217805596882,173.23535297496562</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -58123,7 +58101,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>-35.39223989166765,173.2352683513203</t>
+          <t>-35.39230070671933,173.23518512424985</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -58217,7 +58195,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>-35.392301787341644,173.23518364538666</t>
+          <t>-35.39234339128692,173.23512670912373</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -58319,7 +58297,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>-35.39245157342567,173.23497865813445</t>
+          <t>-35.39244514974105,173.2349874491865</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -58421,7 +58399,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>-35.39241927489274,173.2350228598586</t>
+          <t>-35.39245649624897,173.23497192106558</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -58523,7 +58501,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>-35.39236242223127,173.2351006646665</t>
+          <t>-35.392386015791715,173.23506837609528</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -58625,7 +58603,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>-35.39217889645446,173.23535182474217</t>
+          <t>-35.39219168384153,173.2353343249112</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -58711,7 +58689,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>-35.39226888838751,173.23522866853725</t>
+          <t>-35.39229488336543,173.2351930936786</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -58813,7 +58791,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>-35.39230094685762,173.23518479561358</t>
+          <t>-35.39231175307991,173.23517000697979</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -58915,7 +58893,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>-35.392358760125695,173.23510567637692</t>
+          <t>-35.39242119599552,173.23502023076074</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -59017,7 +58995,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>-35.392241032325614,173.2352667903004</t>
+          <t>-35.39222182124142,173.23529308115624</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -59103,7 +59081,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>-35.392214557048725,173.23530302238285</t>
+          <t>-35.39225778198496,173.23524386795026</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -59377,7 +59355,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>-35.39243488385119,173.23500149843497</t>
+          <t>-35.392460518555545,173.23496641638678</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -59475,7 +59453,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>-35.39264806582413,173.2347097498595</t>
+          <t>-35.39263203667753,173.23473168651375</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -59623,7 +59601,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>-35.392529858278365,173.23487152221065</t>
+          <t>-35.39250344315467,173.23490767239215</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -59725,7 +59703,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>-35.39245061287474,173.23497997268439</t>
+          <t>-35.39250782566459,173.23490167475003</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -59807,7 +59785,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>-35.392565398609534,173.23482288374743</t>
+          <t>-35.39260502125287,173.23476865838336</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -59903,11 +59881,7 @@
           <t>-35.392931941656634,173.23566711462976</t>
         </is>
       </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>-35.39230490913933,173.235179373115</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>-35.391734065667485,173.23461473013256</t>
@@ -59993,11 +59967,7 @@
           <t>-35.39279007937769,173.23586125718546</t>
         </is>
       </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>-35.39219156377219,173.23533448922888</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>-35.3917055493529,173.234653755531</t>
@@ -60107,7 +60077,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>-35.39240792837825,173.2350383879652</t>
+          <t>-35.39246718237629,173.23495729669378</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -60177,7 +60147,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>-35.392270329217965,173.2352266967212</t>
+          <t>-35.39231193318359,173.23516976050252</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -60271,7 +60241,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>-35.392550990369536,173.23484260204847</t>
+          <t>-35.39258941233568,173.23479001989674</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -60373,7 +60343,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>-35.39268138482396,173.23466415116832</t>
+          <t>-35.39265935226204,173.23469430382056</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -60475,7 +60445,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>-35.39260664217867,173.23476644007187</t>
+          <t>-35.39264668503637,173.23471163953417</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -60577,7 +60547,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>-35.392496899406446,173.2349166277744</t>
+          <t>-35.39249047572634,173.23492541883624</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -60679,7 +60649,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>-35.392564137888655,173.23482460909904</t>
+          <t>-35.39259937802939,173.234776381393</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -60781,7 +60751,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>-35.39260171936686,173.2347731771657</t>
+          <t>-35.39265052722832,173.2347063813088</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -60863,7 +60833,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>-35.392583228802046,173.23479848234015</t>
+          <t>-35.39256323737373,173.23482584149303</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -60965,7 +60935,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>-35.39243896619355,173.23499591159973</t>
+          <t>-35.392493777618064,173.23492090006633</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -61089,7 +61059,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>-35.39261048437299,173.2347611818517</t>
+          <t>-35.39265653065276,173.23469816533068</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -61143,7 +61113,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>-35.392554292258154,173.23483808327177</t>
+          <t>-35.39253988401566,173.23485780156741</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -61245,7 +61215,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>-35.392537062401146,173.23486166306617</t>
+          <t>-35.39259949809798,173.23477621707363</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -61347,7 +61317,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>-35.39259283429093,173.23478533679645</t>
+          <t>-35.392587611306524,173.23479248468624</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -61449,7 +61419,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>-35.39253279996193,173.23486749639355</t>
+          <t>-35.39254522707264,173.23485048936695</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -61551,7 +61521,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>-35.392593854874036,173.23478394008225</t>
+          <t>-35.39258707099777,173.23479322412302</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -61653,7 +61623,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>-35.39250158208873,173.23491021933586</t>
+          <t>-35.39254120477136,173.23485599405728</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -61755,7 +61725,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>-35.39239562131002,173.23505523061561</t>
+          <t>-35.39245445507838,173.2349747144845</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -61849,7 +61819,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>-35.392478528880346,173.23494176856445</t>
+          <t>-35.39245289418318,173.23497685062824</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -61981,7 +61951,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>-35.39234074976738,173.2351303241263</t>
+          <t>-35.39238115299752,173.2350750309932</t>
         </is>
       </c>
       <c r="K414" t="inlineStr"/>
@@ -62113,7 +62083,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>-35.39248789424723,173.2349289516925</t>
+          <t>-35.39245307428648,173.23497660415012</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -62249,7 +62219,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>-35.392424137684046,173.2350162049544</t>
+          <t>-35.39243536412678,173.23500084116026</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -62319,7 +62289,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>-35.39232039805643,173.23515817606994</t>
+          <t>-35.39230358837878,173.23518118061457</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -62389,7 +62359,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>-35.39249900061008,173.23491375219308</t>
+          <t>-35.39252781711011,173.2348743156346</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -62491,7 +62461,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>-35.392567679913896,173.23481976168245</t>
+          <t>-35.392612525538645,173.23475838842205</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -62569,7 +62539,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>-35.392603700498476,173.23477046589633</t>
+          <t>-35.39257728540508,173.23480661614377</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -62631,7 +62601,7 @@
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr">
         <is>
-          <t>-35.39264326308399,173.2347163226407</t>
+          <t>-35.39269207091394,173.2346495267153</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -62795,7 +62765,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>-35.39242233665027,173.23501866973385</t>
+          <t>-35.3924011444824,173.23504767196337</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -62897,7 +62867,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>-35.392438846124676,173.23499607591845</t>
+          <t>-35.392443228638975,173.2349900782859</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -62999,7 +62969,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>-35.392351555982984,173.23511553547797</t>
+          <t>-35.39238115299752,173.2350750309932</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -63119,7 +63089,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>-35.39254696806862,173.23484810673958</t>
+          <t>-35.3925553728762,173.23483660439933</t>
         </is>
       </c>
       <c r="K429" t="inlineStr"/>
@@ -63185,7 +63155,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>-35.392688889100825,173.23465388118765</t>
+          <t>-35.39272611030111,173.23460294205537</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -63287,7 +63257,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>-35.39258376911084,173.2347977429034</t>
+          <t>-35.39264020133697,173.23472051278833</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -63381,7 +63351,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>-35.392781641890586,173.2345269440694</t>
+          <t>-35.392749223454985,173.23457131047385</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
